--- a/docs/Memory_Sheet.xlsx
+++ b/docs/Memory_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Private Block" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Speed Controller</t>
   </si>
@@ -213,6 +213,57 @@
   </si>
   <si>
     <t>ENDIAN</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_0</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_1</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_2</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_3</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_4</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_5</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_6</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_7</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_8</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_9</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_10</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_11</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_12</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_13</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_14</t>
+  </si>
+  <si>
+    <t>SPEED_CONTROLLER_15</t>
+  </si>
+  <si>
+    <t>SPEED CONTROLLER / MOTOR</t>
   </si>
 </sst>
 </file>
@@ -500,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,6 +763,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1082,13 +1151,13 @@
         <v>60</v>
       </c>
       <c r="D4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="F4" s="47" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>47</v>
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
@@ -1801,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1823,6 +1892,11 @@
       <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="F2" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:18">
       <c r="C3" s="3">
@@ -1876,8 +1950,8 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="51" t="str">
-        <f>DEC2HEX(0, 4)</f>
-        <v>0000</v>
+        <f>DEC2HEX(0, 8)</f>
+        <v>00000000</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>60</v>
@@ -1907,8 +1981,8 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="51" t="str">
-        <f>DEC2HEX(A4+16, 4)</f>
-        <v>0010</v>
+        <f>DEC2HEX(HEX2DEC(A4)+16, 8)</f>
+        <v>00000010</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>59</v>
@@ -1931,8 +2005,8 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="51" t="str">
-        <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
-        <v>0020</v>
+        <f t="shared" ref="A6:A69" si="0">DEC2HEX(HEX2DEC(A5)+16, 8)</f>
+        <v>00000020</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
@@ -1953,8 +2027,8 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="51" t="str">
-        <f t="shared" ref="A7:A35" si="0">DEC2HEX(HEX2DEC(A6)+16, 4)</f>
-        <v>0030</v>
+        <f t="shared" si="0"/>
+        <v>00000030</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
@@ -1976,7 +2050,7 @@
     <row r="8" spans="1:18">
       <c r="A8" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0040</v>
+        <v>00000040</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="56"/>
@@ -1998,7 +2072,7 @@
     <row r="9" spans="1:18">
       <c r="A9" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0050</v>
+        <v>00000050</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="56"/>
@@ -2020,7 +2094,7 @@
     <row r="10" spans="1:18">
       <c r="A10" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0060</v>
+        <v>00000060</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
@@ -2042,7 +2116,7 @@
     <row r="11" spans="1:18">
       <c r="A11" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0070</v>
+        <v>00000070</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
@@ -2064,7 +2138,7 @@
     <row r="12" spans="1:18">
       <c r="A12" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0080</v>
+        <v>00000080</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="56"/>
@@ -2086,7 +2160,7 @@
     <row r="13" spans="1:18">
       <c r="A13" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0090</v>
+        <v>00000090</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
@@ -2108,7 +2182,7 @@
     <row r="14" spans="1:18">
       <c r="A14" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>00A0</v>
+        <v>000000A0</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
@@ -2130,7 +2204,7 @@
     <row r="15" spans="1:18">
       <c r="A15" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>00B0</v>
+        <v>000000B0</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
@@ -2152,7 +2226,7 @@
     <row r="16" spans="1:18">
       <c r="A16" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>00C0</v>
+        <v>000000C0</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
@@ -2174,7 +2248,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>00D0</v>
+        <v>000000D0</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
@@ -2196,7 +2270,7 @@
     <row r="18" spans="1:18">
       <c r="A18" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>00E0</v>
+        <v>000000E0</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
@@ -2218,7 +2292,7 @@
     <row r="19" spans="1:18">
       <c r="A19" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>00F0</v>
+        <v>000000F0</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
@@ -2240,7 +2314,7 @@
     <row r="20" spans="1:18">
       <c r="A20" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0100</v>
+        <v>00000100</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="59"/>
@@ -2262,7 +2336,7 @@
     <row r="21" spans="1:18">
       <c r="A21" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0110</v>
+        <v>00000110</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2284,7 +2358,7 @@
     <row r="22" spans="1:18">
       <c r="A22" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0120</v>
+        <v>00000120</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2306,149 +2380,870 @@
     <row r="23" spans="1:18">
       <c r="A23" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0130</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+        <v>00000130</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="80"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0140</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+        <v>00000140</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="80"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0150</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+        <v>00000150</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="80"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0160</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+        <v>00000160</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="80"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0170</v>
-      </c>
+        <v>00000170</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="80"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0180</v>
-      </c>
+        <v>00000180</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="80"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>0190</v>
-      </c>
+        <v>00000190</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="80"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>01A0</v>
-      </c>
+        <v>000001A0</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="80"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>01B0</v>
-      </c>
+        <v>000001B0</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="80"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>01C0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>000001C0</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="80"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>01D0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>000001D0</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="80"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>01E0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>000001E0</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="80"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>01F0</v>
+        <v>000001F0</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="80"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000200</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="80"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000210</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="80"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000220</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="80"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000002A0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000002B0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000002C0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000002D0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000002E0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000002F0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000003A0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000003B0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000003C0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000003D0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000003E0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>000003F0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00000410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="51" t="str">
+        <f t="shared" ref="A70:A115" si="1">DEC2HEX(HEX2DEC(A69)+16, 8)</f>
+        <v>00000420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000460</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000004A0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000004B0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000004C0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000004D0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000004E0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000004F0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000510</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000530</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000540</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000550</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000560</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000570</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000005A0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000005B0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000005C0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000005D0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000005E0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000005F0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000620</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000640</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000660</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000670</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>00000690</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000006A0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000006B0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000006C0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000006D0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000006E0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>000006F0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="19">
+    <mergeCell ref="C38:R38"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C32:R32"/>
+    <mergeCell ref="C33:R33"/>
+    <mergeCell ref="C34:R34"/>
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="C36:R36"/>
+    <mergeCell ref="C37:R37"/>
+    <mergeCell ref="C26:R26"/>
+    <mergeCell ref="C27:R27"/>
+    <mergeCell ref="C28:R28"/>
+    <mergeCell ref="C29:R29"/>
+    <mergeCell ref="C30:R30"/>
+    <mergeCell ref="C31:R31"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="C5:R20"/>
+    <mergeCell ref="C23:R23"/>
+    <mergeCell ref="C24:R24"/>
+    <mergeCell ref="C25:R25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2459,7 +3254,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/docs/Memory_Sheet.xlsx
+++ b/docs/Memory_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Private Block" sheetId="4" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>CONTROL PERIOD</t>
-  </si>
-  <si>
     <t>SRX Extended Block</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>SPEED CONTROLLER / MOTOR</t>
+  </si>
+  <si>
+    <t>BOOTSTRAP_INIT</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,7 +1092,7 @@
     <row r="1" spans="1:18" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1124,22 +1127,22 @@
         <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1147,17 +1150,17 @@
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>60</v>
+      <c r="C4" s="75" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="F4" s="47" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>49</v>
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
@@ -1178,7 +1181,7 @@
         <v>0010</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -1510,7 +1513,7 @@
         <v>0100</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -1872,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1890,13 +1893,13 @@
     <row r="1" spans="1:18" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+        <v>49</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:18">
       <c r="C3" s="3">
@@ -1930,22 +1933,22 @@
         <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1953,26 +1956,26 @@
         <f>DEC2HEX(0, 8)</f>
         <v>00000000</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="70" t="s">
+      <c r="C4" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="74" t="s">
         <v>52</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>53</v>
       </c>
       <c r="O4" s="48"/>
       <c r="P4" s="48"/>
@@ -1985,7 +1988,7 @@
         <v>00000010</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -2382,384 +2385,384 @@
         <f t="shared" si="0"/>
         <v>00000130</v>
       </c>
-      <c r="C23" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="80"/>
+      <c r="C23" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="81"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000140</v>
       </c>
-      <c r="C24" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="80"/>
+      <c r="C24" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="81"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000150</v>
       </c>
-      <c r="C25" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="80"/>
+      <c r="C25" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="81"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000160</v>
       </c>
-      <c r="C26" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="80"/>
+      <c r="C26" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="81"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000170</v>
       </c>
-      <c r="C27" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="80"/>
+      <c r="C27" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="81"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000180</v>
       </c>
-      <c r="C28" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="C28" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="81"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000190</v>
       </c>
-      <c r="C29" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="80"/>
+      <c r="C29" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="81"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="51" t="str">
         <f t="shared" si="0"/>
         <v>000001A0</v>
       </c>
-      <c r="C30" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="80"/>
+      <c r="C30" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="81"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="51" t="str">
         <f t="shared" si="0"/>
         <v>000001B0</v>
       </c>
-      <c r="C31" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="80"/>
+      <c r="C31" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="81"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="51" t="str">
         <f t="shared" si="0"/>
         <v>000001C0</v>
       </c>
-      <c r="C32" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="80"/>
+      <c r="C32" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="81"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="51" t="str">
         <f t="shared" si="0"/>
         <v>000001D0</v>
       </c>
-      <c r="C33" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="80"/>
+      <c r="C33" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="81"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="51" t="str">
         <f t="shared" si="0"/>
         <v>000001E0</v>
       </c>
-      <c r="C34" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="80"/>
+      <c r="C34" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="81"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="51" t="str">
         <f t="shared" si="0"/>
         <v>000001F0</v>
       </c>
-      <c r="C35" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="80"/>
+      <c r="C35" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="81"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000200</v>
       </c>
-      <c r="C36" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="80"/>
+      <c r="C36" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="81"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000210</v>
       </c>
-      <c r="C37" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="80"/>
+      <c r="C37" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="81"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="51" t="str">
         <f t="shared" si="0"/>
         <v>00000220</v>
       </c>
-      <c r="C38" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="80"/>
+      <c r="C38" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="81"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="51" t="str">
@@ -3253,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3306,22 +3309,22 @@
         <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3330,7 +3333,7 @@
         <v>0000</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>1</v>
@@ -3341,19 +3344,19 @@
       <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>4</v>
+      <c r="G4" s="70" t="s">
+        <v>77</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="K4" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="37"/>
       <c r="O4" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
@@ -3361,30 +3364,30 @@
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="25"/>
       <c r="N6" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3413,29 +3416,29 @@
         <v>0000</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="34"/>
       <c r="K8" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="34"/>
       <c r="O8" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
@@ -3447,25 +3450,25 @@
         <v>0010</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="46"/>
       <c r="G9" s="44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="46"/>
       <c r="K9" s="44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
       <c r="N9" s="46"/>
       <c r="O9" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
@@ -3477,25 +3480,25 @@
         <v>0020</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
       <c r="G10" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="43"/>
       <c r="K10" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="31"/>
       <c r="O10" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
@@ -3507,19 +3510,19 @@
         <v>0030</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
       <c r="K11" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -3535,25 +3538,25 @@
         <v>0040</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
       <c r="G12" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
       <c r="K12" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="22"/>
       <c r="O12" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -3565,25 +3568,25 @@
         <v>0050</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="28"/>
       <c r="K13" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="28"/>
       <c r="O13" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
@@ -3989,7 +3992,7 @@
     <row r="1" spans="1:18" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="1:18">
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4024,22 +4027,22 @@
         <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18">

--- a/docs/Memory_Sheet.xlsx
+++ b/docs/Memory_Sheet.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Private Block" sheetId="4" r:id="rId1"/>
     <sheet name="Shared Block" sheetId="5" r:id="rId2"/>
     <sheet name="Motors and Speed Controllers" sheetId="1" r:id="rId3"/>
-    <sheet name="_template" sheetId="3" r:id="rId4"/>
+    <sheet name="Power" sheetId="6" r:id="rId4"/>
+    <sheet name="_template" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Speed Controller</t>
   </si>
@@ -264,6 +265,120 @@
   </si>
   <si>
     <t>BOOTSTRAP_INIT</t>
+  </si>
+  <si>
+    <t>Power and Distribution</t>
+  </si>
+  <si>
+    <t>PDP_CAN_ID</t>
+  </si>
+  <si>
+    <t>PDP_VOLTAGE</t>
+  </si>
+  <si>
+    <t>PDP_TEMP</t>
+  </si>
+  <si>
+    <t>PDP_TOTAL_POWER</t>
+  </si>
+  <si>
+    <t>PDP_TOTAL_ENERGY</t>
+  </si>
+  <si>
+    <t>PDP_TOTAL_CURRENT</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_0</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_1</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_2</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_3</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_4</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_5</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_6</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_7</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_8</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_12</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_9</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_10</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_11</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_13</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_14</t>
+  </si>
+  <si>
+    <t>PDP_CURRENT_PORT_15</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>VOLTAGE</t>
+  </si>
+  <si>
+    <t>BUS_ENABLE</t>
+  </si>
+  <si>
+    <t>CONTR_INPUT_CURRENT</t>
+  </si>
+  <si>
+    <t>CONTR_INPUT_VOLTAGE</t>
+  </si>
+  <si>
+    <t>CONTR_VOLTAGE_3V3</t>
+  </si>
+  <si>
+    <t>CONTR_FAULTS_3V3</t>
+  </si>
+  <si>
+    <t>CONTR_FAULTS_5V</t>
+  </si>
+  <si>
+    <t>CONTR_FAULTS_6V</t>
+  </si>
+  <si>
+    <t>CONTR_VOLTAGE_5V</t>
+  </si>
+  <si>
+    <t>CONTR_VOLTAGE_6V</t>
+  </si>
+  <si>
+    <t>CONTR_CURRENT_3V3</t>
+  </si>
+  <si>
+    <t>CONTR_CURRENT_5V</t>
+  </si>
+  <si>
+    <t>CONTR_CURRENT_6V</t>
+  </si>
+  <si>
+    <t>POWER_AND_DISTRIBUTION</t>
   </si>
 </sst>
 </file>
@@ -551,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,87 +717,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,6 +730,18 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,7 +796,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,28 +823,130 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1146,149 +1309,149 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="51" t="str">
+      <c r="A4" s="24" t="str">
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="51" t="str">
+      <c r="A5" s="24" t="str">
         <f>DEC2HEX(A4+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="51" t="str">
+      <c r="A6" s="24" t="str">
         <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="51" t="str">
+      <c r="A7" s="24" t="str">
         <f t="shared" ref="A7:A35" si="0">DEC2HEX(HEX2DEC(A6)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="51" t="str">
+      <c r="A8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0050</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="51" t="str">
+      <c r="A10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0060</v>
       </c>
@@ -1310,7 +1473,7 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="51" t="str">
+      <c r="A11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0070</v>
       </c>
@@ -1332,7 +1495,7 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="51" t="str">
+      <c r="A12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0080</v>
       </c>
@@ -1354,7 +1517,7 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="51" t="str">
+      <c r="A13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0090</v>
       </c>
@@ -1376,7 +1539,7 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="51" t="str">
+      <c r="A14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00A0</v>
       </c>
@@ -1398,7 +1561,7 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="51" t="str">
+      <c r="A15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00B0</v>
       </c>
@@ -1420,7 +1583,7 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="51" t="str">
+      <c r="A16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00C0</v>
       </c>
@@ -1442,7 +1605,7 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="51" t="str">
+      <c r="A17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00D0</v>
       </c>
@@ -1464,7 +1627,7 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="51" t="str">
+      <c r="A18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00E0</v>
       </c>
@@ -1486,7 +1649,7 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="51" t="str">
+      <c r="A19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00F0</v>
       </c>
@@ -1508,358 +1671,358 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="51" t="str">
+      <c r="A20" s="24" t="str">
         <f>DEC2HEX(HEX2DEC(A19)+16, 4)</f>
         <v>0100</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="51" t="str">
+      <c r="A21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0110</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="66"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="51" t="str">
+      <c r="A22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0120</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="66"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="51" t="str">
+      <c r="A23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0130</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="66"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="43"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="51" t="str">
+      <c r="A24" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0140</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="66"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="43"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="51" t="str">
+      <c r="A25" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0150</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="66"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="51" t="str">
+      <c r="A26" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0160</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="66"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="51" t="str">
+      <c r="A27" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0170</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="66"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="51" t="str">
+      <c r="A28" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0180</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="66"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="51" t="str">
+      <c r="A29" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0190</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="66"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="51" t="str">
+      <c r="A30" s="24" t="str">
         <f t="shared" si="0"/>
         <v>01A0</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="66"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="51" t="str">
+      <c r="A31" s="24" t="str">
         <f t="shared" si="0"/>
         <v>01B0</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="66"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="43"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="51" t="str">
+      <c r="A32" s="24" t="str">
         <f t="shared" si="0"/>
         <v>01C0</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="66"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="51" t="str">
+      <c r="A33" s="24" t="str">
         <f t="shared" si="0"/>
         <v>01D0</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="66"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="51" t="str">
+      <c r="A34" s="24" t="str">
         <f t="shared" si="0"/>
         <v>01E0</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="66"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="51" t="str">
+      <c r="A35" s="24" t="str">
         <f t="shared" si="0"/>
         <v>01F0</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="69"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1875,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1895,11 +2058,11 @@
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:18">
       <c r="C3" s="3">
@@ -1952,392 +2115,392 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="51" t="str">
+      <c r="A4" s="24" t="str">
         <f>DEC2HEX(0, 8)</f>
         <v>00000000</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="51" t="str">
+      <c r="A5" s="24" t="str">
         <f>DEC2HEX(HEX2DEC(A4)+16, 8)</f>
         <v>00000010</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="51" t="str">
+      <c r="A6" s="24" t="str">
         <f t="shared" ref="A6:A69" si="0">DEC2HEX(HEX2DEC(A5)+16, 8)</f>
         <v>00000020</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="51" t="str">
+      <c r="A7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000030</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="51" t="str">
+      <c r="A8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000040</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="57"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000050</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="51" t="str">
+      <c r="A10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000060</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="51" t="str">
+      <c r="A11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000070</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="57"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="51" t="str">
+      <c r="A12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000080</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="57"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="51" t="str">
+      <c r="A13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000090</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="51" t="str">
+      <c r="A14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000000A0</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="51" t="str">
+      <c r="A15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000000B0</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="51" t="str">
+      <c r="A16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000000C0</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="51" t="str">
+      <c r="A17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000000D0</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="51" t="str">
+      <c r="A18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000000E0</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="57"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="51" t="str">
+      <c r="A19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000000F0</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="51" t="str">
+      <c r="A20" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000100</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="51" t="str">
+      <c r="A21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000110</v>
       </c>
@@ -2359,894 +2522,1025 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="51" t="str">
+      <c r="A22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000120</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="C22" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="51" t="str">
+      <c r="A23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000130</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="43"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000140</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="43"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000150</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000160</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000170</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000180</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000190</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000001A0</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000001B0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000001C0</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000140</v>
-      </c>
-      <c r="C24" s="79" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="49"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000001D0</v>
+      </c>
+      <c r="C33" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000150</v>
-      </c>
-      <c r="C25" s="79" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="49"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000001E0</v>
+      </c>
+      <c r="C34" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="81"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000160</v>
-      </c>
-      <c r="C26" s="79" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="49"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000001F0</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="81"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000170</v>
-      </c>
-      <c r="C27" s="79" t="s">
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="49"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000200</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="81"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000180</v>
-      </c>
-      <c r="C28" s="79" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="49"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000210</v>
+      </c>
+      <c r="C37" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="81"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000190</v>
-      </c>
-      <c r="C29" s="79" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="49"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000220</v>
+      </c>
+      <c r="C38" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="81"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000001A0</v>
-      </c>
-      <c r="C30" s="79" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="49"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000230</v>
+      </c>
+      <c r="C39" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="81"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000001B0</v>
-      </c>
-      <c r="C31" s="79" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="49"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000240</v>
+      </c>
+      <c r="C40" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="81"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000001C0</v>
-      </c>
-      <c r="C32" s="79" t="s">
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="49"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000250</v>
+      </c>
+      <c r="C41" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="81"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000001D0</v>
-      </c>
-      <c r="C33" s="79" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="49"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000260</v>
+      </c>
+      <c r="C42" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000001E0</v>
-      </c>
-      <c r="C34" s="79" t="s">
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="49"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000270</v>
+      </c>
+      <c r="C43" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="81"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000001F0</v>
-      </c>
-      <c r="C35" s="79" t="s">
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="49"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000280</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="81"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000200</v>
-      </c>
-      <c r="C36" s="79" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="49"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>00000290</v>
+      </c>
+      <c r="C45" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="81"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000210</v>
-      </c>
-      <c r="C37" s="79" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="49"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000002A0</v>
+      </c>
+      <c r="C46" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="81"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000220</v>
-      </c>
-      <c r="C38" s="79" t="s">
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="49"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>000002B0</v>
+      </c>
+      <c r="C47" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="81"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>00000290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000002A0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>000002B0</v>
-      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="49"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="51" t="str">
+      <c r="A48" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000002C0</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="51" t="str">
+      <c r="A49" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000002D0</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="51" t="str">
+      <c r="A50" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000002E0</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="51" t="str">
+      <c r="A51" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000002F0</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="51" t="str">
+      <c r="A52" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000300</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="51" t="str">
+      <c r="A53" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000310</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="51" t="str">
+      <c r="A54" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000320</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="51" t="str">
+      <c r="A55" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000330</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="51" t="str">
+      <c r="A56" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000340</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="51" t="str">
+      <c r="A57" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000350</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="51" t="str">
+      <c r="A58" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000360</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="51" t="str">
+      <c r="A59" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000370</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="51" t="str">
+      <c r="A60" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000380</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="51" t="str">
+      <c r="A61" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000390</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="51" t="str">
+      <c r="A62" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000003A0</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="51" t="str">
+      <c r="A63" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000003B0</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="51" t="str">
+      <c r="A64" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000003C0</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="51" t="str">
+      <c r="A65" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000003D0</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="51" t="str">
+      <c r="A66" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000003E0</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="51" t="str">
+      <c r="A67" s="24" t="str">
         <f t="shared" si="0"/>
         <v>000003F0</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="51" t="str">
+      <c r="A68" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000400</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="51" t="str">
+      <c r="A69" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00000410</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="51" t="str">
+      <c r="A70" s="24" t="str">
         <f t="shared" ref="A70:A115" si="1">DEC2HEX(HEX2DEC(A69)+16, 8)</f>
         <v>00000420</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="51" t="str">
+      <c r="A71" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000430</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="51" t="str">
+      <c r="A72" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000440</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="51" t="str">
+      <c r="A73" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000450</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="51" t="str">
+      <c r="A74" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000460</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="51" t="str">
+      <c r="A75" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000470</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="51" t="str">
+      <c r="A76" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000480</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="51" t="str">
+      <c r="A77" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000490</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="51" t="str">
+      <c r="A78" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000004A0</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="51" t="str">
+      <c r="A79" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000004B0</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="51" t="str">
+      <c r="A80" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000004C0</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="51" t="str">
+      <c r="A81" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000004D0</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="51" t="str">
+      <c r="A82" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000004E0</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="51" t="str">
+      <c r="A83" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000004F0</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="51" t="str">
+      <c r="A84" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000500</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="51" t="str">
+      <c r="A85" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000510</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="51" t="str">
+      <c r="A86" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000520</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="51" t="str">
+      <c r="A87" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000530</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="51" t="str">
+      <c r="A88" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000540</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="51" t="str">
+      <c r="A89" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000550</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="51" t="str">
+      <c r="A90" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000560</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="51" t="str">
+      <c r="A91" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000570</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="51" t="str">
+      <c r="A92" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000580</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="51" t="str">
+      <c r="A93" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000590</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="51" t="str">
+      <c r="A94" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000005A0</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="51" t="str">
+      <c r="A95" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000005B0</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="51" t="str">
+      <c r="A96" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000005C0</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="51" t="str">
+      <c r="A97" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000005D0</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="51" t="str">
+      <c r="A98" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000005E0</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="51" t="str">
+      <c r="A99" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000005F0</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="51" t="str">
+      <c r="A100" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000600</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="51" t="str">
+      <c r="A101" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000610</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="51" t="str">
+      <c r="A102" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000620</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="51" t="str">
+      <c r="A103" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000630</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="51" t="str">
+      <c r="A104" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000640</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="51" t="str">
+      <c r="A105" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000650</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="51" t="str">
+      <c r="A106" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000660</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="51" t="str">
+      <c r="A107" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000670</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="51" t="str">
+      <c r="A108" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000680</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="51" t="str">
+      <c r="A109" s="24" t="str">
         <f t="shared" si="1"/>
         <v>00000690</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="51" t="str">
+      <c r="A110" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000006A0</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="51" t="str">
+      <c r="A111" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000006B0</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="51" t="str">
+      <c r="A112" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000006C0</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="51" t="str">
+      <c r="A113" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000006D0</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="51" t="str">
+      <c r="A114" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000006E0</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="51" t="str">
+      <c r="A115" s="24" t="str">
         <f t="shared" si="1"/>
         <v>000006F0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C38:R38"/>
-    <mergeCell ref="F2:H2"/>
+  <mergeCells count="20">
     <mergeCell ref="C32:R32"/>
     <mergeCell ref="C33:R33"/>
     <mergeCell ref="C34:R34"/>
+    <mergeCell ref="C22:R29"/>
+    <mergeCell ref="C47:R47"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C41:R41"/>
+    <mergeCell ref="C42:R42"/>
+    <mergeCell ref="C43:R43"/>
+    <mergeCell ref="C44:R44"/>
+    <mergeCell ref="C45:R45"/>
+    <mergeCell ref="C46:R46"/>
     <mergeCell ref="C35:R35"/>
     <mergeCell ref="C36:R36"/>
     <mergeCell ref="C37:R37"/>
-    <mergeCell ref="C26:R26"/>
-    <mergeCell ref="C27:R27"/>
-    <mergeCell ref="C28:R28"/>
-    <mergeCell ref="C29:R29"/>
-    <mergeCell ref="C30:R30"/>
-    <mergeCell ref="C31:R31"/>
+    <mergeCell ref="C38:R38"/>
+    <mergeCell ref="C39:R39"/>
+    <mergeCell ref="C40:R40"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="C5:R20"/>
-    <mergeCell ref="C23:R23"/>
-    <mergeCell ref="C24:R24"/>
-    <mergeCell ref="C25:R25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3256,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3328,7 +3622,7 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="51" t="str">
+      <c r="A4" s="24" t="str">
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
@@ -3344,23 +3638,23 @@
       <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="26" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="1" t="s">
@@ -3381,11 +3675,11 @@
       <c r="J6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="19" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3705,7 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="51" t="str">
+      <c r="A8" s="24" t="str">
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
@@ -3425,175 +3719,175 @@
       <c r="F8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="32" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="32" t="s">
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="82"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="24" t="str">
         <f>DEC2HEX(A8+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="44" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="44" t="s">
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="44" t="s">
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="46"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="51" t="str">
+      <c r="A10" s="24" t="str">
         <f>DEC2HEX(HEX2DEC(A9)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="41" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="29" t="s">
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="29" t="s">
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="67"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="51" t="str">
+      <c r="A11" s="24" t="str">
         <f t="shared" ref="A11:A23" si="0">DEC2HEX(HEX2DEC(A10)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29" t="s">
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="29" t="s">
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="51" t="str">
+      <c r="A12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="20" t="s">
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="20" t="s">
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="51" t="str">
+      <c r="A13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0050</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="26" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26" t="s">
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="26" t="s">
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="51" t="str">
+      <c r="A14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0060</v>
       </c>
@@ -3615,7 +3909,7 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="51" t="str">
+      <c r="A15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0070</v>
       </c>
@@ -3637,7 +3931,7 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="51" t="str">
+      <c r="A16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0080</v>
       </c>
@@ -3659,7 +3953,7 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="51" t="str">
+      <c r="A17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0090</v>
       </c>
@@ -3681,7 +3975,7 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="51" t="str">
+      <c r="A18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00A0</v>
       </c>
@@ -3703,7 +3997,7 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="51" t="str">
+      <c r="A19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00B0</v>
       </c>
@@ -3725,7 +4019,7 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="51" t="str">
+      <c r="A20" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00C0</v>
       </c>
@@ -3747,7 +4041,7 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="51" t="str">
+      <c r="A21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00D0</v>
       </c>
@@ -3769,7 +4063,7 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="51" t="str">
+      <c r="A22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00E0</v>
       </c>
@@ -3791,7 +4085,7 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="51" t="str">
+      <c r="A23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00F0</v>
       </c>
@@ -3940,16 +4234,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="C13:F13"/>
@@ -3965,12 +4249,664 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="O8:R8"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="1.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="9.9499999999999993" customHeight="1"/>
+    <row r="2" spans="1:18">
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="24" t="str">
+        <f>DEC2HEX(0, 4)</f>
+        <v>0000</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="85"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="24" t="str">
+        <f>DEC2HEX(A4+16, 4)</f>
+        <v>0010</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="24" t="str">
+        <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
+        <v>0020</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="24" t="str">
+        <f t="shared" ref="A7:A19" si="0">DEC2HEX(HEX2DEC(A6)+16, 4)</f>
+        <v>0030</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="49"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0040</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0050</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0060</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="97"/>
+      <c r="I10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0070</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="24"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="24"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="24"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="24"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="24"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="24"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="24"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="24"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:R6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
@@ -4046,139 +4982,139 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="51" t="str">
+      <c r="A4" s="24" t="str">
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="51" t="str">
+      <c r="A5" s="24" t="str">
         <f>DEC2HEX(A4+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="51" t="str">
+      <c r="A6" s="24" t="str">
         <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="51" t="str">
+      <c r="A7" s="24" t="str">
         <f t="shared" ref="A7:A19" si="0">DEC2HEX(HEX2DEC(A6)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="51" t="str">
+      <c r="A8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0050</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="51" t="str">
+      <c r="A10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0060</v>
       </c>
@@ -4200,7 +5136,7 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="51" t="str">
+      <c r="A11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0070</v>
       </c>
@@ -4222,7 +5158,7 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="51" t="str">
+      <c r="A12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0080</v>
       </c>
@@ -4244,7 +5180,7 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="51" t="str">
+      <c r="A13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>0090</v>
       </c>
@@ -4266,7 +5202,7 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="51" t="str">
+      <c r="A14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00A0</v>
       </c>
@@ -4288,7 +5224,7 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="51" t="str">
+      <c r="A15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00B0</v>
       </c>
@@ -4310,7 +5246,7 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="51" t="str">
+      <c r="A16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00C0</v>
       </c>
@@ -4332,7 +5268,7 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="51" t="str">
+      <c r="A17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00D0</v>
       </c>
@@ -4354,7 +5290,7 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="51" t="str">
+      <c r="A18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00E0</v>
       </c>
@@ -4376,7 +5312,7 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="51" t="str">
+      <c r="A19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>00F0</v>
       </c>

--- a/docs/Memory_Sheet.xlsx
+++ b/docs/Memory_Sheet.xlsx
@@ -205,7 +205,9 @@
 0 -&gt; Is Accumulator Channel
 1 -&gt; Pending Init
 2 -&gt; Pending Reset
-3 -&gt; Pending Initial Set</t>
+3 -&gt; Pending Initial Set
+4 -&gt; Pending Centre Set
+5 -&gt; Pending Deadband Set</t>
         </r>
       </text>
     </comment>
@@ -2045,6 +2047,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2072,6 +2110,111 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2081,145 +2224,31 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,33 +2269,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2300,6 +2302,69 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2331,69 +2396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3361,28 +3363,28 @@
       <c r="F4" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="104" t="s">
         <v>295</v>
       </c>
       <c r="H4" s="128"/>
       <c r="I4" s="128"/>
       <c r="J4" s="128"/>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="115"/>
+      <c r="M4" s="96" t="s">
         <v>297</v>
       </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="75" t="s">
+      <c r="N4" s="115"/>
+      <c r="O4" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="75" t="s">
+      <c r="P4" s="115"/>
+      <c r="Q4" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="R4" s="121"/>
+      <c r="R4" s="115"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="str">
@@ -3443,20 +3445,20 @@
         <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="95" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="95" t="s">
+      <c r="F6" s="95"/>
+      <c r="G6" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="97"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -3520,12 +3522,12 @@
       <c r="F9" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="G9" s="125" t="s">
+      <c r="G9" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="24" t="s">
         <v>319</v>
       </c>
@@ -3853,15 +3855,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4502,11 +4504,11 @@
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="8" t="s">
         <v>123</v>
       </c>
@@ -4584,12 +4586,12 @@
       <c r="C4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="25" t="s">
         <v>53</v>
       </c>
@@ -4602,12 +4604,12 @@
       <c r="N4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="85"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="str">
@@ -4970,3814 +4972,3876 @@
         <f t="shared" si="0"/>
         <v>00000110</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="77"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000120</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="77"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="100"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000130</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="77"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="100"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000140</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="77"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000150</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="77"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="100"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000160</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="77"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="100"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000170</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="77"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="100"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000180</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="77"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="100"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000190</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="77"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="100"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A29)+16, 8)</f>
         <v>000001A0</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="77"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="100"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001B0</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="77"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="100"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001C0</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="77"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="100"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001D0</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="77"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="100"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001E0</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="77"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="100"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001F0</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="79"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="98"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000200</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="79"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="98"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000210</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="79"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="98"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000220</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="79"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="98"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000230</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="79"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="98"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000240</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="79"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="97"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="98"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000250</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="79"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="98"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000260</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="79"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="98"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000270</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="79"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="98"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000280</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="79"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="98"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000290</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="79"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="98"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002A0</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="79"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="98"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002B0</v>
       </c>
-      <c r="C47" s="95" t="s">
+      <c r="C47" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="95" t="s">
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="95" t="s">
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="95" t="s">
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="97"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="95"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002C0</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="80" t="s">
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="82"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="89"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002D0</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="88"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="77"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002E0</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="91"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="80"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002F0</v>
       </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="91"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="80"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000300</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="94"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="83"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000310</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="88"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="77"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000320</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="91"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="80"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000330</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="90"/>
-      <c r="O55" s="90"/>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="91"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="80"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000340</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="93"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93"/>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="93"/>
-      <c r="R56" s="94"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="83"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000350</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="88"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="77"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000360</v>
       </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="91"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="80"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000370</v>
       </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="90"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="91"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="79"/>
+      <c r="R59" s="80"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000380</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="93"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="93"/>
-      <c r="O60" s="93"/>
-      <c r="P60" s="93"/>
-      <c r="Q60" s="93"/>
-      <c r="R60" s="94"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="82"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="83"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000390</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="88"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="76"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="77"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003A0</v>
       </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="91"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="79"/>
+      <c r="Q62" s="79"/>
+      <c r="R62" s="80"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003B0</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="91"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="80"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003C0</v>
       </c>
-      <c r="C64" s="92"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="93"/>
-      <c r="R64" s="94"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="82"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="83"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003D0</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="87"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="87"/>
-      <c r="P65" s="87"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="88"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="77"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003E0</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-      <c r="Q66" s="90"/>
-      <c r="R66" s="91"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="80"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003F0</v>
       </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
-      <c r="M67" s="90"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="91"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="79"/>
+      <c r="R67" s="80"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000400</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="93"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="93"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="93"/>
-      <c r="P68" s="93"/>
-      <c r="Q68" s="93"/>
-      <c r="R68" s="94"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
+      <c r="P68" s="82"/>
+      <c r="Q68" s="82"/>
+      <c r="R68" s="83"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000410</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="87"/>
-      <c r="K69" s="87"/>
-      <c r="L69" s="87"/>
-      <c r="M69" s="87"/>
-      <c r="N69" s="87"/>
-      <c r="O69" s="87"/>
-      <c r="P69" s="87"/>
-      <c r="Q69" s="87"/>
-      <c r="R69" s="88"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="76"/>
+      <c r="P69" s="76"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="77"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="str">
         <f t="shared" ref="A70:A133" si="1">DEC2HEX(HEX2DEC(A69)+16, 8)</f>
         <v>00000420</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
-      <c r="K70" s="90"/>
-      <c r="L70" s="90"/>
-      <c r="M70" s="90"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="90"/>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="91"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="80"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000430</v>
       </c>
-      <c r="C71" s="89"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="90"/>
-      <c r="M71" s="90"/>
-      <c r="N71" s="90"/>
-      <c r="O71" s="90"/>
-      <c r="P71" s="90"/>
-      <c r="Q71" s="90"/>
-      <c r="R71" s="91"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="80"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000440</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="93"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="93"/>
-      <c r="M72" s="93"/>
-      <c r="N72" s="93"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="94"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="82"/>
+      <c r="L72" s="82"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="82"/>
+      <c r="Q72" s="82"/>
+      <c r="R72" s="83"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000450</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="87"/>
-      <c r="K73" s="87"/>
-      <c r="L73" s="87"/>
-      <c r="M73" s="87"/>
-      <c r="N73" s="87"/>
-      <c r="O73" s="87"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="88"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="76"/>
+      <c r="O73" s="76"/>
+      <c r="P73" s="76"/>
+      <c r="Q73" s="76"/>
+      <c r="R73" s="77"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000460</v>
       </c>
-      <c r="C74" s="89"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
-      <c r="K74" s="90"/>
-      <c r="L74" s="90"/>
-      <c r="M74" s="90"/>
-      <c r="N74" s="90"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="90"/>
-      <c r="Q74" s="90"/>
-      <c r="R74" s="91"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="79"/>
+      <c r="P74" s="79"/>
+      <c r="Q74" s="79"/>
+      <c r="R74" s="80"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000470</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="90"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="90"/>
-      <c r="R75" s="91"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="80"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000480</v>
       </c>
-      <c r="C76" s="92"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="93"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="93"/>
-      <c r="L76" s="93"/>
-      <c r="M76" s="93"/>
-      <c r="N76" s="93"/>
-      <c r="O76" s="93"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="94"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="82"/>
+      <c r="O76" s="82"/>
+      <c r="P76" s="82"/>
+      <c r="Q76" s="82"/>
+      <c r="R76" s="83"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000490</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="87"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="87"/>
-      <c r="N77" s="87"/>
-      <c r="O77" s="87"/>
-      <c r="P77" s="87"/>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="88"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="76"/>
+      <c r="P77" s="76"/>
+      <c r="Q77" s="76"/>
+      <c r="R77" s="77"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004A0</v>
       </c>
-      <c r="C78" s="89"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="90"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="90"/>
-      <c r="R78" s="91"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
+      <c r="O78" s="79"/>
+      <c r="P78" s="79"/>
+      <c r="Q78" s="79"/>
+      <c r="R78" s="80"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004B0</v>
       </c>
-      <c r="C79" s="89"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
-      <c r="M79" s="90"/>
-      <c r="N79" s="90"/>
-      <c r="O79" s="90"/>
-      <c r="P79" s="90"/>
-      <c r="Q79" s="90"/>
-      <c r="R79" s="91"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="79"/>
+      <c r="P79" s="79"/>
+      <c r="Q79" s="79"/>
+      <c r="R79" s="80"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004C0</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="93"/>
-      <c r="L80" s="93"/>
-      <c r="M80" s="93"/>
-      <c r="N80" s="93"/>
-      <c r="O80" s="93"/>
-      <c r="P80" s="93"/>
-      <c r="Q80" s="93"/>
-      <c r="R80" s="94"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="82"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="82"/>
+      <c r="Q80" s="82"/>
+      <c r="R80" s="83"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004D0</v>
       </c>
-      <c r="C81" s="98" t="s">
+      <c r="C81" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="99"/>
-      <c r="H81" s="99"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="99"/>
-      <c r="K81" s="99"/>
-      <c r="L81" s="99"/>
-      <c r="M81" s="99"/>
-      <c r="N81" s="99"/>
-      <c r="O81" s="99"/>
-      <c r="P81" s="99"/>
-      <c r="Q81" s="99"/>
-      <c r="R81" s="100"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="85"/>
+      <c r="P81" s="85"/>
+      <c r="Q81" s="85"/>
+      <c r="R81" s="86"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004E0</v>
       </c>
-      <c r="C82" s="98" t="s">
+      <c r="C82" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="99"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="99"/>
-      <c r="G82" s="99"/>
-      <c r="H82" s="99"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="99"/>
-      <c r="K82" s="99"/>
-      <c r="L82" s="99"/>
-      <c r="M82" s="99"/>
-      <c r="N82" s="99"/>
-      <c r="O82" s="99"/>
-      <c r="P82" s="99"/>
-      <c r="Q82" s="99"/>
-      <c r="R82" s="100"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="85"/>
+      <c r="O82" s="85"/>
+      <c r="P82" s="85"/>
+      <c r="Q82" s="85"/>
+      <c r="R82" s="86"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004F0</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="56"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="68"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000500</v>
       </c>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="59"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+      <c r="N84" s="70"/>
+      <c r="O84" s="70"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="71"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000510</v>
       </c>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="58"/>
-      <c r="P85" s="58"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="59"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+      <c r="N85" s="70"/>
+      <c r="O85" s="70"/>
+      <c r="P85" s="70"/>
+      <c r="Q85" s="70"/>
+      <c r="R85" s="71"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000520</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="56"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="67"/>
+      <c r="P86" s="67"/>
+      <c r="Q86" s="67"/>
+      <c r="R86" s="68"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000530</v>
       </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="58"/>
-      <c r="P87" s="58"/>
-      <c r="Q87" s="58"/>
-      <c r="R87" s="59"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="71"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000540</v>
       </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
-      <c r="Q88" s="58"/>
-      <c r="R88" s="59"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="70"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="71"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000550</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="55"/>
-      <c r="Q89" s="55"/>
-      <c r="R89" s="56"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
+      <c r="N89" s="67"/>
+      <c r="O89" s="67"/>
+      <c r="P89" s="67"/>
+      <c r="Q89" s="67"/>
+      <c r="R89" s="68"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000560</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="58"/>
-      <c r="N90" s="58"/>
-      <c r="O90" s="58"/>
-      <c r="P90" s="58"/>
-      <c r="Q90" s="58"/>
-      <c r="R90" s="59"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="70"/>
+      <c r="R90" s="71"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000570</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="58"/>
-      <c r="N91" s="58"/>
-      <c r="O91" s="58"/>
-      <c r="P91" s="58"/>
-      <c r="Q91" s="58"/>
-      <c r="R91" s="59"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="71"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000580</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="C92" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="56"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
+      <c r="N92" s="67"/>
+      <c r="O92" s="67"/>
+      <c r="P92" s="67"/>
+      <c r="Q92" s="67"/>
+      <c r="R92" s="68"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000590</v>
       </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="58"/>
-      <c r="P93" s="58"/>
-      <c r="Q93" s="58"/>
-      <c r="R93" s="59"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="70"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="70"/>
+      <c r="R93" s="71"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005A0</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="58"/>
-      <c r="Q94" s="58"/>
-      <c r="R94" s="59"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="70"/>
+      <c r="M94" s="70"/>
+      <c r="N94" s="70"/>
+      <c r="O94" s="70"/>
+      <c r="P94" s="70"/>
+      <c r="Q94" s="70"/>
+      <c r="R94" s="71"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005B0</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="55"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="55"/>
-      <c r="O95" s="55"/>
-      <c r="P95" s="55"/>
-      <c r="Q95" s="55"/>
-      <c r="R95" s="56"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="68"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005C0</v>
       </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="58"/>
-      <c r="L96" s="58"/>
-      <c r="M96" s="58"/>
-      <c r="N96" s="58"/>
-      <c r="O96" s="58"/>
-      <c r="P96" s="58"/>
-      <c r="Q96" s="58"/>
-      <c r="R96" s="59"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="70"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="70"/>
+      <c r="R96" s="71"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005D0</v>
       </c>
-      <c r="C97" s="57"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="58"/>
-      <c r="L97" s="58"/>
-      <c r="M97" s="58"/>
-      <c r="N97" s="58"/>
-      <c r="O97" s="58"/>
-      <c r="P97" s="58"/>
-      <c r="Q97" s="58"/>
-      <c r="R97" s="59"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="70"/>
+      <c r="K97" s="70"/>
+      <c r="L97" s="70"/>
+      <c r="M97" s="70"/>
+      <c r="N97" s="70"/>
+      <c r="O97" s="70"/>
+      <c r="P97" s="70"/>
+      <c r="Q97" s="70"/>
+      <c r="R97" s="71"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005E0</v>
       </c>
-      <c r="C98" s="54" t="s">
+      <c r="C98" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="55"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="56"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="67"/>
+      <c r="P98" s="67"/>
+      <c r="Q98" s="67"/>
+      <c r="R98" s="68"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005F0</v>
       </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="58"/>
-      <c r="P99" s="58"/>
-      <c r="Q99" s="58"/>
-      <c r="R99" s="59"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="70"/>
+      <c r="Q99" s="70"/>
+      <c r="R99" s="71"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000600</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="58"/>
-      <c r="O100" s="58"/>
-      <c r="P100" s="58"/>
-      <c r="Q100" s="58"/>
-      <c r="R100" s="59"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="70"/>
+      <c r="N100" s="70"/>
+      <c r="O100" s="70"/>
+      <c r="P100" s="70"/>
+      <c r="Q100" s="70"/>
+      <c r="R100" s="71"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000610</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="55"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="55"/>
-      <c r="Q101" s="55"/>
-      <c r="R101" s="56"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="67"/>
+      <c r="N101" s="67"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="67"/>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="68"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000620</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="58"/>
-      <c r="P102" s="58"/>
-      <c r="Q102" s="58"/>
-      <c r="R102" s="59"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="70"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
+      <c r="N102" s="70"/>
+      <c r="O102" s="70"/>
+      <c r="P102" s="70"/>
+      <c r="Q102" s="70"/>
+      <c r="R102" s="71"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000630</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="58"/>
-      <c r="P103" s="58"/>
-      <c r="Q103" s="58"/>
-      <c r="R103" s="59"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
+      <c r="N103" s="70"/>
+      <c r="O103" s="70"/>
+      <c r="P103" s="70"/>
+      <c r="Q103" s="70"/>
+      <c r="R103" s="71"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000640</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="55"/>
-      <c r="J104" s="55"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="55"/>
-      <c r="M104" s="55"/>
-      <c r="N104" s="55"/>
-      <c r="O104" s="55"/>
-      <c r="P104" s="55"/>
-      <c r="Q104" s="55"/>
-      <c r="R104" s="56"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="67"/>
+      <c r="N104" s="67"/>
+      <c r="O104" s="67"/>
+      <c r="P104" s="67"/>
+      <c r="Q104" s="67"/>
+      <c r="R104" s="68"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000650</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="58"/>
-      <c r="L105" s="58"/>
-      <c r="M105" s="58"/>
-      <c r="N105" s="58"/>
-      <c r="O105" s="58"/>
-      <c r="P105" s="58"/>
-      <c r="Q105" s="58"/>
-      <c r="R105" s="59"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="70"/>
+      <c r="N105" s="70"/>
+      <c r="O105" s="70"/>
+      <c r="P105" s="70"/>
+      <c r="Q105" s="70"/>
+      <c r="R105" s="71"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000660</v>
       </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="61"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="61"/>
-      <c r="L106" s="61"/>
-      <c r="M106" s="61"/>
-      <c r="N106" s="61"/>
-      <c r="O106" s="61"/>
-      <c r="P106" s="61"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="62"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="73"/>
+      <c r="O106" s="73"/>
+      <c r="P106" s="73"/>
+      <c r="Q106" s="73"/>
+      <c r="R106" s="74"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000670</v>
       </c>
-      <c r="C107" s="54" t="s">
+      <c r="C107" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55"/>
-      <c r="K107" s="55"/>
-      <c r="L107" s="55"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="55"/>
-      <c r="O107" s="55"/>
-      <c r="P107" s="55"/>
-      <c r="Q107" s="55"/>
-      <c r="R107" s="56"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
+      <c r="L107" s="67"/>
+      <c r="M107" s="67"/>
+      <c r="N107" s="67"/>
+      <c r="O107" s="67"/>
+      <c r="P107" s="67"/>
+      <c r="Q107" s="67"/>
+      <c r="R107" s="68"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000680</v>
       </c>
-      <c r="C108" s="57"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="58"/>
-      <c r="O108" s="58"/>
-      <c r="P108" s="58"/>
-      <c r="Q108" s="58"/>
-      <c r="R108" s="59"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="70"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+      <c r="N108" s="70"/>
+      <c r="O108" s="70"/>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="70"/>
+      <c r="R108" s="71"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000690</v>
       </c>
-      <c r="C109" s="60"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="61"/>
-      <c r="L109" s="61"/>
-      <c r="M109" s="61"/>
-      <c r="N109" s="61"/>
-      <c r="O109" s="61"/>
-      <c r="P109" s="61"/>
-      <c r="Q109" s="61"/>
-      <c r="R109" s="62"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="73"/>
+      <c r="Q109" s="73"/>
+      <c r="R109" s="74"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006A0</v>
       </c>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="55"/>
-      <c r="J110" s="55"/>
-      <c r="K110" s="55"/>
-      <c r="L110" s="55"/>
-      <c r="M110" s="55"/>
-      <c r="N110" s="55"/>
-      <c r="O110" s="55"/>
-      <c r="P110" s="55"/>
-      <c r="Q110" s="55"/>
-      <c r="R110" s="56"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="67"/>
+      <c r="M110" s="67"/>
+      <c r="N110" s="67"/>
+      <c r="O110" s="67"/>
+      <c r="P110" s="67"/>
+      <c r="Q110" s="67"/>
+      <c r="R110" s="68"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006B0</v>
       </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="58"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="58"/>
-      <c r="L111" s="58"/>
-      <c r="M111" s="58"/>
-      <c r="N111" s="58"/>
-      <c r="O111" s="58"/>
-      <c r="P111" s="58"/>
-      <c r="Q111" s="58"/>
-      <c r="R111" s="59"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="70"/>
+      <c r="N111" s="70"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70"/>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="71"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006C0</v>
       </c>
-      <c r="C112" s="60"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="61"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="61"/>
-      <c r="L112" s="61"/>
-      <c r="M112" s="61"/>
-      <c r="N112" s="61"/>
-      <c r="O112" s="61"/>
-      <c r="P112" s="61"/>
-      <c r="Q112" s="61"/>
-      <c r="R112" s="62"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="73"/>
+      <c r="K112" s="73"/>
+      <c r="L112" s="73"/>
+      <c r="M112" s="73"/>
+      <c r="N112" s="73"/>
+      <c r="O112" s="73"/>
+      <c r="P112" s="73"/>
+      <c r="Q112" s="73"/>
+      <c r="R112" s="74"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006D0</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="55"/>
-      <c r="J113" s="55"/>
-      <c r="K113" s="55"/>
-      <c r="L113" s="55"/>
-      <c r="M113" s="55"/>
-      <c r="N113" s="55"/>
-      <c r="O113" s="55"/>
-      <c r="P113" s="55"/>
-      <c r="Q113" s="55"/>
-      <c r="R113" s="56"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="67"/>
+      <c r="N113" s="67"/>
+      <c r="O113" s="67"/>
+      <c r="P113" s="67"/>
+      <c r="Q113" s="67"/>
+      <c r="R113" s="68"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006E0</v>
       </c>
-      <c r="C114" s="57"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="58"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="58"/>
-      <c r="L114" s="58"/>
-      <c r="M114" s="58"/>
-      <c r="N114" s="58"/>
-      <c r="O114" s="58"/>
-      <c r="P114" s="58"/>
-      <c r="Q114" s="58"/>
-      <c r="R114" s="59"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="70"/>
+      <c r="J114" s="70"/>
+      <c r="K114" s="70"/>
+      <c r="L114" s="70"/>
+      <c r="M114" s="70"/>
+      <c r="N114" s="70"/>
+      <c r="O114" s="70"/>
+      <c r="P114" s="70"/>
+      <c r="Q114" s="70"/>
+      <c r="R114" s="71"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006F0</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="61"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="61"/>
-      <c r="J115" s="61"/>
-      <c r="K115" s="61"/>
-      <c r="L115" s="61"/>
-      <c r="M115" s="61"/>
-      <c r="N115" s="61"/>
-      <c r="O115" s="61"/>
-      <c r="P115" s="61"/>
-      <c r="Q115" s="61"/>
-      <c r="R115" s="62"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="73"/>
+      <c r="F115" s="73"/>
+      <c r="G115" s="73"/>
+      <c r="H115" s="73"/>
+      <c r="I115" s="73"/>
+      <c r="J115" s="73"/>
+      <c r="K115" s="73"/>
+      <c r="L115" s="73"/>
+      <c r="M115" s="73"/>
+      <c r="N115" s="73"/>
+      <c r="O115" s="73"/>
+      <c r="P115" s="73"/>
+      <c r="Q115" s="73"/>
+      <c r="R115" s="74"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000700</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="55"/>
-      <c r="J116" s="55"/>
-      <c r="K116" s="55"/>
-      <c r="L116" s="55"/>
-      <c r="M116" s="55"/>
-      <c r="N116" s="55"/>
-      <c r="O116" s="55"/>
-      <c r="P116" s="55"/>
-      <c r="Q116" s="55"/>
-      <c r="R116" s="56"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+      <c r="K116" s="67"/>
+      <c r="L116" s="67"/>
+      <c r="M116" s="67"/>
+      <c r="N116" s="67"/>
+      <c r="O116" s="67"/>
+      <c r="P116" s="67"/>
+      <c r="Q116" s="67"/>
+      <c r="R116" s="68"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000710</v>
       </c>
-      <c r="C117" s="57"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="58"/>
-      <c r="O117" s="58"/>
-      <c r="P117" s="58"/>
-      <c r="Q117" s="58"/>
-      <c r="R117" s="59"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
+      <c r="K117" s="70"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="70"/>
+      <c r="N117" s="70"/>
+      <c r="O117" s="70"/>
+      <c r="P117" s="70"/>
+      <c r="Q117" s="70"/>
+      <c r="R117" s="71"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000720</v>
       </c>
-      <c r="C118" s="60"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="61"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61"/>
-      <c r="J118" s="61"/>
-      <c r="K118" s="61"/>
-      <c r="L118" s="61"/>
-      <c r="M118" s="61"/>
-      <c r="N118" s="61"/>
-      <c r="O118" s="61"/>
-      <c r="P118" s="61"/>
-      <c r="Q118" s="61"/>
-      <c r="R118" s="62"/>
+      <c r="C118" s="72"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="73"/>
+      <c r="H118" s="73"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="73"/>
+      <c r="K118" s="73"/>
+      <c r="L118" s="73"/>
+      <c r="M118" s="73"/>
+      <c r="N118" s="73"/>
+      <c r="O118" s="73"/>
+      <c r="P118" s="73"/>
+      <c r="Q118" s="73"/>
+      <c r="R118" s="74"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000730</v>
       </c>
-      <c r="C119" s="54" t="s">
+      <c r="C119" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="55"/>
-      <c r="J119" s="55"/>
-      <c r="K119" s="55"/>
-      <c r="L119" s="55"/>
-      <c r="M119" s="55"/>
-      <c r="N119" s="55"/>
-      <c r="O119" s="55"/>
-      <c r="P119" s="55"/>
-      <c r="Q119" s="55"/>
-      <c r="R119" s="56"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="67"/>
+      <c r="K119" s="67"/>
+      <c r="L119" s="67"/>
+      <c r="M119" s="67"/>
+      <c r="N119" s="67"/>
+      <c r="O119" s="67"/>
+      <c r="P119" s="67"/>
+      <c r="Q119" s="67"/>
+      <c r="R119" s="68"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000740</v>
       </c>
-      <c r="C120" s="57"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="58"/>
-      <c r="H120" s="58"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="58"/>
-      <c r="L120" s="58"/>
-      <c r="M120" s="58"/>
-      <c r="N120" s="58"/>
-      <c r="O120" s="58"/>
-      <c r="P120" s="58"/>
-      <c r="Q120" s="58"/>
-      <c r="R120" s="59"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+      <c r="N120" s="70"/>
+      <c r="O120" s="70"/>
+      <c r="P120" s="70"/>
+      <c r="Q120" s="70"/>
+      <c r="R120" s="71"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000750</v>
       </c>
-      <c r="C121" s="60"/>
-      <c r="D121" s="61"/>
-      <c r="E121" s="61"/>
-      <c r="F121" s="61"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
-      <c r="L121" s="61"/>
-      <c r="M121" s="61"/>
-      <c r="N121" s="61"/>
-      <c r="O121" s="61"/>
-      <c r="P121" s="61"/>
-      <c r="Q121" s="61"/>
-      <c r="R121" s="62"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="73"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="73"/>
+      <c r="I121" s="73"/>
+      <c r="J121" s="73"/>
+      <c r="K121" s="73"/>
+      <c r="L121" s="73"/>
+      <c r="M121" s="73"/>
+      <c r="N121" s="73"/>
+      <c r="O121" s="73"/>
+      <c r="P121" s="73"/>
+      <c r="Q121" s="73"/>
+      <c r="R121" s="74"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000760</v>
       </c>
-      <c r="C122" s="54" t="s">
+      <c r="C122" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
-      <c r="L122" s="55"/>
-      <c r="M122" s="55"/>
-      <c r="N122" s="55"/>
-      <c r="O122" s="55"/>
-      <c r="P122" s="55"/>
-      <c r="Q122" s="55"/>
-      <c r="R122" s="56"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="67"/>
+      <c r="N122" s="67"/>
+      <c r="O122" s="67"/>
+      <c r="P122" s="67"/>
+      <c r="Q122" s="67"/>
+      <c r="R122" s="68"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000770</v>
       </c>
-      <c r="C123" s="57"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="58"/>
-      <c r="H123" s="58"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="58"/>
-      <c r="L123" s="58"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="58"/>
-      <c r="O123" s="58"/>
-      <c r="P123" s="58"/>
-      <c r="Q123" s="58"/>
-      <c r="R123" s="59"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="70"/>
+      <c r="K123" s="70"/>
+      <c r="L123" s="70"/>
+      <c r="M123" s="70"/>
+      <c r="N123" s="70"/>
+      <c r="O123" s="70"/>
+      <c r="P123" s="70"/>
+      <c r="Q123" s="70"/>
+      <c r="R123" s="71"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000780</v>
       </c>
-      <c r="C124" s="60"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="61"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
-      <c r="M124" s="61"/>
-      <c r="N124" s="61"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="61"/>
-      <c r="Q124" s="61"/>
-      <c r="R124" s="62"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="73"/>
+      <c r="G124" s="73"/>
+      <c r="H124" s="73"/>
+      <c r="I124" s="73"/>
+      <c r="J124" s="73"/>
+      <c r="K124" s="73"/>
+      <c r="L124" s="73"/>
+      <c r="M124" s="73"/>
+      <c r="N124" s="73"/>
+      <c r="O124" s="73"/>
+      <c r="P124" s="73"/>
+      <c r="Q124" s="73"/>
+      <c r="R124" s="74"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000790</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="C125" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="55"/>
-      <c r="L125" s="55"/>
-      <c r="M125" s="55"/>
-      <c r="N125" s="55"/>
-      <c r="O125" s="55"/>
-      <c r="P125" s="55"/>
-      <c r="Q125" s="55"/>
-      <c r="R125" s="56"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+      <c r="L125" s="67"/>
+      <c r="M125" s="67"/>
+      <c r="N125" s="67"/>
+      <c r="O125" s="67"/>
+      <c r="P125" s="67"/>
+      <c r="Q125" s="67"/>
+      <c r="R125" s="68"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007A0</v>
       </c>
-      <c r="C126" s="57"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58"/>
-      <c r="F126" s="58"/>
-      <c r="G126" s="58"/>
-      <c r="H126" s="58"/>
-      <c r="I126" s="58"/>
-      <c r="J126" s="58"/>
-      <c r="K126" s="58"/>
-      <c r="L126" s="58"/>
-      <c r="M126" s="58"/>
-      <c r="N126" s="58"/>
-      <c r="O126" s="58"/>
-      <c r="P126" s="58"/>
-      <c r="Q126" s="58"/>
-      <c r="R126" s="59"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="70"/>
+      <c r="F126" s="70"/>
+      <c r="G126" s="70"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="70"/>
+      <c r="J126" s="70"/>
+      <c r="K126" s="70"/>
+      <c r="L126" s="70"/>
+      <c r="M126" s="70"/>
+      <c r="N126" s="70"/>
+      <c r="O126" s="70"/>
+      <c r="P126" s="70"/>
+      <c r="Q126" s="70"/>
+      <c r="R126" s="71"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007B0</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="61"/>
-      <c r="I127" s="61"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="61"/>
-      <c r="L127" s="61"/>
-      <c r="M127" s="61"/>
-      <c r="N127" s="61"/>
-      <c r="O127" s="61"/>
-      <c r="P127" s="61"/>
-      <c r="Q127" s="61"/>
-      <c r="R127" s="62"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="73"/>
+      <c r="H127" s="73"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="73"/>
+      <c r="K127" s="73"/>
+      <c r="L127" s="73"/>
+      <c r="M127" s="73"/>
+      <c r="N127" s="73"/>
+      <c r="O127" s="73"/>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="74"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007C0</v>
       </c>
-      <c r="C128" s="54" t="s">
+      <c r="C128" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="D128" s="55"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="55"/>
-      <c r="I128" s="55"/>
-      <c r="J128" s="55"/>
-      <c r="K128" s="55"/>
-      <c r="L128" s="55"/>
-      <c r="M128" s="55"/>
-      <c r="N128" s="55"/>
-      <c r="O128" s="55"/>
-      <c r="P128" s="55"/>
-      <c r="Q128" s="55"/>
-      <c r="R128" s="56"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="67"/>
+      <c r="M128" s="67"/>
+      <c r="N128" s="67"/>
+      <c r="O128" s="67"/>
+      <c r="P128" s="67"/>
+      <c r="Q128" s="67"/>
+      <c r="R128" s="68"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007D0</v>
       </c>
-      <c r="C129" s="57"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="58"/>
-      <c r="H129" s="58"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="58"/>
-      <c r="K129" s="58"/>
-      <c r="L129" s="58"/>
-      <c r="M129" s="58"/>
-      <c r="N129" s="58"/>
-      <c r="O129" s="58"/>
-      <c r="P129" s="58"/>
-      <c r="Q129" s="58"/>
-      <c r="R129" s="59"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="70"/>
+      <c r="H129" s="70"/>
+      <c r="I129" s="70"/>
+      <c r="J129" s="70"/>
+      <c r="K129" s="70"/>
+      <c r="L129" s="70"/>
+      <c r="M129" s="70"/>
+      <c r="N129" s="70"/>
+      <c r="O129" s="70"/>
+      <c r="P129" s="70"/>
+      <c r="Q129" s="70"/>
+      <c r="R129" s="71"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007E0</v>
       </c>
-      <c r="C130" s="60"/>
-      <c r="D130" s="61"/>
-      <c r="E130" s="61"/>
-      <c r="F130" s="61"/>
-      <c r="G130" s="61"/>
-      <c r="H130" s="61"/>
-      <c r="I130" s="61"/>
-      <c r="J130" s="61"/>
-      <c r="K130" s="61"/>
-      <c r="L130" s="61"/>
-      <c r="M130" s="61"/>
-      <c r="N130" s="61"/>
-      <c r="O130" s="61"/>
-      <c r="P130" s="61"/>
-      <c r="Q130" s="61"/>
-      <c r="R130" s="62"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="73"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="73"/>
+      <c r="H130" s="73"/>
+      <c r="I130" s="73"/>
+      <c r="J130" s="73"/>
+      <c r="K130" s="73"/>
+      <c r="L130" s="73"/>
+      <c r="M130" s="73"/>
+      <c r="N130" s="73"/>
+      <c r="O130" s="73"/>
+      <c r="P130" s="73"/>
+      <c r="Q130" s="73"/>
+      <c r="R130" s="74"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007F0</v>
       </c>
-      <c r="C131" s="54" t="s">
+      <c r="C131" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="55"/>
-      <c r="I131" s="55"/>
-      <c r="J131" s="55"/>
-      <c r="K131" s="55"/>
-      <c r="L131" s="55"/>
-      <c r="M131" s="55"/>
-      <c r="N131" s="55"/>
-      <c r="O131" s="55"/>
-      <c r="P131" s="55"/>
-      <c r="Q131" s="55"/>
-      <c r="R131" s="56"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
+      <c r="L131" s="67"/>
+      <c r="M131" s="67"/>
+      <c r="N131" s="67"/>
+      <c r="O131" s="67"/>
+      <c r="P131" s="67"/>
+      <c r="Q131" s="67"/>
+      <c r="R131" s="68"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000800</v>
       </c>
-      <c r="C132" s="57"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="58"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="58"/>
-      <c r="H132" s="58"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="58"/>
-      <c r="L132" s="58"/>
-      <c r="M132" s="58"/>
-      <c r="N132" s="58"/>
-      <c r="O132" s="58"/>
-      <c r="P132" s="58"/>
-      <c r="Q132" s="58"/>
-      <c r="R132" s="59"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="70"/>
+      <c r="K132" s="70"/>
+      <c r="L132" s="70"/>
+      <c r="M132" s="70"/>
+      <c r="N132" s="70"/>
+      <c r="O132" s="70"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="70"/>
+      <c r="R132" s="71"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000810</v>
       </c>
-      <c r="C133" s="60"/>
-      <c r="D133" s="61"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="61"/>
-      <c r="G133" s="61"/>
-      <c r="H133" s="61"/>
-      <c r="I133" s="61"/>
-      <c r="J133" s="61"/>
-      <c r="K133" s="61"/>
-      <c r="L133" s="61"/>
-      <c r="M133" s="61"/>
-      <c r="N133" s="61"/>
-      <c r="O133" s="61"/>
-      <c r="P133" s="61"/>
-      <c r="Q133" s="61"/>
-      <c r="R133" s="62"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="73"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
+      <c r="K133" s="73"/>
+      <c r="L133" s="73"/>
+      <c r="M133" s="73"/>
+      <c r="N133" s="73"/>
+      <c r="O133" s="73"/>
+      <c r="P133" s="73"/>
+      <c r="Q133" s="73"/>
+      <c r="R133" s="74"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="str">
         <f t="shared" ref="A134:A185" si="2">DEC2HEX(HEX2DEC(A133)+16, 8)</f>
         <v>00000820</v>
       </c>
-      <c r="C134" s="54" t="s">
+      <c r="C134" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="55"/>
-      <c r="K134" s="55"/>
-      <c r="L134" s="55"/>
-      <c r="M134" s="55"/>
-      <c r="N134" s="55"/>
-      <c r="O134" s="55"/>
-      <c r="P134" s="55"/>
-      <c r="Q134" s="55"/>
-      <c r="R134" s="56"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+      <c r="J134" s="67"/>
+      <c r="K134" s="67"/>
+      <c r="L134" s="67"/>
+      <c r="M134" s="67"/>
+      <c r="N134" s="67"/>
+      <c r="O134" s="67"/>
+      <c r="P134" s="67"/>
+      <c r="Q134" s="67"/>
+      <c r="R134" s="68"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000830</v>
       </c>
-      <c r="C135" s="57"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="58"/>
-      <c r="H135" s="58"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="58"/>
-      <c r="L135" s="58"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="58"/>
-      <c r="O135" s="58"/>
-      <c r="P135" s="58"/>
-      <c r="Q135" s="58"/>
-      <c r="R135" s="59"/>
+      <c r="C135" s="69"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="70"/>
+      <c r="M135" s="70"/>
+      <c r="N135" s="70"/>
+      <c r="O135" s="70"/>
+      <c r="P135" s="70"/>
+      <c r="Q135" s="70"/>
+      <c r="R135" s="71"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000840</v>
       </c>
-      <c r="C136" s="60"/>
-      <c r="D136" s="61"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="61"/>
-      <c r="J136" s="61"/>
-      <c r="K136" s="61"/>
-      <c r="L136" s="61"/>
-      <c r="M136" s="61"/>
-      <c r="N136" s="61"/>
-      <c r="O136" s="61"/>
-      <c r="P136" s="61"/>
-      <c r="Q136" s="61"/>
-      <c r="R136" s="62"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="73"/>
+      <c r="H136" s="73"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="73"/>
+      <c r="L136" s="73"/>
+      <c r="M136" s="73"/>
+      <c r="N136" s="73"/>
+      <c r="O136" s="73"/>
+      <c r="P136" s="73"/>
+      <c r="Q136" s="73"/>
+      <c r="R136" s="74"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000850</v>
       </c>
-      <c r="C137" s="54" t="s">
+      <c r="C137" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="55"/>
-      <c r="K137" s="55"/>
-      <c r="L137" s="55"/>
-      <c r="M137" s="55"/>
-      <c r="N137" s="55"/>
-      <c r="O137" s="55"/>
-      <c r="P137" s="55"/>
-      <c r="Q137" s="55"/>
-      <c r="R137" s="56"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="67"/>
+      <c r="H137" s="67"/>
+      <c r="I137" s="67"/>
+      <c r="J137" s="67"/>
+      <c r="K137" s="67"/>
+      <c r="L137" s="67"/>
+      <c r="M137" s="67"/>
+      <c r="N137" s="67"/>
+      <c r="O137" s="67"/>
+      <c r="P137" s="67"/>
+      <c r="Q137" s="67"/>
+      <c r="R137" s="68"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000860</v>
       </c>
-      <c r="C138" s="57"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="58"/>
-      <c r="F138" s="58"/>
-      <c r="G138" s="58"/>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
-      <c r="K138" s="58"/>
-      <c r="L138" s="58"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="58"/>
-      <c r="O138" s="58"/>
-      <c r="P138" s="58"/>
-      <c r="Q138" s="58"/>
-      <c r="R138" s="59"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
+      <c r="F138" s="70"/>
+      <c r="G138" s="70"/>
+      <c r="H138" s="70"/>
+      <c r="I138" s="70"/>
+      <c r="J138" s="70"/>
+      <c r="K138" s="70"/>
+      <c r="L138" s="70"/>
+      <c r="M138" s="70"/>
+      <c r="N138" s="70"/>
+      <c r="O138" s="70"/>
+      <c r="P138" s="70"/>
+      <c r="Q138" s="70"/>
+      <c r="R138" s="71"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000870</v>
       </c>
-      <c r="C139" s="60"/>
-      <c r="D139" s="61"/>
-      <c r="E139" s="61"/>
-      <c r="F139" s="61"/>
-      <c r="G139" s="61"/>
-      <c r="H139" s="61"/>
-      <c r="I139" s="61"/>
-      <c r="J139" s="61"/>
-      <c r="K139" s="61"/>
-      <c r="L139" s="61"/>
-      <c r="M139" s="61"/>
-      <c r="N139" s="61"/>
-      <c r="O139" s="61"/>
-      <c r="P139" s="61"/>
-      <c r="Q139" s="61"/>
-      <c r="R139" s="62"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="73"/>
+      <c r="H139" s="73"/>
+      <c r="I139" s="73"/>
+      <c r="J139" s="73"/>
+      <c r="K139" s="73"/>
+      <c r="L139" s="73"/>
+      <c r="M139" s="73"/>
+      <c r="N139" s="73"/>
+      <c r="O139" s="73"/>
+      <c r="P139" s="73"/>
+      <c r="Q139" s="73"/>
+      <c r="R139" s="74"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000880</v>
       </c>
-      <c r="C140" s="54" t="s">
+      <c r="C140" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="55"/>
-      <c r="I140" s="55"/>
-      <c r="J140" s="55"/>
-      <c r="K140" s="55"/>
-      <c r="L140" s="55"/>
-      <c r="M140" s="55"/>
-      <c r="N140" s="55"/>
-      <c r="O140" s="55"/>
-      <c r="P140" s="55"/>
-      <c r="Q140" s="55"/>
-      <c r="R140" s="56"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
+      <c r="L140" s="67"/>
+      <c r="M140" s="67"/>
+      <c r="N140" s="67"/>
+      <c r="O140" s="67"/>
+      <c r="P140" s="67"/>
+      <c r="Q140" s="67"/>
+      <c r="R140" s="68"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000890</v>
       </c>
-      <c r="C141" s="57"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="58"/>
-      <c r="H141" s="58"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="58"/>
-      <c r="L141" s="58"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="58"/>
-      <c r="O141" s="58"/>
-      <c r="P141" s="58"/>
-      <c r="Q141" s="58"/>
-      <c r="R141" s="59"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="70"/>
+      <c r="G141" s="70"/>
+      <c r="H141" s="70"/>
+      <c r="I141" s="70"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="70"/>
+      <c r="L141" s="70"/>
+      <c r="M141" s="70"/>
+      <c r="N141" s="70"/>
+      <c r="O141" s="70"/>
+      <c r="P141" s="70"/>
+      <c r="Q141" s="70"/>
+      <c r="R141" s="71"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008A0</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
-      <c r="H142" s="61"/>
-      <c r="I142" s="61"/>
-      <c r="J142" s="61"/>
-      <c r="K142" s="61"/>
-      <c r="L142" s="61"/>
-      <c r="M142" s="61"/>
-      <c r="N142" s="61"/>
-      <c r="O142" s="61"/>
-      <c r="P142" s="61"/>
-      <c r="Q142" s="61"/>
-      <c r="R142" s="62"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="73"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="73"/>
+      <c r="H142" s="73"/>
+      <c r="I142" s="73"/>
+      <c r="J142" s="73"/>
+      <c r="K142" s="73"/>
+      <c r="L142" s="73"/>
+      <c r="M142" s="73"/>
+      <c r="N142" s="73"/>
+      <c r="O142" s="73"/>
+      <c r="P142" s="73"/>
+      <c r="Q142" s="73"/>
+      <c r="R142" s="74"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008B0</v>
       </c>
-      <c r="C143" s="66" t="s">
+      <c r="C143" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
-      <c r="N143" s="67"/>
-      <c r="O143" s="67"/>
-      <c r="P143" s="67"/>
-      <c r="Q143" s="67"/>
-      <c r="R143" s="68"/>
+      <c r="D143" s="105"/>
+      <c r="E143" s="105"/>
+      <c r="F143" s="105"/>
+      <c r="G143" s="105"/>
+      <c r="H143" s="105"/>
+      <c r="I143" s="105"/>
+      <c r="J143" s="105"/>
+      <c r="K143" s="105"/>
+      <c r="L143" s="105"/>
+      <c r="M143" s="105"/>
+      <c r="N143" s="105"/>
+      <c r="O143" s="105"/>
+      <c r="P143" s="105"/>
+      <c r="Q143" s="105"/>
+      <c r="R143" s="106"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008C0</v>
       </c>
-      <c r="C144" s="66" t="s">
+      <c r="C144" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D144" s="67"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="67"/>
-      <c r="I144" s="67"/>
-      <c r="J144" s="67"/>
-      <c r="K144" s="67"/>
-      <c r="L144" s="67"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="67"/>
-      <c r="O144" s="67"/>
-      <c r="P144" s="67"/>
-      <c r="Q144" s="67"/>
-      <c r="R144" s="68"/>
+      <c r="D144" s="105"/>
+      <c r="E144" s="105"/>
+      <c r="F144" s="105"/>
+      <c r="G144" s="105"/>
+      <c r="H144" s="105"/>
+      <c r="I144" s="105"/>
+      <c r="J144" s="105"/>
+      <c r="K144" s="105"/>
+      <c r="L144" s="105"/>
+      <c r="M144" s="105"/>
+      <c r="N144" s="105"/>
+      <c r="O144" s="105"/>
+      <c r="P144" s="105"/>
+      <c r="Q144" s="105"/>
+      <c r="R144" s="106"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008D0</v>
       </c>
-      <c r="C145" s="66" t="s">
+      <c r="C145" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="67"/>
-      <c r="H145" s="67"/>
-      <c r="I145" s="67"/>
-      <c r="J145" s="67"/>
-      <c r="K145" s="67"/>
-      <c r="L145" s="67"/>
-      <c r="M145" s="67"/>
-      <c r="N145" s="67"/>
-      <c r="O145" s="67"/>
-      <c r="P145" s="67"/>
-      <c r="Q145" s="67"/>
-      <c r="R145" s="68"/>
+      <c r="D145" s="105"/>
+      <c r="E145" s="105"/>
+      <c r="F145" s="105"/>
+      <c r="G145" s="105"/>
+      <c r="H145" s="105"/>
+      <c r="I145" s="105"/>
+      <c r="J145" s="105"/>
+      <c r="K145" s="105"/>
+      <c r="L145" s="105"/>
+      <c r="M145" s="105"/>
+      <c r="N145" s="105"/>
+      <c r="O145" s="105"/>
+      <c r="P145" s="105"/>
+      <c r="Q145" s="105"/>
+      <c r="R145" s="106"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008E0</v>
       </c>
-      <c r="C146" s="66" t="s">
+      <c r="C146" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="67"/>
-      <c r="I146" s="67"/>
-      <c r="J146" s="67"/>
-      <c r="K146" s="67"/>
-      <c r="L146" s="67"/>
-      <c r="M146" s="67"/>
-      <c r="N146" s="67"/>
-      <c r="O146" s="67"/>
-      <c r="P146" s="67"/>
-      <c r="Q146" s="67"/>
-      <c r="R146" s="68"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="105"/>
+      <c r="K146" s="105"/>
+      <c r="L146" s="105"/>
+      <c r="M146" s="105"/>
+      <c r="N146" s="105"/>
+      <c r="O146" s="105"/>
+      <c r="P146" s="105"/>
+      <c r="Q146" s="105"/>
+      <c r="R146" s="106"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008F0</v>
       </c>
-      <c r="C147" s="66" t="s">
+      <c r="C147" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="67"/>
-      <c r="H147" s="67"/>
-      <c r="I147" s="67"/>
-      <c r="J147" s="67"/>
-      <c r="K147" s="67"/>
-      <c r="L147" s="67"/>
-      <c r="M147" s="67"/>
-      <c r="N147" s="67"/>
-      <c r="O147" s="67"/>
-      <c r="P147" s="67"/>
-      <c r="Q147" s="67"/>
-      <c r="R147" s="68"/>
+      <c r="D147" s="105"/>
+      <c r="E147" s="105"/>
+      <c r="F147" s="105"/>
+      <c r="G147" s="105"/>
+      <c r="H147" s="105"/>
+      <c r="I147" s="105"/>
+      <c r="J147" s="105"/>
+      <c r="K147" s="105"/>
+      <c r="L147" s="105"/>
+      <c r="M147" s="105"/>
+      <c r="N147" s="105"/>
+      <c r="O147" s="105"/>
+      <c r="P147" s="105"/>
+      <c r="Q147" s="105"/>
+      <c r="R147" s="106"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000900</v>
       </c>
-      <c r="C148" s="66" t="s">
+      <c r="C148" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D148" s="67"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="67"/>
-      <c r="J148" s="67"/>
-      <c r="K148" s="67"/>
-      <c r="L148" s="67"/>
-      <c r="M148" s="67"/>
-      <c r="N148" s="67"/>
-      <c r="O148" s="67"/>
-      <c r="P148" s="67"/>
-      <c r="Q148" s="67"/>
-      <c r="R148" s="68"/>
+      <c r="D148" s="105"/>
+      <c r="E148" s="105"/>
+      <c r="F148" s="105"/>
+      <c r="G148" s="105"/>
+      <c r="H148" s="105"/>
+      <c r="I148" s="105"/>
+      <c r="J148" s="105"/>
+      <c r="K148" s="105"/>
+      <c r="L148" s="105"/>
+      <c r="M148" s="105"/>
+      <c r="N148" s="105"/>
+      <c r="O148" s="105"/>
+      <c r="P148" s="105"/>
+      <c r="Q148" s="105"/>
+      <c r="R148" s="106"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000910</v>
       </c>
-      <c r="C149" s="66" t="s">
+      <c r="C149" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D149" s="67"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="67"/>
-      <c r="H149" s="67"/>
-      <c r="I149" s="67"/>
-      <c r="J149" s="67"/>
-      <c r="K149" s="67"/>
-      <c r="L149" s="67"/>
-      <c r="M149" s="67"/>
-      <c r="N149" s="67"/>
-      <c r="O149" s="67"/>
-      <c r="P149" s="67"/>
-      <c r="Q149" s="67"/>
-      <c r="R149" s="68"/>
+      <c r="D149" s="105"/>
+      <c r="E149" s="105"/>
+      <c r="F149" s="105"/>
+      <c r="G149" s="105"/>
+      <c r="H149" s="105"/>
+      <c r="I149" s="105"/>
+      <c r="J149" s="105"/>
+      <c r="K149" s="105"/>
+      <c r="L149" s="105"/>
+      <c r="M149" s="105"/>
+      <c r="N149" s="105"/>
+      <c r="O149" s="105"/>
+      <c r="P149" s="105"/>
+      <c r="Q149" s="105"/>
+      <c r="R149" s="106"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000920</v>
       </c>
-      <c r="C150" s="66" t="s">
+      <c r="C150" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D150" s="67"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="67"/>
-      <c r="H150" s="67"/>
-      <c r="I150" s="67"/>
-      <c r="J150" s="67"/>
-      <c r="K150" s="67"/>
-      <c r="L150" s="67"/>
-      <c r="M150" s="67"/>
-      <c r="N150" s="67"/>
-      <c r="O150" s="67"/>
-      <c r="P150" s="67"/>
-      <c r="Q150" s="67"/>
-      <c r="R150" s="68"/>
+      <c r="D150" s="105"/>
+      <c r="E150" s="105"/>
+      <c r="F150" s="105"/>
+      <c r="G150" s="105"/>
+      <c r="H150" s="105"/>
+      <c r="I150" s="105"/>
+      <c r="J150" s="105"/>
+      <c r="K150" s="105"/>
+      <c r="L150" s="105"/>
+      <c r="M150" s="105"/>
+      <c r="N150" s="105"/>
+      <c r="O150" s="105"/>
+      <c r="P150" s="105"/>
+      <c r="Q150" s="105"/>
+      <c r="R150" s="106"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000930</v>
       </c>
-      <c r="C151" s="66" t="s">
+      <c r="C151" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D151" s="67"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="67"/>
-      <c r="H151" s="67"/>
-      <c r="I151" s="67"/>
-      <c r="J151" s="67"/>
-      <c r="K151" s="67"/>
-      <c r="L151" s="67"/>
-      <c r="M151" s="67"/>
-      <c r="N151" s="67"/>
-      <c r="O151" s="67"/>
-      <c r="P151" s="67"/>
-      <c r="Q151" s="67"/>
-      <c r="R151" s="68"/>
+      <c r="D151" s="105"/>
+      <c r="E151" s="105"/>
+      <c r="F151" s="105"/>
+      <c r="G151" s="105"/>
+      <c r="H151" s="105"/>
+      <c r="I151" s="105"/>
+      <c r="J151" s="105"/>
+      <c r="K151" s="105"/>
+      <c r="L151" s="105"/>
+      <c r="M151" s="105"/>
+      <c r="N151" s="105"/>
+      <c r="O151" s="105"/>
+      <c r="P151" s="105"/>
+      <c r="Q151" s="105"/>
+      <c r="R151" s="106"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000940</v>
       </c>
-      <c r="C152" s="66" t="s">
+      <c r="C152" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="67"/>
-      <c r="H152" s="67"/>
-      <c r="I152" s="67"/>
-      <c r="J152" s="67"/>
-      <c r="K152" s="67"/>
-      <c r="L152" s="67"/>
-      <c r="M152" s="67"/>
-      <c r="N152" s="67"/>
-      <c r="O152" s="67"/>
-      <c r="P152" s="67"/>
-      <c r="Q152" s="67"/>
-      <c r="R152" s="68"/>
+      <c r="D152" s="105"/>
+      <c r="E152" s="105"/>
+      <c r="F152" s="105"/>
+      <c r="G152" s="105"/>
+      <c r="H152" s="105"/>
+      <c r="I152" s="105"/>
+      <c r="J152" s="105"/>
+      <c r="K152" s="105"/>
+      <c r="L152" s="105"/>
+      <c r="M152" s="105"/>
+      <c r="N152" s="105"/>
+      <c r="O152" s="105"/>
+      <c r="P152" s="105"/>
+      <c r="Q152" s="105"/>
+      <c r="R152" s="106"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000950</v>
       </c>
-      <c r="C153" s="66" t="s">
+      <c r="C153" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="67"/>
-      <c r="H153" s="67"/>
-      <c r="I153" s="67"/>
-      <c r="J153" s="67"/>
-      <c r="K153" s="67"/>
-      <c r="L153" s="67"/>
-      <c r="M153" s="67"/>
-      <c r="N153" s="67"/>
-      <c r="O153" s="67"/>
-      <c r="P153" s="67"/>
-      <c r="Q153" s="67"/>
-      <c r="R153" s="68"/>
+      <c r="D153" s="105"/>
+      <c r="E153" s="105"/>
+      <c r="F153" s="105"/>
+      <c r="G153" s="105"/>
+      <c r="H153" s="105"/>
+      <c r="I153" s="105"/>
+      <c r="J153" s="105"/>
+      <c r="K153" s="105"/>
+      <c r="L153" s="105"/>
+      <c r="M153" s="105"/>
+      <c r="N153" s="105"/>
+      <c r="O153" s="105"/>
+      <c r="P153" s="105"/>
+      <c r="Q153" s="105"/>
+      <c r="R153" s="106"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000960</v>
       </c>
-      <c r="C154" s="66" t="s">
+      <c r="C154" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="67"/>
-      <c r="H154" s="67"/>
-      <c r="I154" s="67"/>
-      <c r="J154" s="67"/>
-      <c r="K154" s="67"/>
-      <c r="L154" s="67"/>
-      <c r="M154" s="67"/>
-      <c r="N154" s="67"/>
-      <c r="O154" s="67"/>
-      <c r="P154" s="67"/>
-      <c r="Q154" s="67"/>
-      <c r="R154" s="68"/>
+      <c r="D154" s="105"/>
+      <c r="E154" s="105"/>
+      <c r="F154" s="105"/>
+      <c r="G154" s="105"/>
+      <c r="H154" s="105"/>
+      <c r="I154" s="105"/>
+      <c r="J154" s="105"/>
+      <c r="K154" s="105"/>
+      <c r="L154" s="105"/>
+      <c r="M154" s="105"/>
+      <c r="N154" s="105"/>
+      <c r="O154" s="105"/>
+      <c r="P154" s="105"/>
+      <c r="Q154" s="105"/>
+      <c r="R154" s="106"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000970</v>
       </c>
-      <c r="C155" s="66" t="s">
+      <c r="C155" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D155" s="67"/>
-      <c r="E155" s="67"/>
-      <c r="F155" s="67"/>
-      <c r="G155" s="67"/>
-      <c r="H155" s="67"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="67"/>
-      <c r="K155" s="67"/>
-      <c r="L155" s="67"/>
-      <c r="M155" s="67"/>
-      <c r="N155" s="67"/>
-      <c r="O155" s="67"/>
-      <c r="P155" s="67"/>
-      <c r="Q155" s="67"/>
-      <c r="R155" s="68"/>
+      <c r="D155" s="105"/>
+      <c r="E155" s="105"/>
+      <c r="F155" s="105"/>
+      <c r="G155" s="105"/>
+      <c r="H155" s="105"/>
+      <c r="I155" s="105"/>
+      <c r="J155" s="105"/>
+      <c r="K155" s="105"/>
+      <c r="L155" s="105"/>
+      <c r="M155" s="105"/>
+      <c r="N155" s="105"/>
+      <c r="O155" s="105"/>
+      <c r="P155" s="105"/>
+      <c r="Q155" s="105"/>
+      <c r="R155" s="106"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000980</v>
       </c>
-      <c r="C156" s="66" t="s">
+      <c r="C156" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D156" s="67"/>
-      <c r="E156" s="67"/>
-      <c r="F156" s="67"/>
-      <c r="G156" s="67"/>
-      <c r="H156" s="67"/>
-      <c r="I156" s="67"/>
-      <c r="J156" s="67"/>
-      <c r="K156" s="67"/>
-      <c r="L156" s="67"/>
-      <c r="M156" s="67"/>
-      <c r="N156" s="67"/>
-      <c r="O156" s="67"/>
-      <c r="P156" s="67"/>
-      <c r="Q156" s="67"/>
-      <c r="R156" s="68"/>
+      <c r="D156" s="105"/>
+      <c r="E156" s="105"/>
+      <c r="F156" s="105"/>
+      <c r="G156" s="105"/>
+      <c r="H156" s="105"/>
+      <c r="I156" s="105"/>
+      <c r="J156" s="105"/>
+      <c r="K156" s="105"/>
+      <c r="L156" s="105"/>
+      <c r="M156" s="105"/>
+      <c r="N156" s="105"/>
+      <c r="O156" s="105"/>
+      <c r="P156" s="105"/>
+      <c r="Q156" s="105"/>
+      <c r="R156" s="106"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000990</v>
       </c>
-      <c r="C157" s="66" t="s">
+      <c r="C157" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="D157" s="67"/>
-      <c r="E157" s="67"/>
-      <c r="F157" s="67"/>
-      <c r="G157" s="67"/>
-      <c r="H157" s="67"/>
-      <c r="I157" s="67"/>
-      <c r="J157" s="67"/>
-      <c r="K157" s="67"/>
-      <c r="L157" s="67"/>
-      <c r="M157" s="67"/>
-      <c r="N157" s="67"/>
-      <c r="O157" s="67"/>
-      <c r="P157" s="67"/>
-      <c r="Q157" s="67"/>
-      <c r="R157" s="68"/>
+      <c r="D157" s="105"/>
+      <c r="E157" s="105"/>
+      <c r="F157" s="105"/>
+      <c r="G157" s="105"/>
+      <c r="H157" s="105"/>
+      <c r="I157" s="105"/>
+      <c r="J157" s="105"/>
+      <c r="K157" s="105"/>
+      <c r="L157" s="105"/>
+      <c r="M157" s="105"/>
+      <c r="N157" s="105"/>
+      <c r="O157" s="105"/>
+      <c r="P157" s="105"/>
+      <c r="Q157" s="105"/>
+      <c r="R157" s="106"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009A0</v>
       </c>
-      <c r="C158" s="66" t="s">
+      <c r="C158" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D158" s="67"/>
-      <c r="E158" s="67"/>
-      <c r="F158" s="67"/>
-      <c r="G158" s="67"/>
-      <c r="H158" s="67"/>
-      <c r="I158" s="67"/>
-      <c r="J158" s="67"/>
-      <c r="K158" s="67"/>
-      <c r="L158" s="67"/>
-      <c r="M158" s="67"/>
-      <c r="N158" s="67"/>
-      <c r="O158" s="67"/>
-      <c r="P158" s="67"/>
-      <c r="Q158" s="67"/>
-      <c r="R158" s="68"/>
+      <c r="D158" s="105"/>
+      <c r="E158" s="105"/>
+      <c r="F158" s="105"/>
+      <c r="G158" s="105"/>
+      <c r="H158" s="105"/>
+      <c r="I158" s="105"/>
+      <c r="J158" s="105"/>
+      <c r="K158" s="105"/>
+      <c r="L158" s="105"/>
+      <c r="M158" s="105"/>
+      <c r="N158" s="105"/>
+      <c r="O158" s="105"/>
+      <c r="P158" s="105"/>
+      <c r="Q158" s="105"/>
+      <c r="R158" s="106"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009B0</v>
       </c>
-      <c r="C159" s="54" t="s">
+      <c r="C159" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="D159" s="55"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="55"/>
-      <c r="G159" s="55"/>
-      <c r="H159" s="55"/>
-      <c r="I159" s="55"/>
-      <c r="J159" s="55"/>
-      <c r="K159" s="55"/>
-      <c r="L159" s="55"/>
-      <c r="M159" s="55"/>
-      <c r="N159" s="55"/>
-      <c r="O159" s="55"/>
-      <c r="P159" s="55"/>
-      <c r="Q159" s="55"/>
-      <c r="R159" s="56"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="67"/>
+      <c r="K159" s="67"/>
+      <c r="L159" s="67"/>
+      <c r="M159" s="67"/>
+      <c r="N159" s="67"/>
+      <c r="O159" s="67"/>
+      <c r="P159" s="67"/>
+      <c r="Q159" s="67"/>
+      <c r="R159" s="68"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009C0</v>
       </c>
-      <c r="C160" s="57"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="58"/>
-      <c r="F160" s="58"/>
-      <c r="G160" s="58"/>
-      <c r="H160" s="58"/>
-      <c r="I160" s="58"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="58"/>
-      <c r="L160" s="58"/>
-      <c r="M160" s="58"/>
-      <c r="N160" s="58"/>
-      <c r="O160" s="58"/>
-      <c r="P160" s="58"/>
-      <c r="Q160" s="58"/>
-      <c r="R160" s="59"/>
+      <c r="C160" s="69"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="70"/>
+      <c r="G160" s="70"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="70"/>
+      <c r="J160" s="70"/>
+      <c r="K160" s="70"/>
+      <c r="L160" s="70"/>
+      <c r="M160" s="70"/>
+      <c r="N160" s="70"/>
+      <c r="O160" s="70"/>
+      <c r="P160" s="70"/>
+      <c r="Q160" s="70"/>
+      <c r="R160" s="71"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009D0</v>
       </c>
-      <c r="C161" s="57"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="58"/>
-      <c r="G161" s="58"/>
-      <c r="H161" s="58"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="58"/>
-      <c r="L161" s="58"/>
-      <c r="M161" s="58"/>
-      <c r="N161" s="58"/>
-      <c r="O161" s="58"/>
-      <c r="P161" s="58"/>
-      <c r="Q161" s="58"/>
-      <c r="R161" s="59"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="70"/>
+      <c r="E161" s="70"/>
+      <c r="F161" s="70"/>
+      <c r="G161" s="70"/>
+      <c r="H161" s="70"/>
+      <c r="I161" s="70"/>
+      <c r="J161" s="70"/>
+      <c r="K161" s="70"/>
+      <c r="L161" s="70"/>
+      <c r="M161" s="70"/>
+      <c r="N161" s="70"/>
+      <c r="O161" s="70"/>
+      <c r="P161" s="70"/>
+      <c r="Q161" s="70"/>
+      <c r="R161" s="71"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009E0</v>
       </c>
-      <c r="C162" s="57"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="58"/>
-      <c r="F162" s="58"/>
-      <c r="G162" s="58"/>
-      <c r="H162" s="58"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="58"/>
-      <c r="L162" s="58"/>
-      <c r="M162" s="58"/>
-      <c r="N162" s="58"/>
-      <c r="O162" s="58"/>
-      <c r="P162" s="58"/>
-      <c r="Q162" s="58"/>
-      <c r="R162" s="59"/>
+      <c r="C162" s="69"/>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70"/>
+      <c r="F162" s="70"/>
+      <c r="G162" s="70"/>
+      <c r="H162" s="70"/>
+      <c r="I162" s="70"/>
+      <c r="J162" s="70"/>
+      <c r="K162" s="70"/>
+      <c r="L162" s="70"/>
+      <c r="M162" s="70"/>
+      <c r="N162" s="70"/>
+      <c r="O162" s="70"/>
+      <c r="P162" s="70"/>
+      <c r="Q162" s="70"/>
+      <c r="R162" s="71"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009F0</v>
       </c>
-      <c r="C163" s="57"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="58"/>
-      <c r="H163" s="58"/>
-      <c r="I163" s="58"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="58"/>
-      <c r="L163" s="58"/>
-      <c r="M163" s="58"/>
-      <c r="N163" s="58"/>
-      <c r="O163" s="58"/>
-      <c r="P163" s="58"/>
-      <c r="Q163" s="58"/>
-      <c r="R163" s="59"/>
+      <c r="C163" s="69"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="70"/>
+      <c r="H163" s="70"/>
+      <c r="I163" s="70"/>
+      <c r="J163" s="70"/>
+      <c r="K163" s="70"/>
+      <c r="L163" s="70"/>
+      <c r="M163" s="70"/>
+      <c r="N163" s="70"/>
+      <c r="O163" s="70"/>
+      <c r="P163" s="70"/>
+      <c r="Q163" s="70"/>
+      <c r="R163" s="71"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A00</v>
       </c>
-      <c r="C164" s="57"/>
-      <c r="D164" s="58"/>
-      <c r="E164" s="58"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="58"/>
-      <c r="H164" s="58"/>
-      <c r="I164" s="58"/>
-      <c r="J164" s="58"/>
-      <c r="K164" s="58"/>
-      <c r="L164" s="58"/>
-      <c r="M164" s="58"/>
-      <c r="N164" s="58"/>
-      <c r="O164" s="58"/>
-      <c r="P164" s="58"/>
-      <c r="Q164" s="58"/>
-      <c r="R164" s="59"/>
+      <c r="C164" s="69"/>
+      <c r="D164" s="70"/>
+      <c r="E164" s="70"/>
+      <c r="F164" s="70"/>
+      <c r="G164" s="70"/>
+      <c r="H164" s="70"/>
+      <c r="I164" s="70"/>
+      <c r="J164" s="70"/>
+      <c r="K164" s="70"/>
+      <c r="L164" s="70"/>
+      <c r="M164" s="70"/>
+      <c r="N164" s="70"/>
+      <c r="O164" s="70"/>
+      <c r="P164" s="70"/>
+      <c r="Q164" s="70"/>
+      <c r="R164" s="71"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A10</v>
       </c>
-      <c r="C165" s="60"/>
-      <c r="D165" s="61"/>
-      <c r="E165" s="61"/>
-      <c r="F165" s="61"/>
-      <c r="G165" s="61"/>
-      <c r="H165" s="61"/>
-      <c r="I165" s="61"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="61"/>
-      <c r="L165" s="61"/>
-      <c r="M165" s="61"/>
-      <c r="N165" s="61"/>
-      <c r="O165" s="61"/>
-      <c r="P165" s="61"/>
-      <c r="Q165" s="61"/>
-      <c r="R165" s="62"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="73"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="73"/>
+      <c r="I165" s="73"/>
+      <c r="J165" s="73"/>
+      <c r="K165" s="73"/>
+      <c r="L165" s="73"/>
+      <c r="M165" s="73"/>
+      <c r="N165" s="73"/>
+      <c r="O165" s="73"/>
+      <c r="P165" s="73"/>
+      <c r="Q165" s="73"/>
+      <c r="R165" s="74"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A20</v>
       </c>
-      <c r="C166" s="63" t="s">
+      <c r="C166" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="D166" s="64"/>
-      <c r="E166" s="64"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="64"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="64"/>
-      <c r="J166" s="64"/>
-      <c r="K166" s="64"/>
-      <c r="L166" s="64"/>
-      <c r="M166" s="64"/>
-      <c r="N166" s="64"/>
-      <c r="O166" s="64"/>
-      <c r="P166" s="64"/>
-      <c r="Q166" s="64"/>
-      <c r="R166" s="65"/>
+      <c r="D166" s="111"/>
+      <c r="E166" s="111"/>
+      <c r="F166" s="111"/>
+      <c r="G166" s="111"/>
+      <c r="H166" s="111"/>
+      <c r="I166" s="111"/>
+      <c r="J166" s="111"/>
+      <c r="K166" s="111"/>
+      <c r="L166" s="111"/>
+      <c r="M166" s="111"/>
+      <c r="N166" s="111"/>
+      <c r="O166" s="111"/>
+      <c r="P166" s="111"/>
+      <c r="Q166" s="111"/>
+      <c r="R166" s="112"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A30</v>
       </c>
-      <c r="C167" s="101" t="s">
+      <c r="C167" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="D167" s="102"/>
-      <c r="E167" s="102"/>
-      <c r="F167" s="102"/>
-      <c r="G167" s="102"/>
-      <c r="H167" s="102"/>
-      <c r="I167" s="102"/>
-      <c r="J167" s="102"/>
-      <c r="K167" s="102"/>
-      <c r="L167" s="102"/>
-      <c r="M167" s="102"/>
-      <c r="N167" s="102"/>
-      <c r="O167" s="102"/>
-      <c r="P167" s="102"/>
-      <c r="Q167" s="102"/>
-      <c r="R167" s="103"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="55"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="55"/>
+      <c r="J167" s="55"/>
+      <c r="K167" s="55"/>
+      <c r="L167" s="55"/>
+      <c r="M167" s="55"/>
+      <c r="N167" s="55"/>
+      <c r="O167" s="55"/>
+      <c r="P167" s="55"/>
+      <c r="Q167" s="55"/>
+      <c r="R167" s="56"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A40</v>
       </c>
-      <c r="C168" s="104"/>
-      <c r="D168" s="105"/>
-      <c r="E168" s="105"/>
-      <c r="F168" s="105"/>
-      <c r="G168" s="105"/>
-      <c r="H168" s="105"/>
-      <c r="I168" s="105"/>
-      <c r="J168" s="105"/>
-      <c r="K168" s="105"/>
-      <c r="L168" s="105"/>
-      <c r="M168" s="105"/>
-      <c r="N168" s="105"/>
-      <c r="O168" s="105"/>
-      <c r="P168" s="105"/>
-      <c r="Q168" s="105"/>
-      <c r="R168" s="106"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="58"/>
+      <c r="J168" s="58"/>
+      <c r="K168" s="58"/>
+      <c r="L168" s="58"/>
+      <c r="M168" s="58"/>
+      <c r="N168" s="58"/>
+      <c r="O168" s="58"/>
+      <c r="P168" s="58"/>
+      <c r="Q168" s="58"/>
+      <c r="R168" s="59"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A50</v>
       </c>
-      <c r="C169" s="107"/>
-      <c r="D169" s="108"/>
-      <c r="E169" s="108"/>
-      <c r="F169" s="108"/>
-      <c r="G169" s="108"/>
-      <c r="H169" s="108"/>
-      <c r="I169" s="108"/>
-      <c r="J169" s="108"/>
-      <c r="K169" s="108"/>
-      <c r="L169" s="108"/>
-      <c r="M169" s="108"/>
-      <c r="N169" s="108"/>
-      <c r="O169" s="108"/>
-      <c r="P169" s="108"/>
-      <c r="Q169" s="108"/>
-      <c r="R169" s="109"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="61"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="61"/>
+      <c r="G169" s="61"/>
+      <c r="H169" s="61"/>
+      <c r="I169" s="61"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="61"/>
+      <c r="L169" s="61"/>
+      <c r="M169" s="61"/>
+      <c r="N169" s="61"/>
+      <c r="O169" s="61"/>
+      <c r="P169" s="61"/>
+      <c r="Q169" s="61"/>
+      <c r="R169" s="62"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A60</v>
       </c>
-      <c r="C170" s="101" t="s">
+      <c r="C170" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="D170" s="102"/>
-      <c r="E170" s="102"/>
-      <c r="F170" s="102"/>
-      <c r="G170" s="102"/>
-      <c r="H170" s="102"/>
-      <c r="I170" s="102"/>
-      <c r="J170" s="102"/>
-      <c r="K170" s="102"/>
-      <c r="L170" s="102"/>
-      <c r="M170" s="102"/>
-      <c r="N170" s="102"/>
-      <c r="O170" s="102"/>
-      <c r="P170" s="102"/>
-      <c r="Q170" s="102"/>
-      <c r="R170" s="103"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="55"/>
+      <c r="G170" s="55"/>
+      <c r="H170" s="55"/>
+      <c r="I170" s="55"/>
+      <c r="J170" s="55"/>
+      <c r="K170" s="55"/>
+      <c r="L170" s="55"/>
+      <c r="M170" s="55"/>
+      <c r="N170" s="55"/>
+      <c r="O170" s="55"/>
+      <c r="P170" s="55"/>
+      <c r="Q170" s="55"/>
+      <c r="R170" s="56"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A70</v>
       </c>
-      <c r="C171" s="104"/>
-      <c r="D171" s="105"/>
-      <c r="E171" s="105"/>
-      <c r="F171" s="105"/>
-      <c r="G171" s="105"/>
-      <c r="H171" s="105"/>
-      <c r="I171" s="105"/>
-      <c r="J171" s="105"/>
-      <c r="K171" s="105"/>
-      <c r="L171" s="105"/>
-      <c r="M171" s="105"/>
-      <c r="N171" s="105"/>
-      <c r="O171" s="105"/>
-      <c r="P171" s="105"/>
-      <c r="Q171" s="105"/>
-      <c r="R171" s="106"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="58"/>
+      <c r="H171" s="58"/>
+      <c r="I171" s="58"/>
+      <c r="J171" s="58"/>
+      <c r="K171" s="58"/>
+      <c r="L171" s="58"/>
+      <c r="M171" s="58"/>
+      <c r="N171" s="58"/>
+      <c r="O171" s="58"/>
+      <c r="P171" s="58"/>
+      <c r="Q171" s="58"/>
+      <c r="R171" s="59"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A80</v>
       </c>
-      <c r="C172" s="107"/>
-      <c r="D172" s="108"/>
-      <c r="E172" s="108"/>
-      <c r="F172" s="108"/>
-      <c r="G172" s="108"/>
-      <c r="H172" s="108"/>
-      <c r="I172" s="108"/>
-      <c r="J172" s="108"/>
-      <c r="K172" s="108"/>
-      <c r="L172" s="108"/>
-      <c r="M172" s="108"/>
-      <c r="N172" s="108"/>
-      <c r="O172" s="108"/>
-      <c r="P172" s="108"/>
-      <c r="Q172" s="108"/>
-      <c r="R172" s="109"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="61"/>
+      <c r="F172" s="61"/>
+      <c r="G172" s="61"/>
+      <c r="H172" s="61"/>
+      <c r="I172" s="61"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="61"/>
+      <c r="L172" s="61"/>
+      <c r="M172" s="61"/>
+      <c r="N172" s="61"/>
+      <c r="O172" s="61"/>
+      <c r="P172" s="61"/>
+      <c r="Q172" s="61"/>
+      <c r="R172" s="62"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A90</v>
       </c>
-      <c r="C173" s="101" t="s">
+      <c r="C173" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="D173" s="102"/>
-      <c r="E173" s="102"/>
-      <c r="F173" s="102"/>
-      <c r="G173" s="102"/>
-      <c r="H173" s="102"/>
-      <c r="I173" s="102"/>
-      <c r="J173" s="102"/>
-      <c r="K173" s="102"/>
-      <c r="L173" s="102"/>
-      <c r="M173" s="102"/>
-      <c r="N173" s="102"/>
-      <c r="O173" s="102"/>
-      <c r="P173" s="102"/>
-      <c r="Q173" s="102"/>
-      <c r="R173" s="103"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="55"/>
+      <c r="F173" s="55"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="55"/>
+      <c r="I173" s="55"/>
+      <c r="J173" s="55"/>
+      <c r="K173" s="55"/>
+      <c r="L173" s="55"/>
+      <c r="M173" s="55"/>
+      <c r="N173" s="55"/>
+      <c r="O173" s="55"/>
+      <c r="P173" s="55"/>
+      <c r="Q173" s="55"/>
+      <c r="R173" s="56"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AA0</v>
       </c>
-      <c r="C174" s="104"/>
-      <c r="D174" s="105"/>
-      <c r="E174" s="105"/>
-      <c r="F174" s="105"/>
-      <c r="G174" s="105"/>
-      <c r="H174" s="105"/>
-      <c r="I174" s="105"/>
-      <c r="J174" s="105"/>
-      <c r="K174" s="105"/>
-      <c r="L174" s="105"/>
-      <c r="M174" s="105"/>
-      <c r="N174" s="105"/>
-      <c r="O174" s="105"/>
-      <c r="P174" s="105"/>
-      <c r="Q174" s="105"/>
-      <c r="R174" s="106"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="58"/>
+      <c r="J174" s="58"/>
+      <c r="K174" s="58"/>
+      <c r="L174" s="58"/>
+      <c r="M174" s="58"/>
+      <c r="N174" s="58"/>
+      <c r="O174" s="58"/>
+      <c r="P174" s="58"/>
+      <c r="Q174" s="58"/>
+      <c r="R174" s="59"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AB0</v>
       </c>
-      <c r="C175" s="107"/>
-      <c r="D175" s="108"/>
-      <c r="E175" s="108"/>
-      <c r="F175" s="108"/>
-      <c r="G175" s="108"/>
-      <c r="H175" s="108"/>
-      <c r="I175" s="108"/>
-      <c r="J175" s="108"/>
-      <c r="K175" s="108"/>
-      <c r="L175" s="108"/>
-      <c r="M175" s="108"/>
-      <c r="N175" s="108"/>
-      <c r="O175" s="108"/>
-      <c r="P175" s="108"/>
-      <c r="Q175" s="108"/>
-      <c r="R175" s="109"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="61"/>
+      <c r="L175" s="61"/>
+      <c r="M175" s="61"/>
+      <c r="N175" s="61"/>
+      <c r="O175" s="61"/>
+      <c r="P175" s="61"/>
+      <c r="Q175" s="61"/>
+      <c r="R175" s="62"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AC0</v>
       </c>
-      <c r="C176" s="101" t="s">
+      <c r="C176" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="D176" s="102"/>
-      <c r="E176" s="102"/>
-      <c r="F176" s="102"/>
-      <c r="G176" s="102"/>
-      <c r="H176" s="102"/>
-      <c r="I176" s="102"/>
-      <c r="J176" s="102"/>
-      <c r="K176" s="102"/>
-      <c r="L176" s="102"/>
-      <c r="M176" s="102"/>
-      <c r="N176" s="102"/>
-      <c r="O176" s="102"/>
-      <c r="P176" s="102"/>
-      <c r="Q176" s="102"/>
-      <c r="R176" s="103"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="55"/>
+      <c r="L176" s="55"/>
+      <c r="M176" s="55"/>
+      <c r="N176" s="55"/>
+      <c r="O176" s="55"/>
+      <c r="P176" s="55"/>
+      <c r="Q176" s="55"/>
+      <c r="R176" s="56"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AD0</v>
       </c>
-      <c r="C177" s="104"/>
-      <c r="D177" s="105"/>
-      <c r="E177" s="105"/>
-      <c r="F177" s="105"/>
-      <c r="G177" s="105"/>
-      <c r="H177" s="105"/>
-      <c r="I177" s="105"/>
-      <c r="J177" s="105"/>
-      <c r="K177" s="105"/>
-      <c r="L177" s="105"/>
-      <c r="M177" s="105"/>
-      <c r="N177" s="105"/>
-      <c r="O177" s="105"/>
-      <c r="P177" s="105"/>
-      <c r="Q177" s="105"/>
-      <c r="R177" s="106"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="58"/>
+      <c r="L177" s="58"/>
+      <c r="M177" s="58"/>
+      <c r="N177" s="58"/>
+      <c r="O177" s="58"/>
+      <c r="P177" s="58"/>
+      <c r="Q177" s="58"/>
+      <c r="R177" s="59"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AE0</v>
       </c>
-      <c r="C178" s="107"/>
-      <c r="D178" s="108"/>
-      <c r="E178" s="108"/>
-      <c r="F178" s="108"/>
-      <c r="G178" s="108"/>
-      <c r="H178" s="108"/>
-      <c r="I178" s="108"/>
-      <c r="J178" s="108"/>
-      <c r="K178" s="108"/>
-      <c r="L178" s="108"/>
-      <c r="M178" s="108"/>
-      <c r="N178" s="108"/>
-      <c r="O178" s="108"/>
-      <c r="P178" s="108"/>
-      <c r="Q178" s="108"/>
-      <c r="R178" s="109"/>
+      <c r="C178" s="60"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="61"/>
+      <c r="F178" s="61"/>
+      <c r="G178" s="61"/>
+      <c r="H178" s="61"/>
+      <c r="I178" s="61"/>
+      <c r="J178" s="61"/>
+      <c r="K178" s="61"/>
+      <c r="L178" s="61"/>
+      <c r="M178" s="61"/>
+      <c r="N178" s="61"/>
+      <c r="O178" s="61"/>
+      <c r="P178" s="61"/>
+      <c r="Q178" s="61"/>
+      <c r="R178" s="62"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AF0</v>
       </c>
-      <c r="C179" s="101" t="s">
+      <c r="C179" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="D179" s="102"/>
-      <c r="E179" s="102"/>
-      <c r="F179" s="102"/>
-      <c r="G179" s="102"/>
-      <c r="H179" s="102"/>
-      <c r="I179" s="102"/>
-      <c r="J179" s="102"/>
-      <c r="K179" s="102"/>
-      <c r="L179" s="102"/>
-      <c r="M179" s="102"/>
-      <c r="N179" s="102"/>
-      <c r="O179" s="102"/>
-      <c r="P179" s="102"/>
-      <c r="Q179" s="102"/>
-      <c r="R179" s="103"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+      <c r="J179" s="55"/>
+      <c r="K179" s="55"/>
+      <c r="L179" s="55"/>
+      <c r="M179" s="55"/>
+      <c r="N179" s="55"/>
+      <c r="O179" s="55"/>
+      <c r="P179" s="55"/>
+      <c r="Q179" s="55"/>
+      <c r="R179" s="56"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B00</v>
       </c>
-      <c r="C180" s="104"/>
-      <c r="D180" s="105"/>
-      <c r="E180" s="105"/>
-      <c r="F180" s="105"/>
-      <c r="G180" s="105"/>
-      <c r="H180" s="105"/>
-      <c r="I180" s="105"/>
-      <c r="J180" s="105"/>
-      <c r="K180" s="105"/>
-      <c r="L180" s="105"/>
-      <c r="M180" s="105"/>
-      <c r="N180" s="105"/>
-      <c r="O180" s="105"/>
-      <c r="P180" s="105"/>
-      <c r="Q180" s="105"/>
-      <c r="R180" s="106"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="58"/>
+      <c r="F180" s="58"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="58"/>
+      <c r="J180" s="58"/>
+      <c r="K180" s="58"/>
+      <c r="L180" s="58"/>
+      <c r="M180" s="58"/>
+      <c r="N180" s="58"/>
+      <c r="O180" s="58"/>
+      <c r="P180" s="58"/>
+      <c r="Q180" s="58"/>
+      <c r="R180" s="59"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B10</v>
       </c>
-      <c r="C181" s="107"/>
-      <c r="D181" s="108"/>
-      <c r="E181" s="108"/>
-      <c r="F181" s="108"/>
-      <c r="G181" s="108"/>
-      <c r="H181" s="108"/>
-      <c r="I181" s="108"/>
-      <c r="J181" s="108"/>
-      <c r="K181" s="108"/>
-      <c r="L181" s="108"/>
-      <c r="M181" s="108"/>
-      <c r="N181" s="108"/>
-      <c r="O181" s="108"/>
-      <c r="P181" s="108"/>
-      <c r="Q181" s="108"/>
-      <c r="R181" s="109"/>
+      <c r="C181" s="60"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="61"/>
+      <c r="F181" s="61"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="61"/>
+      <c r="I181" s="61"/>
+      <c r="J181" s="61"/>
+      <c r="K181" s="61"/>
+      <c r="L181" s="61"/>
+      <c r="M181" s="61"/>
+      <c r="N181" s="61"/>
+      <c r="O181" s="61"/>
+      <c r="P181" s="61"/>
+      <c r="Q181" s="61"/>
+      <c r="R181" s="62"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B20</v>
       </c>
-      <c r="C182" s="101" t="s">
+      <c r="C182" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="D182" s="102"/>
-      <c r="E182" s="102"/>
-      <c r="F182" s="102"/>
-      <c r="G182" s="102"/>
-      <c r="H182" s="102"/>
-      <c r="I182" s="102"/>
-      <c r="J182" s="102"/>
-      <c r="K182" s="102"/>
-      <c r="L182" s="102"/>
-      <c r="M182" s="102"/>
-      <c r="N182" s="102"/>
-      <c r="O182" s="102"/>
-      <c r="P182" s="102"/>
-      <c r="Q182" s="102"/>
-      <c r="R182" s="103"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
+      <c r="J182" s="55"/>
+      <c r="K182" s="55"/>
+      <c r="L182" s="55"/>
+      <c r="M182" s="55"/>
+      <c r="N182" s="55"/>
+      <c r="O182" s="55"/>
+      <c r="P182" s="55"/>
+      <c r="Q182" s="55"/>
+      <c r="R182" s="56"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B30</v>
       </c>
-      <c r="C183" s="104"/>
-      <c r="D183" s="105"/>
-      <c r="E183" s="105"/>
-      <c r="F183" s="105"/>
-      <c r="G183" s="105"/>
-      <c r="H183" s="105"/>
-      <c r="I183" s="105"/>
-      <c r="J183" s="105"/>
-      <c r="K183" s="105"/>
-      <c r="L183" s="105"/>
-      <c r="M183" s="105"/>
-      <c r="N183" s="105"/>
-      <c r="O183" s="105"/>
-      <c r="P183" s="105"/>
-      <c r="Q183" s="105"/>
-      <c r="R183" s="106"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="58"/>
+      <c r="H183" s="58"/>
+      <c r="I183" s="58"/>
+      <c r="J183" s="58"/>
+      <c r="K183" s="58"/>
+      <c r="L183" s="58"/>
+      <c r="M183" s="58"/>
+      <c r="N183" s="58"/>
+      <c r="O183" s="58"/>
+      <c r="P183" s="58"/>
+      <c r="Q183" s="58"/>
+      <c r="R183" s="59"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B40</v>
       </c>
-      <c r="C184" s="107"/>
-      <c r="D184" s="108"/>
-      <c r="E184" s="108"/>
-      <c r="F184" s="108"/>
-      <c r="G184" s="108"/>
-      <c r="H184" s="108"/>
-      <c r="I184" s="108"/>
-      <c r="J184" s="108"/>
-      <c r="K184" s="108"/>
-      <c r="L184" s="108"/>
-      <c r="M184" s="108"/>
-      <c r="N184" s="108"/>
-      <c r="O184" s="108"/>
-      <c r="P184" s="108"/>
-      <c r="Q184" s="108"/>
-      <c r="R184" s="109"/>
+      <c r="C184" s="60"/>
+      <c r="D184" s="61"/>
+      <c r="E184" s="61"/>
+      <c r="F184" s="61"/>
+      <c r="G184" s="61"/>
+      <c r="H184" s="61"/>
+      <c r="I184" s="61"/>
+      <c r="J184" s="61"/>
+      <c r="K184" s="61"/>
+      <c r="L184" s="61"/>
+      <c r="M184" s="61"/>
+      <c r="N184" s="61"/>
+      <c r="O184" s="61"/>
+      <c r="P184" s="61"/>
+      <c r="Q184" s="61"/>
+      <c r="R184" s="62"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B50</v>
       </c>
-      <c r="C185" s="110" t="s">
+      <c r="C185" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="D185" s="111"/>
-      <c r="E185" s="111"/>
-      <c r="F185" s="111"/>
-      <c r="G185" s="111"/>
-      <c r="H185" s="111"/>
-      <c r="I185" s="111"/>
-      <c r="J185" s="111"/>
-      <c r="K185" s="111"/>
-      <c r="L185" s="111"/>
-      <c r="M185" s="111"/>
-      <c r="N185" s="111"/>
-      <c r="O185" s="111"/>
-      <c r="P185" s="111"/>
-      <c r="Q185" s="111"/>
-      <c r="R185" s="112"/>
+      <c r="D185" s="64"/>
+      <c r="E185" s="64"/>
+      <c r="F185" s="64"/>
+      <c r="G185" s="64"/>
+      <c r="H185" s="64"/>
+      <c r="I185" s="64"/>
+      <c r="J185" s="64"/>
+      <c r="K185" s="64"/>
+      <c r="L185" s="64"/>
+      <c r="M185" s="64"/>
+      <c r="N185" s="64"/>
+      <c r="O185" s="64"/>
+      <c r="P185" s="64"/>
+      <c r="Q185" s="64"/>
+      <c r="R185" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C182:R184"/>
-    <mergeCell ref="C185:R185"/>
-    <mergeCell ref="C167:R169"/>
-    <mergeCell ref="C170:R172"/>
-    <mergeCell ref="C173:R175"/>
-    <mergeCell ref="C176:R178"/>
-    <mergeCell ref="C179:R181"/>
+    <mergeCell ref="C159:R165"/>
+    <mergeCell ref="C166:R166"/>
+    <mergeCell ref="C144:R144"/>
+    <mergeCell ref="C145:R145"/>
+    <mergeCell ref="C158:R158"/>
+    <mergeCell ref="C156:R156"/>
+    <mergeCell ref="C157:R157"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C152:R152"/>
+    <mergeCell ref="C153:R153"/>
+    <mergeCell ref="C154:R154"/>
+    <mergeCell ref="C155:R155"/>
+    <mergeCell ref="C146:R146"/>
+    <mergeCell ref="C147:R147"/>
+    <mergeCell ref="C148:R148"/>
+    <mergeCell ref="C149:R149"/>
+    <mergeCell ref="C150:R150"/>
+    <mergeCell ref="C151:R151"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C21:R21"/>
+    <mergeCell ref="C22:R22"/>
+    <mergeCell ref="C23:R23"/>
+    <mergeCell ref="C143:R143"/>
+    <mergeCell ref="C13:R20"/>
+    <mergeCell ref="C32:R32"/>
+    <mergeCell ref="C31:R31"/>
+    <mergeCell ref="C30:R30"/>
+    <mergeCell ref="C29:R29"/>
+    <mergeCell ref="C28:R28"/>
+    <mergeCell ref="C27:R27"/>
+    <mergeCell ref="C26:R26"/>
+    <mergeCell ref="C25:R25"/>
+    <mergeCell ref="C24:R24"/>
+    <mergeCell ref="C45:R45"/>
+    <mergeCell ref="C46:R46"/>
+    <mergeCell ref="C33:R33"/>
+    <mergeCell ref="C34:R34"/>
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="C36:R36"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C49:R52"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="C37:R37"/>
+    <mergeCell ref="C38:R38"/>
+    <mergeCell ref="C39:R39"/>
+    <mergeCell ref="C40:R40"/>
+    <mergeCell ref="C41:R41"/>
+    <mergeCell ref="C42:R42"/>
+    <mergeCell ref="C43:R43"/>
+    <mergeCell ref="C44:R44"/>
+    <mergeCell ref="C73:R76"/>
+    <mergeCell ref="C77:R80"/>
+    <mergeCell ref="C81:R81"/>
+    <mergeCell ref="C82:R82"/>
+    <mergeCell ref="C53:R56"/>
+    <mergeCell ref="C57:R60"/>
+    <mergeCell ref="C61:R64"/>
+    <mergeCell ref="C65:R68"/>
+    <mergeCell ref="C69:R72"/>
+    <mergeCell ref="C92:R94"/>
+    <mergeCell ref="C95:R97"/>
+    <mergeCell ref="C86:R88"/>
+    <mergeCell ref="C89:R91"/>
+    <mergeCell ref="C83:R85"/>
     <mergeCell ref="C134:R136"/>
     <mergeCell ref="C137:R139"/>
     <mergeCell ref="C140:R142"/>
@@ -8794,75 +8858,13 @@
     <mergeCell ref="C116:R118"/>
     <mergeCell ref="C98:R100"/>
     <mergeCell ref="C101:R103"/>
-    <mergeCell ref="C92:R94"/>
-    <mergeCell ref="C95:R97"/>
-    <mergeCell ref="C86:R88"/>
-    <mergeCell ref="C89:R91"/>
-    <mergeCell ref="C83:R85"/>
-    <mergeCell ref="C73:R76"/>
-    <mergeCell ref="C77:R80"/>
-    <mergeCell ref="C81:R81"/>
-    <mergeCell ref="C82:R82"/>
-    <mergeCell ref="C53:R56"/>
-    <mergeCell ref="C57:R60"/>
-    <mergeCell ref="C61:R64"/>
-    <mergeCell ref="C65:R68"/>
-    <mergeCell ref="C69:R72"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="C49:R52"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="C37:R37"/>
-    <mergeCell ref="C38:R38"/>
-    <mergeCell ref="C39:R39"/>
-    <mergeCell ref="C40:R40"/>
-    <mergeCell ref="C41:R41"/>
-    <mergeCell ref="C42:R42"/>
-    <mergeCell ref="C43:R43"/>
-    <mergeCell ref="C44:R44"/>
-    <mergeCell ref="C45:R45"/>
-    <mergeCell ref="C46:R46"/>
-    <mergeCell ref="C33:R33"/>
-    <mergeCell ref="C34:R34"/>
-    <mergeCell ref="C35:R35"/>
-    <mergeCell ref="C36:R36"/>
-    <mergeCell ref="C13:R20"/>
-    <mergeCell ref="C32:R32"/>
-    <mergeCell ref="C31:R31"/>
-    <mergeCell ref="C30:R30"/>
-    <mergeCell ref="C29:R29"/>
-    <mergeCell ref="C28:R28"/>
-    <mergeCell ref="C27:R27"/>
-    <mergeCell ref="C26:R26"/>
-    <mergeCell ref="C25:R25"/>
-    <mergeCell ref="C24:R24"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C152:R152"/>
-    <mergeCell ref="C153:R153"/>
-    <mergeCell ref="C154:R154"/>
-    <mergeCell ref="C155:R155"/>
-    <mergeCell ref="C146:R146"/>
-    <mergeCell ref="C147:R147"/>
-    <mergeCell ref="C148:R148"/>
-    <mergeCell ref="C149:R149"/>
-    <mergeCell ref="C150:R150"/>
-    <mergeCell ref="C151:R151"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C21:R21"/>
-    <mergeCell ref="C22:R22"/>
-    <mergeCell ref="C23:R23"/>
-    <mergeCell ref="C143:R143"/>
-    <mergeCell ref="C159:R165"/>
-    <mergeCell ref="C166:R166"/>
-    <mergeCell ref="C144:R144"/>
-    <mergeCell ref="C145:R145"/>
-    <mergeCell ref="C158:R158"/>
-    <mergeCell ref="C156:R156"/>
-    <mergeCell ref="C157:R157"/>
+    <mergeCell ref="C182:R184"/>
+    <mergeCell ref="C185:R185"/>
+    <mergeCell ref="C167:R169"/>
+    <mergeCell ref="C170:R172"/>
+    <mergeCell ref="C173:R175"/>
+    <mergeCell ref="C176:R178"/>
+    <mergeCell ref="C179:R181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8960,240 +8962,240 @@
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122" t="s">
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="122" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="124"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="118"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="str">
         <f>DEC2HEX(A4+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="75" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="66" t="s">
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="66" t="s">
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="106"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="66" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="66" t="s">
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="66" t="s">
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="106"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="str">
         <f t="shared" ref="A7:A11" si="0">DEC2HEX(HEX2DEC(A6)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="66" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="66" t="s">
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="68"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="106"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="66" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="66" t="s">
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="66" t="s">
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="68"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="106"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0050</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="66" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="66" t="s">
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="66" t="s">
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="106"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0060</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="113" t="s">
+      <c r="D10" s="123"/>
+      <c r="E10" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115" t="s">
+      <c r="F10" s="123"/>
+      <c r="G10" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="116"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="24" t="s">
         <v>102</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="K10" s="75" t="s">
+      <c r="K10" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="75" t="s">
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="77"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0070</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="66" t="s">
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="66" t="s">
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="106"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -9475,24 +9477,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O7:R7"/>
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
@@ -9502,11 +9491,24 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9610,19 +9612,19 @@
       <c r="F4" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="104" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="128"/>
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="104" t="s">
         <v>120</v>
       </c>
       <c r="L4" s="128"/>
       <c r="M4" s="128"/>
       <c r="N4" s="129"/>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="104" t="s">
         <v>121</v>
       </c>
       <c r="P4" s="128"/>
@@ -10579,7 +10581,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10661,7 +10663,7 @@
         <v>76</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>101</v>
       </c>
       <c r="H4" s="130"/>
@@ -10719,7 +10721,7 @@
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="122" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="130"/>
@@ -10758,53 +10760,53 @@
       <c r="D10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66" t="s">
+      <c r="F10" s="106"/>
+      <c r="G10" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="80" t="s">
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="80" t="s">
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f>DEC2HEX(A10+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="122" t="s">
         <v>163</v>
       </c>
       <c r="D11" s="130"/>
       <c r="E11" s="130"/>
       <c r="F11" s="131"/>
-      <c r="G11" s="113" t="s">
+      <c r="G11" s="122" t="s">
         <v>164</v>
       </c>
       <c r="H11" s="130"/>
       <c r="I11" s="130"/>
       <c r="J11" s="131"/>
-      <c r="K11" s="113" t="s">
+      <c r="K11" s="122" t="s">
         <v>165</v>
       </c>
       <c r="L11" s="130"/>
       <c r="M11" s="130"/>
       <c r="N11" s="131"/>
-      <c r="O11" s="113" t="s">
+      <c r="O11" s="122" t="s">
         <v>166</v>
       </c>
       <c r="P11" s="130"/>
@@ -10827,44 +10829,44 @@
       <c r="H12" s="133"/>
       <c r="I12" s="133"/>
       <c r="J12" s="134"/>
-      <c r="K12" s="75" t="s">
+      <c r="K12" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="75" t="s">
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="77"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="100"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f t="shared" ref="A13" si="0">DEC2HEX(HEX2DEC(A12)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="75" t="s">
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="100"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
@@ -11357,7 +11359,7 @@
       <c r="J4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="87" t="s">
         <v>191</v>
       </c>
       <c r="L4" s="135"/>
@@ -11889,18 +11891,18 @@
         <v>203</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="163" t="s">
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="114"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="123"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -11964,19 +11966,19 @@
       <c r="F8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="162" t="s">
+      <c r="G8" s="159" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="128"/>
       <c r="I8" s="128"/>
       <c r="J8" s="129"/>
-      <c r="K8" s="162" t="s">
+      <c r="K8" s="159" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="128"/>
       <c r="M8" s="128"/>
       <c r="N8" s="129"/>
-      <c r="O8" s="162" t="s">
+      <c r="O8" s="159" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="128"/>
@@ -11988,84 +11990,84 @@
         <f>DEC2HEX(A8+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="170" t="s">
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="170" t="s">
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="170" t="s">
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="118"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="127"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A9)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="167" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="159" t="s">
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="159" t="s">
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="161"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="148"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f t="shared" ref="A11:A17" si="0">DEC2HEX(HEX2DEC(A10)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="159" t="s">
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="159" t="s">
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="161"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="148"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -12330,80 +12332,80 @@
       <c r="F21" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="66" t="s">
+      <c r="H21" s="106"/>
+      <c r="I21" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="75" t="s">
+      <c r="J21" s="106"/>
+      <c r="K21" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="75" t="s">
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="77"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f>DEC2HEX(A21+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="95" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="80" t="s">
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="80" t="s">
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A22)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="80" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="80" t="s">
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="82"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -12437,24 +12439,24 @@
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="142" t="s">
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="163" t="s">
         <v>236</v>
       </c>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="142" t="s">
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="163" t="s">
         <v>262</v>
       </c>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="146"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="167"/>
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
@@ -12465,24 +12467,24 @@
         <f>DEC2HEX(A26+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="168" t="s">
         <v>324</v>
       </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="147" t="s">
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="168" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="147" t="s">
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="168" t="s">
         <v>237</v>
       </c>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="149"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="170"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
@@ -12493,150 +12495,150 @@
         <f>DEC2HEX(HEX2DEC(A27)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="139" t="s">
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="139" t="s">
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="160" t="s">
         <v>243</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="139" t="s">
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="141"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="162"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f t="shared" ref="A29:A32" si="1">DEC2HEX(HEX2DEC(A28)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="160" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="139" t="s">
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="139" t="s">
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="139" t="s">
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="160" t="s">
         <v>248</v>
       </c>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="141"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>0040</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="160" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="139" t="s">
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="160" t="s">
         <v>250</v>
       </c>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="139" t="s">
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="139" t="s">
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="141"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>0050</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="139" t="s">
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="160" t="s">
         <v>254</v>
       </c>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="139" t="s">
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="139" t="s">
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="141"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="162"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f t="shared" si="1"/>
         <v>0060</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="160" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="139" t="s">
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="160" t="s">
         <v>258</v>
       </c>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="139" t="s">
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="160" t="s">
         <v>259</v>
       </c>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="139" t="s">
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="160" t="s">
         <v>260</v>
       </c>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="141"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="162"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -12663,52 +12665,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K26:N26"/>
     <mergeCell ref="K32:N32"/>
     <mergeCell ref="O32:R32"/>
     <mergeCell ref="C32:F32"/>
@@ -12725,6 +12681,52 @@
     <mergeCell ref="O30:R30"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="O31:R31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12823,24 +12825,24 @@
         <v>76</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="122" t="s">
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="122" t="s">
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="124"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="118"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>

--- a/docs/Memory_Sheet.xlsx
+++ b/docs/Memory_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="773" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="773" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Private Block" sheetId="4" r:id="rId1"/>
@@ -275,7 +275,8 @@
 1 -&gt; Closed Loop Control
 2 -&gt; Enabled?
 3 -&gt; Start Pending
-4 -&gt; Stop Pending</t>
+4 -&gt; Stop Pending
+5 -&gt; Closed Loop Control Mode Change Pending</t>
         </r>
       </text>
     </comment>
@@ -315,28 +316,6 @@
     <author>Jaci Brunning</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Jaci Brunning:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-0 -&gt; Update Pending</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
@@ -382,16 +361,65 @@
           </rPr>
           <t xml:space="preserve">
 0 -&gt; Zero Latch Pending
-1 -&gt; Deadband State
-2 -&gt; Bootstrap Deadband State
+1 -&gt; Deadband Elimination State
+2 -&gt; Deadband Elimination State Update Pending
 3 -&gt; Bounds Update Pending
 4 -&gt; Raw Update Pending
 5 -&gt; Position Update Pending
-6 -&gt; Speed Update Pending</t>
+6 -&gt; Speed Update Pending
+7 -&gt; Period Multiplier Update Pending</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaci Brunning:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= 0 -&gt; int32_t
+= 1 -&gt; double</t>
         </r>
       </text>
     </comment>
     <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Jaci Brunning:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+2 Bits per Servo
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,30 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Jaci Brunning:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-1 Bit per Servo
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K26" authorId="0" shapeId="0">
+    <comment ref="O26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="339">
   <si>
     <t>Speed Controller</t>
   </si>
@@ -1556,8 +1561,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>byte is set to 0 when the device is not being used. When a module wants to initialize the device, it is set to -1. When the bootstrap has recognized that it has been created, it is set to 1. This is used to avoid initializing a device more than once</t>
+      <t>byte is special. Below is an explanation of what each of its bits does</t>
     </r>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Constructed in Bootstrap</t>
+  </si>
+  <si>
+    <t>Init in Module</t>
+  </si>
+  <si>
+    <t>It's important to note that this does not allow allocated resources to be destructed. This serves a few purposes</t>
+  </si>
+  <si>
+    <t>Avoids conflict. If a device resource is destructed in one module, it won't be destructed for all modules, which is a trap those using devices inside of a short-lived scope can fall into</t>
+  </si>
+  <si>
+    <t>Persistence. If the device resource has a property associated with it (such as the Analog accumulator or digital glitch filter), this will stay throughout all constructions of the object in all processes</t>
+  </si>
+  <si>
+    <t>Debugging. If the system undergoes a crash, the shared pool will contain information about all CREATED devices, even after they are not used anymore. This allows us to catch red herrings and particularly elusive bugs</t>
+  </si>
+  <si>
+    <t>This is used by the Bootstrap to detect when a device should be created in the Hardware Provider. This is set by module processes demanding access to a resource</t>
+  </si>
+  <si>
+    <t>This is used SOLEY by the Bootstrap, in order to keep track of whether the device has been created yet, to avoid creating a device twice. This also aids debugging</t>
+  </si>
+  <si>
+    <t>BOOTINIT</t>
+  </si>
+  <si>
+    <t>BOUNDS_MODE</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1993,6 +2034,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2375,12 +2419,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2793,422 +2831,422 @@
         <f>DEC2HEX(A4+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="str">
         <f t="shared" ref="A7:A23" si="0">DEC2HEX(HEX2DEC(A6)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="45"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0050</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0060</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0070</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="50"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0080</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0090</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00A0</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00B0</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00C0</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00D0</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00E0</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00F0</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A19)+16, 4)</f>
         <v>0100</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0110</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="50"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="51"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0120</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0130</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="54"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -3262,7 +3300,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3363,28 +3401,28 @@
       <c r="F4" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="96" t="s">
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="116"/>
+      <c r="M4" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="96" t="s">
+      <c r="N4" s="116"/>
+      <c r="O4" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="96" t="s">
+      <c r="P4" s="116"/>
+      <c r="Q4" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="R4" s="115"/>
+      <c r="R4" s="116"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="str">
@@ -3445,20 +3483,20 @@
         <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="93" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="93" t="s">
+      <c r="F6" s="96"/>
+      <c r="G6" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -3522,12 +3560,12 @@
       <c r="F9" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="120" t="s">
         <v>321</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
       <c r="K9" s="24" t="s">
         <v>319</v>
       </c>
@@ -4433,42 +4471,102 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4482,7 +4580,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:J48"/>
     </sheetView>
   </sheetViews>
@@ -4504,11 +4602,11 @@
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="8" t="s">
         <v>123</v>
       </c>
@@ -4586,12 +4684,12 @@
       <c r="C4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="25" t="s">
         <v>53</v>
       </c>
@@ -4604,4172 +4702,4172 @@
       <c r="N4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A4)+16, 8)</f>
         <v>00000010</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="str">
         <f t="shared" ref="A6:A69" si="0">DEC2HEX(HEX2DEC(A5)+16, 8)</f>
         <v>00000020</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000030</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000040</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000050</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000060</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000070</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000080</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000090</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000000A0</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000000B0</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000000C0</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000000D0</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000000E0</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000000F0</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000100</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000110</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000120</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000130</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000140</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000150</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000160</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="101"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000170</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="101"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000180</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="101"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000190</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="101"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A29)+16, 8)</f>
         <v>000001A0</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001B0</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="101"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001C0</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="101"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001D0</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="101"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001E0</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="101"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000001F0</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="99"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000200</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="99"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000210</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="99"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000220</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="99"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000230</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="99"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000240</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="99"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000250</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
+      <c r="Q41" s="98"/>
+      <c r="R41" s="99"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000260</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="99"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000270</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="98"/>
+      <c r="R43" s="99"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000280</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="98"/>
+      <c r="R44" s="99"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000290</v>
       </c>
-      <c r="C45" s="96" t="s">
+      <c r="C45" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="98"/>
+      <c r="R45" s="99"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002A0</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="99"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002B0</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="93" t="s">
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="93" t="s">
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="93" t="s">
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="96"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002C0</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="87" t="s">
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="90"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002D0</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="78"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002E0</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79"/>
-      <c r="R50" s="80"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="81"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000002F0</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="80"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="81"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000300</v>
       </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="83"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="84"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000310</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="78"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000320</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="80"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="81"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000330</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="80"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="81"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000340</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="83"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="84"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000350</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="C57" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="78"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000360</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="80"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="81"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000370</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="80"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="81"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000380</v>
       </c>
-      <c r="C60" s="81"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="83"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="84"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000390</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="77"/>
+      <c r="Q61" s="77"/>
+      <c r="R61" s="78"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003A0</v>
       </c>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="79"/>
-      <c r="R62" s="80"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="80"/>
+      <c r="R62" s="81"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003B0</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="79"/>
-      <c r="R63" s="80"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="81"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003C0</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82"/>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="83"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="83"/>
+      <c r="Q64" s="83"/>
+      <c r="R64" s="84"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003D0</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="78"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003E0</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="79"/>
-      <c r="R66" s="80"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="81"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="str">
         <f t="shared" si="0"/>
         <v>000003F0</v>
       </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="79"/>
-      <c r="R67" s="80"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="81"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000400</v>
       </c>
-      <c r="C68" s="81"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
-      <c r="P68" s="82"/>
-      <c r="Q68" s="82"/>
-      <c r="R68" s="83"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="84"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="str">
         <f t="shared" si="0"/>
         <v>00000410</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="78"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="str">
         <f t="shared" ref="A70:A133" si="1">DEC2HEX(HEX2DEC(A69)+16, 8)</f>
         <v>00000420</v>
       </c>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="80"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="80"/>
+      <c r="R70" s="81"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000430</v>
       </c>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="80"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="80"/>
+      <c r="M71" s="80"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
+      <c r="Q71" s="80"/>
+      <c r="R71" s="81"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000440</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
-      <c r="J72" s="82"/>
-      <c r="K72" s="82"/>
-      <c r="L72" s="82"/>
-      <c r="M72" s="82"/>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="82"/>
-      <c r="Q72" s="82"/>
-      <c r="R72" s="83"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="83"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="83"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="84"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000450</v>
       </c>
-      <c r="C73" s="75" t="s">
+      <c r="C73" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="76"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="76"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="77"/>
+      <c r="Q73" s="77"/>
+      <c r="R73" s="78"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000460</v>
       </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="79"/>
-      <c r="Q74" s="79"/>
-      <c r="R74" s="80"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="80"/>
+      <c r="R74" s="81"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000470</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
-      <c r="R75" s="80"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="80"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
+      <c r="Q75" s="80"/>
+      <c r="R75" s="81"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000480</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="82"/>
-      <c r="O76" s="82"/>
-      <c r="P76" s="82"/>
-      <c r="Q76" s="82"/>
-      <c r="R76" s="83"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
+      <c r="Q76" s="83"/>
+      <c r="R76" s="84"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000490</v>
       </c>
-      <c r="C77" s="75" t="s">
+      <c r="C77" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="78"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004A0</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="79"/>
-      <c r="J78" s="79"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
-      <c r="M78" s="79"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="79"/>
-      <c r="P78" s="79"/>
-      <c r="Q78" s="79"/>
-      <c r="R78" s="80"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="80"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="80"/>
+      <c r="Q78" s="80"/>
+      <c r="R78" s="81"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004B0</v>
       </c>
-      <c r="C79" s="78"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="79"/>
-      <c r="R79" s="80"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="80"/>
+      <c r="R79" s="81"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004C0</v>
       </c>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="82"/>
-      <c r="K80" s="82"/>
-      <c r="L80" s="82"/>
-      <c r="M80" s="82"/>
-      <c r="N80" s="82"/>
-      <c r="O80" s="82"/>
-      <c r="P80" s="82"/>
-      <c r="Q80" s="82"/>
-      <c r="R80" s="83"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="83"/>
+      <c r="L80" s="83"/>
+      <c r="M80" s="83"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="83"/>
+      <c r="Q80" s="83"/>
+      <c r="R80" s="84"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004D0</v>
       </c>
-      <c r="C81" s="84" t="s">
+      <c r="C81" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="85"/>
-      <c r="M81" s="85"/>
-      <c r="N81" s="85"/>
-      <c r="O81" s="85"/>
-      <c r="P81" s="85"/>
-      <c r="Q81" s="85"/>
-      <c r="R81" s="86"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="86"/>
+      <c r="K81" s="86"/>
+      <c r="L81" s="86"/>
+      <c r="M81" s="86"/>
+      <c r="N81" s="86"/>
+      <c r="O81" s="86"/>
+      <c r="P81" s="86"/>
+      <c r="Q81" s="86"/>
+      <c r="R81" s="87"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004E0</v>
       </c>
-      <c r="C82" s="84" t="s">
+      <c r="C82" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="85"/>
-      <c r="O82" s="85"/>
-      <c r="P82" s="85"/>
-      <c r="Q82" s="85"/>
-      <c r="R82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="86"/>
+      <c r="K82" s="86"/>
+      <c r="L82" s="86"/>
+      <c r="M82" s="86"/>
+      <c r="N82" s="86"/>
+      <c r="O82" s="86"/>
+      <c r="P82" s="86"/>
+      <c r="Q82" s="86"/>
+      <c r="R82" s="87"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000004F0</v>
       </c>
-      <c r="C83" s="66" t="s">
+      <c r="C83" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="68"/>
+      <c r="R83" s="69"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000500</v>
       </c>
-      <c r="C84" s="69"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="70"/>
-      <c r="O84" s="70"/>
-      <c r="P84" s="70"/>
-      <c r="Q84" s="70"/>
-      <c r="R84" s="71"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="72"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000510</v>
       </c>
-      <c r="C85" s="69"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="70"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="70"/>
-      <c r="N85" s="70"/>
-      <c r="O85" s="70"/>
-      <c r="P85" s="70"/>
-      <c r="Q85" s="70"/>
-      <c r="R85" s="71"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="72"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000520</v>
       </c>
-      <c r="C86" s="66" t="s">
+      <c r="C86" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="69"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000530</v>
       </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="70"/>
-      <c r="O87" s="70"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="71"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="71"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="71"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
+      <c r="Q87" s="71"/>
+      <c r="R87" s="72"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000540</v>
       </c>
-      <c r="C88" s="69"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="70"/>
-      <c r="O88" s="70"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="71"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="71"/>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="71"/>
+      <c r="R88" s="72"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000550</v>
       </c>
-      <c r="C89" s="66" t="s">
+      <c r="C89" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="67"/>
-      <c r="M89" s="67"/>
-      <c r="N89" s="67"/>
-      <c r="O89" s="67"/>
-      <c r="P89" s="67"/>
-      <c r="Q89" s="67"/>
-      <c r="R89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="68"/>
+      <c r="M89" s="68"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="69"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000560</v>
       </c>
-      <c r="C90" s="69"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="70"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="70"/>
-      <c r="O90" s="70"/>
-      <c r="P90" s="70"/>
-      <c r="Q90" s="70"/>
-      <c r="R90" s="71"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="71"/>
+      <c r="L90" s="71"/>
+      <c r="M90" s="71"/>
+      <c r="N90" s="71"/>
+      <c r="O90" s="71"/>
+      <c r="P90" s="71"/>
+      <c r="Q90" s="71"/>
+      <c r="R90" s="72"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000570</v>
       </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="71"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="71"/>
+      <c r="L91" s="71"/>
+      <c r="M91" s="71"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="71"/>
+      <c r="Q91" s="71"/>
+      <c r="R91" s="72"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000580</v>
       </c>
-      <c r="C92" s="66" t="s">
+      <c r="C92" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67"/>
-      <c r="M92" s="67"/>
-      <c r="N92" s="67"/>
-      <c r="O92" s="67"/>
-      <c r="P92" s="67"/>
-      <c r="Q92" s="67"/>
-      <c r="R92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="68"/>
+      <c r="M92" s="68"/>
+      <c r="N92" s="68"/>
+      <c r="O92" s="68"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="68"/>
+      <c r="R92" s="69"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000590</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="70"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="70"/>
-      <c r="O93" s="70"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="70"/>
-      <c r="R93" s="71"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="71"/>
+      <c r="P93" s="71"/>
+      <c r="Q93" s="71"/>
+      <c r="R93" s="72"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005A0</v>
       </c>
-      <c r="C94" s="69"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="70"/>
-      <c r="L94" s="70"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="70"/>
-      <c r="O94" s="70"/>
-      <c r="P94" s="70"/>
-      <c r="Q94" s="70"/>
-      <c r="R94" s="71"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="71"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="71"/>
+      <c r="Q94" s="71"/>
+      <c r="R94" s="72"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005B0</v>
       </c>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="67"/>
-      <c r="O95" s="67"/>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="67"/>
-      <c r="R95" s="68"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="68"/>
+      <c r="L95" s="68"/>
+      <c r="M95" s="68"/>
+      <c r="N95" s="68"/>
+      <c r="O95" s="68"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="68"/>
+      <c r="R95" s="69"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005C0</v>
       </c>
-      <c r="C96" s="69"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="70"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="71"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="72"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005D0</v>
       </c>
-      <c r="C97" s="69"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
-      <c r="K97" s="70"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="70"/>
-      <c r="N97" s="70"/>
-      <c r="O97" s="70"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="70"/>
-      <c r="R97" s="71"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="71"/>
+      <c r="R97" s="72"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005E0</v>
       </c>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67"/>
-      <c r="N98" s="67"/>
-      <c r="O98" s="67"/>
-      <c r="P98" s="67"/>
-      <c r="Q98" s="67"/>
-      <c r="R98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="69"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000005F0</v>
       </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="70"/>
-      <c r="O99" s="70"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="70"/>
-      <c r="R99" s="71"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="71"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="71"/>
+      <c r="Q99" s="71"/>
+      <c r="R99" s="72"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000600</v>
       </c>
-      <c r="C100" s="69"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="70"/>
-      <c r="M100" s="70"/>
-      <c r="N100" s="70"/>
-      <c r="O100" s="70"/>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="70"/>
-      <c r="R100" s="71"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
+      <c r="R100" s="72"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000610</v>
       </c>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
-      <c r="L101" s="67"/>
-      <c r="M101" s="67"/>
-      <c r="N101" s="67"/>
-      <c r="O101" s="67"/>
-      <c r="P101" s="67"/>
-      <c r="Q101" s="67"/>
-      <c r="R101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
+      <c r="K101" s="68"/>
+      <c r="L101" s="68"/>
+      <c r="M101" s="68"/>
+      <c r="N101" s="68"/>
+      <c r="O101" s="68"/>
+      <c r="P101" s="68"/>
+      <c r="Q101" s="68"/>
+      <c r="R101" s="69"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000620</v>
       </c>
-      <c r="C102" s="69"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70"/>
-      <c r="K102" s="70"/>
-      <c r="L102" s="70"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="70"/>
-      <c r="O102" s="70"/>
-      <c r="P102" s="70"/>
-      <c r="Q102" s="70"/>
-      <c r="R102" s="71"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="71"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="71"/>
+      <c r="R102" s="72"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000630</v>
       </c>
-      <c r="C103" s="69"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="70"/>
-      <c r="K103" s="70"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="70"/>
-      <c r="O103" s="70"/>
-      <c r="P103" s="70"/>
-      <c r="Q103" s="70"/>
-      <c r="R103" s="71"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
+      <c r="Q103" s="71"/>
+      <c r="R103" s="72"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000640</v>
       </c>
-      <c r="C104" s="66" t="s">
+      <c r="C104" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="67"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="67"/>
-      <c r="M104" s="67"/>
-      <c r="N104" s="67"/>
-      <c r="O104" s="67"/>
-      <c r="P104" s="67"/>
-      <c r="Q104" s="67"/>
-      <c r="R104" s="68"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="68"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="69"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000650</v>
       </c>
-      <c r="C105" s="69"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="70"/>
-      <c r="O105" s="70"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="71"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="71"/>
+      <c r="R105" s="72"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000660</v>
       </c>
-      <c r="C106" s="72"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
-      <c r="K106" s="73"/>
-      <c r="L106" s="73"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="73"/>
-      <c r="O106" s="73"/>
-      <c r="P106" s="73"/>
-      <c r="Q106" s="73"/>
-      <c r="R106" s="74"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="74"/>
+      <c r="P106" s="74"/>
+      <c r="Q106" s="74"/>
+      <c r="R106" s="75"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000670</v>
       </c>
-      <c r="C107" s="66" t="s">
+      <c r="C107" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="67"/>
-      <c r="L107" s="67"/>
-      <c r="M107" s="67"/>
-      <c r="N107" s="67"/>
-      <c r="O107" s="67"/>
-      <c r="P107" s="67"/>
-      <c r="Q107" s="67"/>
-      <c r="R107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="68"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="68"/>
+      <c r="K107" s="68"/>
+      <c r="L107" s="68"/>
+      <c r="M107" s="68"/>
+      <c r="N107" s="68"/>
+      <c r="O107" s="68"/>
+      <c r="P107" s="68"/>
+      <c r="Q107" s="68"/>
+      <c r="R107" s="69"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000680</v>
       </c>
-      <c r="C108" s="69"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="70"/>
-      <c r="J108" s="70"/>
-      <c r="K108" s="70"/>
-      <c r="L108" s="70"/>
-      <c r="M108" s="70"/>
-      <c r="N108" s="70"/>
-      <c r="O108" s="70"/>
-      <c r="P108" s="70"/>
-      <c r="Q108" s="70"/>
-      <c r="R108" s="71"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="71"/>
+      <c r="O108" s="71"/>
+      <c r="P108" s="71"/>
+      <c r="Q108" s="71"/>
+      <c r="R108" s="72"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000690</v>
       </c>
-      <c r="C109" s="72"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="73"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="73"/>
-      <c r="K109" s="73"/>
-      <c r="L109" s="73"/>
-      <c r="M109" s="73"/>
-      <c r="N109" s="73"/>
-      <c r="O109" s="73"/>
-      <c r="P109" s="73"/>
-      <c r="Q109" s="73"/>
-      <c r="R109" s="74"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="74"/>
+      <c r="R109" s="75"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006A0</v>
       </c>
-      <c r="C110" s="66" t="s">
+      <c r="C110" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
-      <c r="L110" s="67"/>
-      <c r="M110" s="67"/>
-      <c r="N110" s="67"/>
-      <c r="O110" s="67"/>
-      <c r="P110" s="67"/>
-      <c r="Q110" s="67"/>
-      <c r="R110" s="68"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="68"/>
+      <c r="I110" s="68"/>
+      <c r="J110" s="68"/>
+      <c r="K110" s="68"/>
+      <c r="L110" s="68"/>
+      <c r="M110" s="68"/>
+      <c r="N110" s="68"/>
+      <c r="O110" s="68"/>
+      <c r="P110" s="68"/>
+      <c r="Q110" s="68"/>
+      <c r="R110" s="69"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006B0</v>
       </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
-      <c r="J111" s="70"/>
-      <c r="K111" s="70"/>
-      <c r="L111" s="70"/>
-      <c r="M111" s="70"/>
-      <c r="N111" s="70"/>
-      <c r="O111" s="70"/>
-      <c r="P111" s="70"/>
-      <c r="Q111" s="70"/>
-      <c r="R111" s="71"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="71"/>
+      <c r="K111" s="71"/>
+      <c r="L111" s="71"/>
+      <c r="M111" s="71"/>
+      <c r="N111" s="71"/>
+      <c r="O111" s="71"/>
+      <c r="P111" s="71"/>
+      <c r="Q111" s="71"/>
+      <c r="R111" s="72"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006C0</v>
       </c>
-      <c r="C112" s="72"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="73"/>
-      <c r="H112" s="73"/>
-      <c r="I112" s="73"/>
-      <c r="J112" s="73"/>
-      <c r="K112" s="73"/>
-      <c r="L112" s="73"/>
-      <c r="M112" s="73"/>
-      <c r="N112" s="73"/>
-      <c r="O112" s="73"/>
-      <c r="P112" s="73"/>
-      <c r="Q112" s="73"/>
-      <c r="R112" s="74"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
+      <c r="O112" s="74"/>
+      <c r="P112" s="74"/>
+      <c r="Q112" s="74"/>
+      <c r="R112" s="75"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006D0</v>
       </c>
-      <c r="C113" s="66" t="s">
+      <c r="C113" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="67"/>
-      <c r="O113" s="67"/>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
-      <c r="R113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="68"/>
+      <c r="L113" s="68"/>
+      <c r="M113" s="68"/>
+      <c r="N113" s="68"/>
+      <c r="O113" s="68"/>
+      <c r="P113" s="68"/>
+      <c r="Q113" s="68"/>
+      <c r="R113" s="69"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006E0</v>
       </c>
-      <c r="C114" s="69"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="70"/>
-      <c r="J114" s="70"/>
-      <c r="K114" s="70"/>
-      <c r="L114" s="70"/>
-      <c r="M114" s="70"/>
-      <c r="N114" s="70"/>
-      <c r="O114" s="70"/>
-      <c r="P114" s="70"/>
-      <c r="Q114" s="70"/>
-      <c r="R114" s="71"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="71"/>
+      <c r="O114" s="71"/>
+      <c r="P114" s="71"/>
+      <c r="Q114" s="71"/>
+      <c r="R114" s="72"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000006F0</v>
       </c>
-      <c r="C115" s="72"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="73"/>
-      <c r="H115" s="73"/>
-      <c r="I115" s="73"/>
-      <c r="J115" s="73"/>
-      <c r="K115" s="73"/>
-      <c r="L115" s="73"/>
-      <c r="M115" s="73"/>
-      <c r="N115" s="73"/>
-      <c r="O115" s="73"/>
-      <c r="P115" s="73"/>
-      <c r="Q115" s="73"/>
-      <c r="R115" s="74"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+      <c r="O115" s="74"/>
+      <c r="P115" s="74"/>
+      <c r="Q115" s="74"/>
+      <c r="R115" s="75"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000700</v>
       </c>
-      <c r="C116" s="66" t="s">
+      <c r="C116" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="67"/>
-      <c r="J116" s="67"/>
-      <c r="K116" s="67"/>
-      <c r="L116" s="67"/>
-      <c r="M116" s="67"/>
-      <c r="N116" s="67"/>
-      <c r="O116" s="67"/>
-      <c r="P116" s="67"/>
-      <c r="Q116" s="67"/>
-      <c r="R116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="68"/>
+      <c r="J116" s="68"/>
+      <c r="K116" s="68"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="68"/>
+      <c r="N116" s="68"/>
+      <c r="O116" s="68"/>
+      <c r="P116" s="68"/>
+      <c r="Q116" s="68"/>
+      <c r="R116" s="69"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000710</v>
       </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="70"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="70"/>
-      <c r="J117" s="70"/>
-      <c r="K117" s="70"/>
-      <c r="L117" s="70"/>
-      <c r="M117" s="70"/>
-      <c r="N117" s="70"/>
-      <c r="O117" s="70"/>
-      <c r="P117" s="70"/>
-      <c r="Q117" s="70"/>
-      <c r="R117" s="71"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+      <c r="L117" s="71"/>
+      <c r="M117" s="71"/>
+      <c r="N117" s="71"/>
+      <c r="O117" s="71"/>
+      <c r="P117" s="71"/>
+      <c r="Q117" s="71"/>
+      <c r="R117" s="72"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000720</v>
       </c>
-      <c r="C118" s="72"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
-      <c r="H118" s="73"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="73"/>
-      <c r="K118" s="73"/>
-      <c r="L118" s="73"/>
-      <c r="M118" s="73"/>
-      <c r="N118" s="73"/>
-      <c r="O118" s="73"/>
-      <c r="P118" s="73"/>
-      <c r="Q118" s="73"/>
-      <c r="R118" s="74"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="74"/>
+      <c r="P118" s="74"/>
+      <c r="Q118" s="74"/>
+      <c r="R118" s="75"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000730</v>
       </c>
-      <c r="C119" s="66" t="s">
+      <c r="C119" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="67"/>
-      <c r="K119" s="67"/>
-      <c r="L119" s="67"/>
-      <c r="M119" s="67"/>
-      <c r="N119" s="67"/>
-      <c r="O119" s="67"/>
-      <c r="P119" s="67"/>
-      <c r="Q119" s="67"/>
-      <c r="R119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="68"/>
+      <c r="J119" s="68"/>
+      <c r="K119" s="68"/>
+      <c r="L119" s="68"/>
+      <c r="M119" s="68"/>
+      <c r="N119" s="68"/>
+      <c r="O119" s="68"/>
+      <c r="P119" s="68"/>
+      <c r="Q119" s="68"/>
+      <c r="R119" s="69"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000740</v>
       </c>
-      <c r="C120" s="69"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="70"/>
-      <c r="H120" s="70"/>
-      <c r="I120" s="70"/>
-      <c r="J120" s="70"/>
-      <c r="K120" s="70"/>
-      <c r="L120" s="70"/>
-      <c r="M120" s="70"/>
-      <c r="N120" s="70"/>
-      <c r="O120" s="70"/>
-      <c r="P120" s="70"/>
-      <c r="Q120" s="70"/>
-      <c r="R120" s="71"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="71"/>
+      <c r="M120" s="71"/>
+      <c r="N120" s="71"/>
+      <c r="O120" s="71"/>
+      <c r="P120" s="71"/>
+      <c r="Q120" s="71"/>
+      <c r="R120" s="72"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000750</v>
       </c>
-      <c r="C121" s="72"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
-      <c r="H121" s="73"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="73"/>
-      <c r="K121" s="73"/>
-      <c r="L121" s="73"/>
-      <c r="M121" s="73"/>
-      <c r="N121" s="73"/>
-      <c r="O121" s="73"/>
-      <c r="P121" s="73"/>
-      <c r="Q121" s="73"/>
-      <c r="R121" s="74"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="74"/>
+      <c r="I121" s="74"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="74"/>
+      <c r="M121" s="74"/>
+      <c r="N121" s="74"/>
+      <c r="O121" s="74"/>
+      <c r="P121" s="74"/>
+      <c r="Q121" s="74"/>
+      <c r="R121" s="75"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000760</v>
       </c>
-      <c r="C122" s="66" t="s">
+      <c r="C122" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67"/>
-      <c r="L122" s="67"/>
-      <c r="M122" s="67"/>
-      <c r="N122" s="67"/>
-      <c r="O122" s="67"/>
-      <c r="P122" s="67"/>
-      <c r="Q122" s="67"/>
-      <c r="R122" s="68"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
+      <c r="I122" s="68"/>
+      <c r="J122" s="68"/>
+      <c r="K122" s="68"/>
+      <c r="L122" s="68"/>
+      <c r="M122" s="68"/>
+      <c r="N122" s="68"/>
+      <c r="O122" s="68"/>
+      <c r="P122" s="68"/>
+      <c r="Q122" s="68"/>
+      <c r="R122" s="69"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000770</v>
       </c>
-      <c r="C123" s="69"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="70"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
-      <c r="J123" s="70"/>
-      <c r="K123" s="70"/>
-      <c r="L123" s="70"/>
-      <c r="M123" s="70"/>
-      <c r="N123" s="70"/>
-      <c r="O123" s="70"/>
-      <c r="P123" s="70"/>
-      <c r="Q123" s="70"/>
-      <c r="R123" s="71"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="71"/>
+      <c r="M123" s="71"/>
+      <c r="N123" s="71"/>
+      <c r="O123" s="71"/>
+      <c r="P123" s="71"/>
+      <c r="Q123" s="71"/>
+      <c r="R123" s="72"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000780</v>
       </c>
-      <c r="C124" s="72"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="73"/>
-      <c r="H124" s="73"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="73"/>
-      <c r="K124" s="73"/>
-      <c r="L124" s="73"/>
-      <c r="M124" s="73"/>
-      <c r="N124" s="73"/>
-      <c r="O124" s="73"/>
-      <c r="P124" s="73"/>
-      <c r="Q124" s="73"/>
-      <c r="R124" s="74"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="74"/>
+      <c r="R124" s="75"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000790</v>
       </c>
-      <c r="C125" s="66" t="s">
+      <c r="C125" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="67"/>
-      <c r="L125" s="67"/>
-      <c r="M125" s="67"/>
-      <c r="N125" s="67"/>
-      <c r="O125" s="67"/>
-      <c r="P125" s="67"/>
-      <c r="Q125" s="67"/>
-      <c r="R125" s="68"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
+      <c r="I125" s="68"/>
+      <c r="J125" s="68"/>
+      <c r="K125" s="68"/>
+      <c r="L125" s="68"/>
+      <c r="M125" s="68"/>
+      <c r="N125" s="68"/>
+      <c r="O125" s="68"/>
+      <c r="P125" s="68"/>
+      <c r="Q125" s="68"/>
+      <c r="R125" s="69"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007A0</v>
       </c>
-      <c r="C126" s="69"/>
-      <c r="D126" s="70"/>
-      <c r="E126" s="70"/>
-      <c r="F126" s="70"/>
-      <c r="G126" s="70"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="70"/>
-      <c r="J126" s="70"/>
-      <c r="K126" s="70"/>
-      <c r="L126" s="70"/>
-      <c r="M126" s="70"/>
-      <c r="N126" s="70"/>
-      <c r="O126" s="70"/>
-      <c r="P126" s="70"/>
-      <c r="Q126" s="70"/>
-      <c r="R126" s="71"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="71"/>
+      <c r="M126" s="71"/>
+      <c r="N126" s="71"/>
+      <c r="O126" s="71"/>
+      <c r="P126" s="71"/>
+      <c r="Q126" s="71"/>
+      <c r="R126" s="72"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007B0</v>
       </c>
-      <c r="C127" s="72"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
-      <c r="K127" s="73"/>
-      <c r="L127" s="73"/>
-      <c r="M127" s="73"/>
-      <c r="N127" s="73"/>
-      <c r="O127" s="73"/>
-      <c r="P127" s="73"/>
-      <c r="Q127" s="73"/>
-      <c r="R127" s="74"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="74"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="74"/>
+      <c r="M127" s="74"/>
+      <c r="N127" s="74"/>
+      <c r="O127" s="74"/>
+      <c r="P127" s="74"/>
+      <c r="Q127" s="74"/>
+      <c r="R127" s="75"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007C0</v>
       </c>
-      <c r="C128" s="66" t="s">
+      <c r="C128" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D128" s="67"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="67"/>
-      <c r="K128" s="67"/>
-      <c r="L128" s="67"/>
-      <c r="M128" s="67"/>
-      <c r="N128" s="67"/>
-      <c r="O128" s="67"/>
-      <c r="P128" s="67"/>
-      <c r="Q128" s="67"/>
-      <c r="R128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
+      <c r="I128" s="68"/>
+      <c r="J128" s="68"/>
+      <c r="K128" s="68"/>
+      <c r="L128" s="68"/>
+      <c r="M128" s="68"/>
+      <c r="N128" s="68"/>
+      <c r="O128" s="68"/>
+      <c r="P128" s="68"/>
+      <c r="Q128" s="68"/>
+      <c r="R128" s="69"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007D0</v>
       </c>
-      <c r="C129" s="69"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="70"/>
-      <c r="F129" s="70"/>
-      <c r="G129" s="70"/>
-      <c r="H129" s="70"/>
-      <c r="I129" s="70"/>
-      <c r="J129" s="70"/>
-      <c r="K129" s="70"/>
-      <c r="L129" s="70"/>
-      <c r="M129" s="70"/>
-      <c r="N129" s="70"/>
-      <c r="O129" s="70"/>
-      <c r="P129" s="70"/>
-      <c r="Q129" s="70"/>
-      <c r="R129" s="71"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
+      <c r="L129" s="71"/>
+      <c r="M129" s="71"/>
+      <c r="N129" s="71"/>
+      <c r="O129" s="71"/>
+      <c r="P129" s="71"/>
+      <c r="Q129" s="71"/>
+      <c r="R129" s="72"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007E0</v>
       </c>
-      <c r="C130" s="72"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="73"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="73"/>
-      <c r="H130" s="73"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="73"/>
-      <c r="K130" s="73"/>
-      <c r="L130" s="73"/>
-      <c r="M130" s="73"/>
-      <c r="N130" s="73"/>
-      <c r="O130" s="73"/>
-      <c r="P130" s="73"/>
-      <c r="Q130" s="73"/>
-      <c r="R130" s="74"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="74"/>
+      <c r="I130" s="74"/>
+      <c r="J130" s="74"/>
+      <c r="K130" s="74"/>
+      <c r="L130" s="74"/>
+      <c r="M130" s="74"/>
+      <c r="N130" s="74"/>
+      <c r="O130" s="74"/>
+      <c r="P130" s="74"/>
+      <c r="Q130" s="74"/>
+      <c r="R130" s="75"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="str">
         <f t="shared" si="1"/>
         <v>000007F0</v>
       </c>
-      <c r="C131" s="66" t="s">
+      <c r="C131" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
-      <c r="K131" s="67"/>
-      <c r="L131" s="67"/>
-      <c r="M131" s="67"/>
-      <c r="N131" s="67"/>
-      <c r="O131" s="67"/>
-      <c r="P131" s="67"/>
-      <c r="Q131" s="67"/>
-      <c r="R131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
+      <c r="I131" s="68"/>
+      <c r="J131" s="68"/>
+      <c r="K131" s="68"/>
+      <c r="L131" s="68"/>
+      <c r="M131" s="68"/>
+      <c r="N131" s="68"/>
+      <c r="O131" s="68"/>
+      <c r="P131" s="68"/>
+      <c r="Q131" s="68"/>
+      <c r="R131" s="69"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000800</v>
       </c>
-      <c r="C132" s="69"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="70"/>
-      <c r="F132" s="70"/>
-      <c r="G132" s="70"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="70"/>
-      <c r="J132" s="70"/>
-      <c r="K132" s="70"/>
-      <c r="L132" s="70"/>
-      <c r="M132" s="70"/>
-      <c r="N132" s="70"/>
-      <c r="O132" s="70"/>
-      <c r="P132" s="70"/>
-      <c r="Q132" s="70"/>
-      <c r="R132" s="71"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
+      <c r="L132" s="71"/>
+      <c r="M132" s="71"/>
+      <c r="N132" s="71"/>
+      <c r="O132" s="71"/>
+      <c r="P132" s="71"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="72"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="str">
         <f t="shared" si="1"/>
         <v>00000810</v>
       </c>
-      <c r="C133" s="72"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
-      <c r="H133" s="73"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
-      <c r="K133" s="73"/>
-      <c r="L133" s="73"/>
-      <c r="M133" s="73"/>
-      <c r="N133" s="73"/>
-      <c r="O133" s="73"/>
-      <c r="P133" s="73"/>
-      <c r="Q133" s="73"/>
-      <c r="R133" s="74"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="74"/>
+      <c r="K133" s="74"/>
+      <c r="L133" s="74"/>
+      <c r="M133" s="74"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="74"/>
+      <c r="P133" s="74"/>
+      <c r="Q133" s="74"/>
+      <c r="R133" s="75"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="str">
         <f t="shared" ref="A134:A185" si="2">DEC2HEX(HEX2DEC(A133)+16, 8)</f>
         <v>00000820</v>
       </c>
-      <c r="C134" s="66" t="s">
+      <c r="C134" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="67"/>
-      <c r="I134" s="67"/>
-      <c r="J134" s="67"/>
-      <c r="K134" s="67"/>
-      <c r="L134" s="67"/>
-      <c r="M134" s="67"/>
-      <c r="N134" s="67"/>
-      <c r="O134" s="67"/>
-      <c r="P134" s="67"/>
-      <c r="Q134" s="67"/>
-      <c r="R134" s="68"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="68"/>
+      <c r="I134" s="68"/>
+      <c r="J134" s="68"/>
+      <c r="K134" s="68"/>
+      <c r="L134" s="68"/>
+      <c r="M134" s="68"/>
+      <c r="N134" s="68"/>
+      <c r="O134" s="68"/>
+      <c r="P134" s="68"/>
+      <c r="Q134" s="68"/>
+      <c r="R134" s="69"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000830</v>
       </c>
-      <c r="C135" s="69"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="70"/>
-      <c r="H135" s="70"/>
-      <c r="I135" s="70"/>
-      <c r="J135" s="70"/>
-      <c r="K135" s="70"/>
-      <c r="L135" s="70"/>
-      <c r="M135" s="70"/>
-      <c r="N135" s="70"/>
-      <c r="O135" s="70"/>
-      <c r="P135" s="70"/>
-      <c r="Q135" s="70"/>
-      <c r="R135" s="71"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="71"/>
+      <c r="J135" s="71"/>
+      <c r="K135" s="71"/>
+      <c r="L135" s="71"/>
+      <c r="M135" s="71"/>
+      <c r="N135" s="71"/>
+      <c r="O135" s="71"/>
+      <c r="P135" s="71"/>
+      <c r="Q135" s="71"/>
+      <c r="R135" s="72"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000840</v>
       </c>
-      <c r="C136" s="72"/>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="73"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="73"/>
-      <c r="K136" s="73"/>
-      <c r="L136" s="73"/>
-      <c r="M136" s="73"/>
-      <c r="N136" s="73"/>
-      <c r="O136" s="73"/>
-      <c r="P136" s="73"/>
-      <c r="Q136" s="73"/>
-      <c r="R136" s="74"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="74"/>
+      <c r="L136" s="74"/>
+      <c r="M136" s="74"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="74"/>
+      <c r="P136" s="74"/>
+      <c r="Q136" s="74"/>
+      <c r="R136" s="75"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000850</v>
       </c>
-      <c r="C137" s="66" t="s">
+      <c r="C137" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D137" s="67"/>
-      <c r="E137" s="67"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="67"/>
-      <c r="J137" s="67"/>
-      <c r="K137" s="67"/>
-      <c r="L137" s="67"/>
-      <c r="M137" s="67"/>
-      <c r="N137" s="67"/>
-      <c r="O137" s="67"/>
-      <c r="P137" s="67"/>
-      <c r="Q137" s="67"/>
-      <c r="R137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="68"/>
+      <c r="K137" s="68"/>
+      <c r="L137" s="68"/>
+      <c r="M137" s="68"/>
+      <c r="N137" s="68"/>
+      <c r="O137" s="68"/>
+      <c r="P137" s="68"/>
+      <c r="Q137" s="68"/>
+      <c r="R137" s="69"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000860</v>
       </c>
-      <c r="C138" s="69"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="70"/>
-      <c r="F138" s="70"/>
-      <c r="G138" s="70"/>
-      <c r="H138" s="70"/>
-      <c r="I138" s="70"/>
-      <c r="J138" s="70"/>
-      <c r="K138" s="70"/>
-      <c r="L138" s="70"/>
-      <c r="M138" s="70"/>
-      <c r="N138" s="70"/>
-      <c r="O138" s="70"/>
-      <c r="P138" s="70"/>
-      <c r="Q138" s="70"/>
-      <c r="R138" s="71"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="71"/>
+      <c r="J138" s="71"/>
+      <c r="K138" s="71"/>
+      <c r="L138" s="71"/>
+      <c r="M138" s="71"/>
+      <c r="N138" s="71"/>
+      <c r="O138" s="71"/>
+      <c r="P138" s="71"/>
+      <c r="Q138" s="71"/>
+      <c r="R138" s="72"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000870</v>
       </c>
-      <c r="C139" s="72"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="73"/>
-      <c r="H139" s="73"/>
-      <c r="I139" s="73"/>
-      <c r="J139" s="73"/>
-      <c r="K139" s="73"/>
-      <c r="L139" s="73"/>
-      <c r="M139" s="73"/>
-      <c r="N139" s="73"/>
-      <c r="O139" s="73"/>
-      <c r="P139" s="73"/>
-      <c r="Q139" s="73"/>
-      <c r="R139" s="74"/>
+      <c r="C139" s="73"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="74"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
+      <c r="J139" s="74"/>
+      <c r="K139" s="74"/>
+      <c r="L139" s="74"/>
+      <c r="M139" s="74"/>
+      <c r="N139" s="74"/>
+      <c r="O139" s="74"/>
+      <c r="P139" s="74"/>
+      <c r="Q139" s="74"/>
+      <c r="R139" s="75"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000880</v>
       </c>
-      <c r="C140" s="66" t="s">
+      <c r="C140" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="67"/>
-      <c r="J140" s="67"/>
-      <c r="K140" s="67"/>
-      <c r="L140" s="67"/>
-      <c r="M140" s="67"/>
-      <c r="N140" s="67"/>
-      <c r="O140" s="67"/>
-      <c r="P140" s="67"/>
-      <c r="Q140" s="67"/>
-      <c r="R140" s="68"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
+      <c r="H140" s="68"/>
+      <c r="I140" s="68"/>
+      <c r="J140" s="68"/>
+      <c r="K140" s="68"/>
+      <c r="L140" s="68"/>
+      <c r="M140" s="68"/>
+      <c r="N140" s="68"/>
+      <c r="O140" s="68"/>
+      <c r="P140" s="68"/>
+      <c r="Q140" s="68"/>
+      <c r="R140" s="69"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000890</v>
       </c>
-      <c r="C141" s="69"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70"/>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70"/>
-      <c r="J141" s="70"/>
-      <c r="K141" s="70"/>
-      <c r="L141" s="70"/>
-      <c r="M141" s="70"/>
-      <c r="N141" s="70"/>
-      <c r="O141" s="70"/>
-      <c r="P141" s="70"/>
-      <c r="Q141" s="70"/>
-      <c r="R141" s="71"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="71"/>
+      <c r="J141" s="71"/>
+      <c r="K141" s="71"/>
+      <c r="L141" s="71"/>
+      <c r="M141" s="71"/>
+      <c r="N141" s="71"/>
+      <c r="O141" s="71"/>
+      <c r="P141" s="71"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="72"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008A0</v>
       </c>
-      <c r="C142" s="72"/>
-      <c r="D142" s="73"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="73"/>
-      <c r="H142" s="73"/>
-      <c r="I142" s="73"/>
-      <c r="J142" s="73"/>
-      <c r="K142" s="73"/>
-      <c r="L142" s="73"/>
-      <c r="M142" s="73"/>
-      <c r="N142" s="73"/>
-      <c r="O142" s="73"/>
-      <c r="P142" s="73"/>
-      <c r="Q142" s="73"/>
-      <c r="R142" s="74"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="74"/>
+      <c r="G142" s="74"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
+      <c r="J142" s="74"/>
+      <c r="K142" s="74"/>
+      <c r="L142" s="74"/>
+      <c r="M142" s="74"/>
+      <c r="N142" s="74"/>
+      <c r="O142" s="74"/>
+      <c r="P142" s="74"/>
+      <c r="Q142" s="74"/>
+      <c r="R142" s="75"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008B0</v>
       </c>
-      <c r="C143" s="104" t="s">
+      <c r="C143" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="105"/>
-      <c r="E143" s="105"/>
-      <c r="F143" s="105"/>
-      <c r="G143" s="105"/>
-      <c r="H143" s="105"/>
-      <c r="I143" s="105"/>
-      <c r="J143" s="105"/>
-      <c r="K143" s="105"/>
-      <c r="L143" s="105"/>
-      <c r="M143" s="105"/>
-      <c r="N143" s="105"/>
-      <c r="O143" s="105"/>
-      <c r="P143" s="105"/>
-      <c r="Q143" s="105"/>
-      <c r="R143" s="106"/>
+      <c r="D143" s="106"/>
+      <c r="E143" s="106"/>
+      <c r="F143" s="106"/>
+      <c r="G143" s="106"/>
+      <c r="H143" s="106"/>
+      <c r="I143" s="106"/>
+      <c r="J143" s="106"/>
+      <c r="K143" s="106"/>
+      <c r="L143" s="106"/>
+      <c r="M143" s="106"/>
+      <c r="N143" s="106"/>
+      <c r="O143" s="106"/>
+      <c r="P143" s="106"/>
+      <c r="Q143" s="106"/>
+      <c r="R143" s="107"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008C0</v>
       </c>
-      <c r="C144" s="104" t="s">
+      <c r="C144" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D144" s="105"/>
-      <c r="E144" s="105"/>
-      <c r="F144" s="105"/>
-      <c r="G144" s="105"/>
-      <c r="H144" s="105"/>
-      <c r="I144" s="105"/>
-      <c r="J144" s="105"/>
-      <c r="K144" s="105"/>
-      <c r="L144" s="105"/>
-      <c r="M144" s="105"/>
-      <c r="N144" s="105"/>
-      <c r="O144" s="105"/>
-      <c r="P144" s="105"/>
-      <c r="Q144" s="105"/>
-      <c r="R144" s="106"/>
+      <c r="D144" s="106"/>
+      <c r="E144" s="106"/>
+      <c r="F144" s="106"/>
+      <c r="G144" s="106"/>
+      <c r="H144" s="106"/>
+      <c r="I144" s="106"/>
+      <c r="J144" s="106"/>
+      <c r="K144" s="106"/>
+      <c r="L144" s="106"/>
+      <c r="M144" s="106"/>
+      <c r="N144" s="106"/>
+      <c r="O144" s="106"/>
+      <c r="P144" s="106"/>
+      <c r="Q144" s="106"/>
+      <c r="R144" s="107"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008D0</v>
       </c>
-      <c r="C145" s="104" t="s">
+      <c r="C145" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="D145" s="105"/>
-      <c r="E145" s="105"/>
-      <c r="F145" s="105"/>
-      <c r="G145" s="105"/>
-      <c r="H145" s="105"/>
-      <c r="I145" s="105"/>
-      <c r="J145" s="105"/>
-      <c r="K145" s="105"/>
-      <c r="L145" s="105"/>
-      <c r="M145" s="105"/>
-      <c r="N145" s="105"/>
-      <c r="O145" s="105"/>
-      <c r="P145" s="105"/>
-      <c r="Q145" s="105"/>
-      <c r="R145" s="106"/>
+      <c r="D145" s="106"/>
+      <c r="E145" s="106"/>
+      <c r="F145" s="106"/>
+      <c r="G145" s="106"/>
+      <c r="H145" s="106"/>
+      <c r="I145" s="106"/>
+      <c r="J145" s="106"/>
+      <c r="K145" s="106"/>
+      <c r="L145" s="106"/>
+      <c r="M145" s="106"/>
+      <c r="N145" s="106"/>
+      <c r="O145" s="106"/>
+      <c r="P145" s="106"/>
+      <c r="Q145" s="106"/>
+      <c r="R145" s="107"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008E0</v>
       </c>
-      <c r="C146" s="104" t="s">
+      <c r="C146" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D146" s="105"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="105"/>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="105"/>
-      <c r="J146" s="105"/>
-      <c r="K146" s="105"/>
-      <c r="L146" s="105"/>
-      <c r="M146" s="105"/>
-      <c r="N146" s="105"/>
-      <c r="O146" s="105"/>
-      <c r="P146" s="105"/>
-      <c r="Q146" s="105"/>
-      <c r="R146" s="106"/>
+      <c r="D146" s="106"/>
+      <c r="E146" s="106"/>
+      <c r="F146" s="106"/>
+      <c r="G146" s="106"/>
+      <c r="H146" s="106"/>
+      <c r="I146" s="106"/>
+      <c r="J146" s="106"/>
+      <c r="K146" s="106"/>
+      <c r="L146" s="106"/>
+      <c r="M146" s="106"/>
+      <c r="N146" s="106"/>
+      <c r="O146" s="106"/>
+      <c r="P146" s="106"/>
+      <c r="Q146" s="106"/>
+      <c r="R146" s="107"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000008F0</v>
       </c>
-      <c r="C147" s="104" t="s">
+      <c r="C147" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D147" s="105"/>
-      <c r="E147" s="105"/>
-      <c r="F147" s="105"/>
-      <c r="G147" s="105"/>
-      <c r="H147" s="105"/>
-      <c r="I147" s="105"/>
-      <c r="J147" s="105"/>
-      <c r="K147" s="105"/>
-      <c r="L147" s="105"/>
-      <c r="M147" s="105"/>
-      <c r="N147" s="105"/>
-      <c r="O147" s="105"/>
-      <c r="P147" s="105"/>
-      <c r="Q147" s="105"/>
-      <c r="R147" s="106"/>
+      <c r="D147" s="106"/>
+      <c r="E147" s="106"/>
+      <c r="F147" s="106"/>
+      <c r="G147" s="106"/>
+      <c r="H147" s="106"/>
+      <c r="I147" s="106"/>
+      <c r="J147" s="106"/>
+      <c r="K147" s="106"/>
+      <c r="L147" s="106"/>
+      <c r="M147" s="106"/>
+      <c r="N147" s="106"/>
+      <c r="O147" s="106"/>
+      <c r="P147" s="106"/>
+      <c r="Q147" s="106"/>
+      <c r="R147" s="107"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000900</v>
       </c>
-      <c r="C148" s="104" t="s">
+      <c r="C148" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D148" s="105"/>
-      <c r="E148" s="105"/>
-      <c r="F148" s="105"/>
-      <c r="G148" s="105"/>
-      <c r="H148" s="105"/>
-      <c r="I148" s="105"/>
-      <c r="J148" s="105"/>
-      <c r="K148" s="105"/>
-      <c r="L148" s="105"/>
-      <c r="M148" s="105"/>
-      <c r="N148" s="105"/>
-      <c r="O148" s="105"/>
-      <c r="P148" s="105"/>
-      <c r="Q148" s="105"/>
-      <c r="R148" s="106"/>
+      <c r="D148" s="106"/>
+      <c r="E148" s="106"/>
+      <c r="F148" s="106"/>
+      <c r="G148" s="106"/>
+      <c r="H148" s="106"/>
+      <c r="I148" s="106"/>
+      <c r="J148" s="106"/>
+      <c r="K148" s="106"/>
+      <c r="L148" s="106"/>
+      <c r="M148" s="106"/>
+      <c r="N148" s="106"/>
+      <c r="O148" s="106"/>
+      <c r="P148" s="106"/>
+      <c r="Q148" s="106"/>
+      <c r="R148" s="107"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000910</v>
       </c>
-      <c r="C149" s="104" t="s">
+      <c r="C149" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D149" s="105"/>
-      <c r="E149" s="105"/>
-      <c r="F149" s="105"/>
-      <c r="G149" s="105"/>
-      <c r="H149" s="105"/>
-      <c r="I149" s="105"/>
-      <c r="J149" s="105"/>
-      <c r="K149" s="105"/>
-      <c r="L149" s="105"/>
-      <c r="M149" s="105"/>
-      <c r="N149" s="105"/>
-      <c r="O149" s="105"/>
-      <c r="P149" s="105"/>
-      <c r="Q149" s="105"/>
-      <c r="R149" s="106"/>
+      <c r="D149" s="106"/>
+      <c r="E149" s="106"/>
+      <c r="F149" s="106"/>
+      <c r="G149" s="106"/>
+      <c r="H149" s="106"/>
+      <c r="I149" s="106"/>
+      <c r="J149" s="106"/>
+      <c r="K149" s="106"/>
+      <c r="L149" s="106"/>
+      <c r="M149" s="106"/>
+      <c r="N149" s="106"/>
+      <c r="O149" s="106"/>
+      <c r="P149" s="106"/>
+      <c r="Q149" s="106"/>
+      <c r="R149" s="107"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000920</v>
       </c>
-      <c r="C150" s="104" t="s">
+      <c r="C150" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D150" s="105"/>
-      <c r="E150" s="105"/>
-      <c r="F150" s="105"/>
-      <c r="G150" s="105"/>
-      <c r="H150" s="105"/>
-      <c r="I150" s="105"/>
-      <c r="J150" s="105"/>
-      <c r="K150" s="105"/>
-      <c r="L150" s="105"/>
-      <c r="M150" s="105"/>
-      <c r="N150" s="105"/>
-      <c r="O150" s="105"/>
-      <c r="P150" s="105"/>
-      <c r="Q150" s="105"/>
-      <c r="R150" s="106"/>
+      <c r="D150" s="106"/>
+      <c r="E150" s="106"/>
+      <c r="F150" s="106"/>
+      <c r="G150" s="106"/>
+      <c r="H150" s="106"/>
+      <c r="I150" s="106"/>
+      <c r="J150" s="106"/>
+      <c r="K150" s="106"/>
+      <c r="L150" s="106"/>
+      <c r="M150" s="106"/>
+      <c r="N150" s="106"/>
+      <c r="O150" s="106"/>
+      <c r="P150" s="106"/>
+      <c r="Q150" s="106"/>
+      <c r="R150" s="107"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000930</v>
       </c>
-      <c r="C151" s="104" t="s">
+      <c r="C151" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="D151" s="105"/>
-      <c r="E151" s="105"/>
-      <c r="F151" s="105"/>
-      <c r="G151" s="105"/>
-      <c r="H151" s="105"/>
-      <c r="I151" s="105"/>
-      <c r="J151" s="105"/>
-      <c r="K151" s="105"/>
-      <c r="L151" s="105"/>
-      <c r="M151" s="105"/>
-      <c r="N151" s="105"/>
-      <c r="O151" s="105"/>
-      <c r="P151" s="105"/>
-      <c r="Q151" s="105"/>
-      <c r="R151" s="106"/>
+      <c r="D151" s="106"/>
+      <c r="E151" s="106"/>
+      <c r="F151" s="106"/>
+      <c r="G151" s="106"/>
+      <c r="H151" s="106"/>
+      <c r="I151" s="106"/>
+      <c r="J151" s="106"/>
+      <c r="K151" s="106"/>
+      <c r="L151" s="106"/>
+      <c r="M151" s="106"/>
+      <c r="N151" s="106"/>
+      <c r="O151" s="106"/>
+      <c r="P151" s="106"/>
+      <c r="Q151" s="106"/>
+      <c r="R151" s="107"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000940</v>
       </c>
-      <c r="C152" s="104" t="s">
+      <c r="C152" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D152" s="105"/>
-      <c r="E152" s="105"/>
-      <c r="F152" s="105"/>
-      <c r="G152" s="105"/>
-      <c r="H152" s="105"/>
-      <c r="I152" s="105"/>
-      <c r="J152" s="105"/>
-      <c r="K152" s="105"/>
-      <c r="L152" s="105"/>
-      <c r="M152" s="105"/>
-      <c r="N152" s="105"/>
-      <c r="O152" s="105"/>
-      <c r="P152" s="105"/>
-      <c r="Q152" s="105"/>
-      <c r="R152" s="106"/>
+      <c r="D152" s="106"/>
+      <c r="E152" s="106"/>
+      <c r="F152" s="106"/>
+      <c r="G152" s="106"/>
+      <c r="H152" s="106"/>
+      <c r="I152" s="106"/>
+      <c r="J152" s="106"/>
+      <c r="K152" s="106"/>
+      <c r="L152" s="106"/>
+      <c r="M152" s="106"/>
+      <c r="N152" s="106"/>
+      <c r="O152" s="106"/>
+      <c r="P152" s="106"/>
+      <c r="Q152" s="106"/>
+      <c r="R152" s="107"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000950</v>
       </c>
-      <c r="C153" s="104" t="s">
+      <c r="C153" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D153" s="105"/>
-      <c r="E153" s="105"/>
-      <c r="F153" s="105"/>
-      <c r="G153" s="105"/>
-      <c r="H153" s="105"/>
-      <c r="I153" s="105"/>
-      <c r="J153" s="105"/>
-      <c r="K153" s="105"/>
-      <c r="L153" s="105"/>
-      <c r="M153" s="105"/>
-      <c r="N153" s="105"/>
-      <c r="O153" s="105"/>
-      <c r="P153" s="105"/>
-      <c r="Q153" s="105"/>
-      <c r="R153" s="106"/>
+      <c r="D153" s="106"/>
+      <c r="E153" s="106"/>
+      <c r="F153" s="106"/>
+      <c r="G153" s="106"/>
+      <c r="H153" s="106"/>
+      <c r="I153" s="106"/>
+      <c r="J153" s="106"/>
+      <c r="K153" s="106"/>
+      <c r="L153" s="106"/>
+      <c r="M153" s="106"/>
+      <c r="N153" s="106"/>
+      <c r="O153" s="106"/>
+      <c r="P153" s="106"/>
+      <c r="Q153" s="106"/>
+      <c r="R153" s="107"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000960</v>
       </c>
-      <c r="C154" s="104" t="s">
+      <c r="C154" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D154" s="105"/>
-      <c r="E154" s="105"/>
-      <c r="F154" s="105"/>
-      <c r="G154" s="105"/>
-      <c r="H154" s="105"/>
-      <c r="I154" s="105"/>
-      <c r="J154" s="105"/>
-      <c r="K154" s="105"/>
-      <c r="L154" s="105"/>
-      <c r="M154" s="105"/>
-      <c r="N154" s="105"/>
-      <c r="O154" s="105"/>
-      <c r="P154" s="105"/>
-      <c r="Q154" s="105"/>
-      <c r="R154" s="106"/>
+      <c r="D154" s="106"/>
+      <c r="E154" s="106"/>
+      <c r="F154" s="106"/>
+      <c r="G154" s="106"/>
+      <c r="H154" s="106"/>
+      <c r="I154" s="106"/>
+      <c r="J154" s="106"/>
+      <c r="K154" s="106"/>
+      <c r="L154" s="106"/>
+      <c r="M154" s="106"/>
+      <c r="N154" s="106"/>
+      <c r="O154" s="106"/>
+      <c r="P154" s="106"/>
+      <c r="Q154" s="106"/>
+      <c r="R154" s="107"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000970</v>
       </c>
-      <c r="C155" s="104" t="s">
+      <c r="C155" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="D155" s="105"/>
-      <c r="E155" s="105"/>
-      <c r="F155" s="105"/>
-      <c r="G155" s="105"/>
-      <c r="H155" s="105"/>
-      <c r="I155" s="105"/>
-      <c r="J155" s="105"/>
-      <c r="K155" s="105"/>
-      <c r="L155" s="105"/>
-      <c r="M155" s="105"/>
-      <c r="N155" s="105"/>
-      <c r="O155" s="105"/>
-      <c r="P155" s="105"/>
-      <c r="Q155" s="105"/>
-      <c r="R155" s="106"/>
+      <c r="D155" s="106"/>
+      <c r="E155" s="106"/>
+      <c r="F155" s="106"/>
+      <c r="G155" s="106"/>
+      <c r="H155" s="106"/>
+      <c r="I155" s="106"/>
+      <c r="J155" s="106"/>
+      <c r="K155" s="106"/>
+      <c r="L155" s="106"/>
+      <c r="M155" s="106"/>
+      <c r="N155" s="106"/>
+      <c r="O155" s="106"/>
+      <c r="P155" s="106"/>
+      <c r="Q155" s="106"/>
+      <c r="R155" s="107"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000980</v>
       </c>
-      <c r="C156" s="104" t="s">
+      <c r="C156" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D156" s="105"/>
-      <c r="E156" s="105"/>
-      <c r="F156" s="105"/>
-      <c r="G156" s="105"/>
-      <c r="H156" s="105"/>
-      <c r="I156" s="105"/>
-      <c r="J156" s="105"/>
-      <c r="K156" s="105"/>
-      <c r="L156" s="105"/>
-      <c r="M156" s="105"/>
-      <c r="N156" s="105"/>
-      <c r="O156" s="105"/>
-      <c r="P156" s="105"/>
-      <c r="Q156" s="105"/>
-      <c r="R156" s="106"/>
+      <c r="D156" s="106"/>
+      <c r="E156" s="106"/>
+      <c r="F156" s="106"/>
+      <c r="G156" s="106"/>
+      <c r="H156" s="106"/>
+      <c r="I156" s="106"/>
+      <c r="J156" s="106"/>
+      <c r="K156" s="106"/>
+      <c r="L156" s="106"/>
+      <c r="M156" s="106"/>
+      <c r="N156" s="106"/>
+      <c r="O156" s="106"/>
+      <c r="P156" s="106"/>
+      <c r="Q156" s="106"/>
+      <c r="R156" s="107"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000990</v>
       </c>
-      <c r="C157" s="104" t="s">
+      <c r="C157" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="D157" s="105"/>
-      <c r="E157" s="105"/>
-      <c r="F157" s="105"/>
-      <c r="G157" s="105"/>
-      <c r="H157" s="105"/>
-      <c r="I157" s="105"/>
-      <c r="J157" s="105"/>
-      <c r="K157" s="105"/>
-      <c r="L157" s="105"/>
-      <c r="M157" s="105"/>
-      <c r="N157" s="105"/>
-      <c r="O157" s="105"/>
-      <c r="P157" s="105"/>
-      <c r="Q157" s="105"/>
-      <c r="R157" s="106"/>
+      <c r="D157" s="106"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="106"/>
+      <c r="G157" s="106"/>
+      <c r="H157" s="106"/>
+      <c r="I157" s="106"/>
+      <c r="J157" s="106"/>
+      <c r="K157" s="106"/>
+      <c r="L157" s="106"/>
+      <c r="M157" s="106"/>
+      <c r="N157" s="106"/>
+      <c r="O157" s="106"/>
+      <c r="P157" s="106"/>
+      <c r="Q157" s="106"/>
+      <c r="R157" s="107"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009A0</v>
       </c>
-      <c r="C158" s="104" t="s">
+      <c r="C158" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="D158" s="105"/>
-      <c r="E158" s="105"/>
-      <c r="F158" s="105"/>
-      <c r="G158" s="105"/>
-      <c r="H158" s="105"/>
-      <c r="I158" s="105"/>
-      <c r="J158" s="105"/>
-      <c r="K158" s="105"/>
-      <c r="L158" s="105"/>
-      <c r="M158" s="105"/>
-      <c r="N158" s="105"/>
-      <c r="O158" s="105"/>
-      <c r="P158" s="105"/>
-      <c r="Q158" s="105"/>
-      <c r="R158" s="106"/>
+      <c r="D158" s="106"/>
+      <c r="E158" s="106"/>
+      <c r="F158" s="106"/>
+      <c r="G158" s="106"/>
+      <c r="H158" s="106"/>
+      <c r="I158" s="106"/>
+      <c r="J158" s="106"/>
+      <c r="K158" s="106"/>
+      <c r="L158" s="106"/>
+      <c r="M158" s="106"/>
+      <c r="N158" s="106"/>
+      <c r="O158" s="106"/>
+      <c r="P158" s="106"/>
+      <c r="Q158" s="106"/>
+      <c r="R158" s="107"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009B0</v>
       </c>
-      <c r="C159" s="66" t="s">
+      <c r="C159" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="67"/>
-      <c r="H159" s="67"/>
-      <c r="I159" s="67"/>
-      <c r="J159" s="67"/>
-      <c r="K159" s="67"/>
-      <c r="L159" s="67"/>
-      <c r="M159" s="67"/>
-      <c r="N159" s="67"/>
-      <c r="O159" s="67"/>
-      <c r="P159" s="67"/>
-      <c r="Q159" s="67"/>
-      <c r="R159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="68"/>
+      <c r="I159" s="68"/>
+      <c r="J159" s="68"/>
+      <c r="K159" s="68"/>
+      <c r="L159" s="68"/>
+      <c r="M159" s="68"/>
+      <c r="N159" s="68"/>
+      <c r="O159" s="68"/>
+      <c r="P159" s="68"/>
+      <c r="Q159" s="68"/>
+      <c r="R159" s="69"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009C0</v>
       </c>
-      <c r="C160" s="69"/>
-      <c r="D160" s="70"/>
-      <c r="E160" s="70"/>
-      <c r="F160" s="70"/>
-      <c r="G160" s="70"/>
-      <c r="H160" s="70"/>
-      <c r="I160" s="70"/>
-      <c r="J160" s="70"/>
-      <c r="K160" s="70"/>
-      <c r="L160" s="70"/>
-      <c r="M160" s="70"/>
-      <c r="N160" s="70"/>
-      <c r="O160" s="70"/>
-      <c r="P160" s="70"/>
-      <c r="Q160" s="70"/>
-      <c r="R160" s="71"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="71"/>
+      <c r="E160" s="71"/>
+      <c r="F160" s="71"/>
+      <c r="G160" s="71"/>
+      <c r="H160" s="71"/>
+      <c r="I160" s="71"/>
+      <c r="J160" s="71"/>
+      <c r="K160" s="71"/>
+      <c r="L160" s="71"/>
+      <c r="M160" s="71"/>
+      <c r="N160" s="71"/>
+      <c r="O160" s="71"/>
+      <c r="P160" s="71"/>
+      <c r="Q160" s="71"/>
+      <c r="R160" s="72"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009D0</v>
       </c>
-      <c r="C161" s="69"/>
-      <c r="D161" s="70"/>
-      <c r="E161" s="70"/>
-      <c r="F161" s="70"/>
-      <c r="G161" s="70"/>
-      <c r="H161" s="70"/>
-      <c r="I161" s="70"/>
-      <c r="J161" s="70"/>
-      <c r="K161" s="70"/>
-      <c r="L161" s="70"/>
-      <c r="M161" s="70"/>
-      <c r="N161" s="70"/>
-      <c r="O161" s="70"/>
-      <c r="P161" s="70"/>
-      <c r="Q161" s="70"/>
-      <c r="R161" s="71"/>
+      <c r="C161" s="70"/>
+      <c r="D161" s="71"/>
+      <c r="E161" s="71"/>
+      <c r="F161" s="71"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="71"/>
+      <c r="I161" s="71"/>
+      <c r="J161" s="71"/>
+      <c r="K161" s="71"/>
+      <c r="L161" s="71"/>
+      <c r="M161" s="71"/>
+      <c r="N161" s="71"/>
+      <c r="O161" s="71"/>
+      <c r="P161" s="71"/>
+      <c r="Q161" s="71"/>
+      <c r="R161" s="72"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009E0</v>
       </c>
-      <c r="C162" s="69"/>
-      <c r="D162" s="70"/>
-      <c r="E162" s="70"/>
-      <c r="F162" s="70"/>
-      <c r="G162" s="70"/>
-      <c r="H162" s="70"/>
-      <c r="I162" s="70"/>
-      <c r="J162" s="70"/>
-      <c r="K162" s="70"/>
-      <c r="L162" s="70"/>
-      <c r="M162" s="70"/>
-      <c r="N162" s="70"/>
-      <c r="O162" s="70"/>
-      <c r="P162" s="70"/>
-      <c r="Q162" s="70"/>
-      <c r="R162" s="71"/>
+      <c r="C162" s="70"/>
+      <c r="D162" s="71"/>
+      <c r="E162" s="71"/>
+      <c r="F162" s="71"/>
+      <c r="G162" s="71"/>
+      <c r="H162" s="71"/>
+      <c r="I162" s="71"/>
+      <c r="J162" s="71"/>
+      <c r="K162" s="71"/>
+      <c r="L162" s="71"/>
+      <c r="M162" s="71"/>
+      <c r="N162" s="71"/>
+      <c r="O162" s="71"/>
+      <c r="P162" s="71"/>
+      <c r="Q162" s="71"/>
+      <c r="R162" s="72"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="str">
         <f t="shared" si="2"/>
         <v>000009F0</v>
       </c>
-      <c r="C163" s="69"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="70"/>
-      <c r="G163" s="70"/>
-      <c r="H163" s="70"/>
-      <c r="I163" s="70"/>
-      <c r="J163" s="70"/>
-      <c r="K163" s="70"/>
-      <c r="L163" s="70"/>
-      <c r="M163" s="70"/>
-      <c r="N163" s="70"/>
-      <c r="O163" s="70"/>
-      <c r="P163" s="70"/>
-      <c r="Q163" s="70"/>
-      <c r="R163" s="71"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="71"/>
+      <c r="G163" s="71"/>
+      <c r="H163" s="71"/>
+      <c r="I163" s="71"/>
+      <c r="J163" s="71"/>
+      <c r="K163" s="71"/>
+      <c r="L163" s="71"/>
+      <c r="M163" s="71"/>
+      <c r="N163" s="71"/>
+      <c r="O163" s="71"/>
+      <c r="P163" s="71"/>
+      <c r="Q163" s="71"/>
+      <c r="R163" s="72"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A00</v>
       </c>
-      <c r="C164" s="69"/>
-      <c r="D164" s="70"/>
-      <c r="E164" s="70"/>
-      <c r="F164" s="70"/>
-      <c r="G164" s="70"/>
-      <c r="H164" s="70"/>
-      <c r="I164" s="70"/>
-      <c r="J164" s="70"/>
-      <c r="K164" s="70"/>
-      <c r="L164" s="70"/>
-      <c r="M164" s="70"/>
-      <c r="N164" s="70"/>
-      <c r="O164" s="70"/>
-      <c r="P164" s="70"/>
-      <c r="Q164" s="70"/>
-      <c r="R164" s="71"/>
+      <c r="C164" s="70"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="71"/>
+      <c r="G164" s="71"/>
+      <c r="H164" s="71"/>
+      <c r="I164" s="71"/>
+      <c r="J164" s="71"/>
+      <c r="K164" s="71"/>
+      <c r="L164" s="71"/>
+      <c r="M164" s="71"/>
+      <c r="N164" s="71"/>
+      <c r="O164" s="71"/>
+      <c r="P164" s="71"/>
+      <c r="Q164" s="71"/>
+      <c r="R164" s="72"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A10</v>
       </c>
-      <c r="C165" s="72"/>
-      <c r="D165" s="73"/>
-      <c r="E165" s="73"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="73"/>
-      <c r="I165" s="73"/>
-      <c r="J165" s="73"/>
-      <c r="K165" s="73"/>
-      <c r="L165" s="73"/>
-      <c r="M165" s="73"/>
-      <c r="N165" s="73"/>
-      <c r="O165" s="73"/>
-      <c r="P165" s="73"/>
-      <c r="Q165" s="73"/>
-      <c r="R165" s="74"/>
+      <c r="C165" s="73"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="74"/>
+      <c r="K165" s="74"/>
+      <c r="L165" s="74"/>
+      <c r="M165" s="74"/>
+      <c r="N165" s="74"/>
+      <c r="O165" s="74"/>
+      <c r="P165" s="74"/>
+      <c r="Q165" s="74"/>
+      <c r="R165" s="75"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A20</v>
       </c>
-      <c r="C166" s="110" t="s">
+      <c r="C166" s="111" t="s">
         <v>275</v>
       </c>
-      <c r="D166" s="111"/>
-      <c r="E166" s="111"/>
-      <c r="F166" s="111"/>
-      <c r="G166" s="111"/>
-      <c r="H166" s="111"/>
-      <c r="I166" s="111"/>
-      <c r="J166" s="111"/>
-      <c r="K166" s="111"/>
-      <c r="L166" s="111"/>
-      <c r="M166" s="111"/>
-      <c r="N166" s="111"/>
-      <c r="O166" s="111"/>
-      <c r="P166" s="111"/>
-      <c r="Q166" s="111"/>
-      <c r="R166" s="112"/>
+      <c r="D166" s="112"/>
+      <c r="E166" s="112"/>
+      <c r="F166" s="112"/>
+      <c r="G166" s="112"/>
+      <c r="H166" s="112"/>
+      <c r="I166" s="112"/>
+      <c r="J166" s="112"/>
+      <c r="K166" s="112"/>
+      <c r="L166" s="112"/>
+      <c r="M166" s="112"/>
+      <c r="N166" s="112"/>
+      <c r="O166" s="112"/>
+      <c r="P166" s="112"/>
+      <c r="Q166" s="112"/>
+      <c r="R166" s="113"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A30</v>
       </c>
-      <c r="C167" s="54" t="s">
+      <c r="C167" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="55"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="55"/>
-      <c r="I167" s="55"/>
-      <c r="J167" s="55"/>
-      <c r="K167" s="55"/>
-      <c r="L167" s="55"/>
-      <c r="M167" s="55"/>
-      <c r="N167" s="55"/>
-      <c r="O167" s="55"/>
-      <c r="P167" s="55"/>
-      <c r="Q167" s="55"/>
-      <c r="R167" s="56"/>
+      <c r="D167" s="56"/>
+      <c r="E167" s="56"/>
+      <c r="F167" s="56"/>
+      <c r="G167" s="56"/>
+      <c r="H167" s="56"/>
+      <c r="I167" s="56"/>
+      <c r="J167" s="56"/>
+      <c r="K167" s="56"/>
+      <c r="L167" s="56"/>
+      <c r="M167" s="56"/>
+      <c r="N167" s="56"/>
+      <c r="O167" s="56"/>
+      <c r="P167" s="56"/>
+      <c r="Q167" s="56"/>
+      <c r="R167" s="57"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A40</v>
       </c>
-      <c r="C168" s="57"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="58"/>
-      <c r="J168" s="58"/>
-      <c r="K168" s="58"/>
-      <c r="L168" s="58"/>
-      <c r="M168" s="58"/>
-      <c r="N168" s="58"/>
-      <c r="O168" s="58"/>
-      <c r="P168" s="58"/>
-      <c r="Q168" s="58"/>
-      <c r="R168" s="59"/>
+      <c r="C168" s="58"/>
+      <c r="D168" s="59"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="59"/>
+      <c r="I168" s="59"/>
+      <c r="J168" s="59"/>
+      <c r="K168" s="59"/>
+      <c r="L168" s="59"/>
+      <c r="M168" s="59"/>
+      <c r="N168" s="59"/>
+      <c r="O168" s="59"/>
+      <c r="P168" s="59"/>
+      <c r="Q168" s="59"/>
+      <c r="R168" s="60"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A50</v>
       </c>
-      <c r="C169" s="60"/>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="61"/>
-      <c r="L169" s="61"/>
-      <c r="M169" s="61"/>
-      <c r="N169" s="61"/>
-      <c r="O169" s="61"/>
-      <c r="P169" s="61"/>
-      <c r="Q169" s="61"/>
-      <c r="R169" s="62"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="62"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="62"/>
+      <c r="G169" s="62"/>
+      <c r="H169" s="62"/>
+      <c r="I169" s="62"/>
+      <c r="J169" s="62"/>
+      <c r="K169" s="62"/>
+      <c r="L169" s="62"/>
+      <c r="M169" s="62"/>
+      <c r="N169" s="62"/>
+      <c r="O169" s="62"/>
+      <c r="P169" s="62"/>
+      <c r="Q169" s="62"/>
+      <c r="R169" s="63"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A60</v>
       </c>
-      <c r="C170" s="54" t="s">
+      <c r="C170" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="D170" s="55"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="55"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="55"/>
-      <c r="J170" s="55"/>
-      <c r="K170" s="55"/>
-      <c r="L170" s="55"/>
-      <c r="M170" s="55"/>
-      <c r="N170" s="55"/>
-      <c r="O170" s="55"/>
-      <c r="P170" s="55"/>
-      <c r="Q170" s="55"/>
-      <c r="R170" s="56"/>
+      <c r="D170" s="56"/>
+      <c r="E170" s="56"/>
+      <c r="F170" s="56"/>
+      <c r="G170" s="56"/>
+      <c r="H170" s="56"/>
+      <c r="I170" s="56"/>
+      <c r="J170" s="56"/>
+      <c r="K170" s="56"/>
+      <c r="L170" s="56"/>
+      <c r="M170" s="56"/>
+      <c r="N170" s="56"/>
+      <c r="O170" s="56"/>
+      <c r="P170" s="56"/>
+      <c r="Q170" s="56"/>
+      <c r="R170" s="57"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A70</v>
       </c>
-      <c r="C171" s="57"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="58"/>
-      <c r="H171" s="58"/>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="58"/>
-      <c r="L171" s="58"/>
-      <c r="M171" s="58"/>
-      <c r="N171" s="58"/>
-      <c r="O171" s="58"/>
-      <c r="P171" s="58"/>
-      <c r="Q171" s="58"/>
-      <c r="R171" s="59"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="59"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="59"/>
+      <c r="P171" s="59"/>
+      <c r="Q171" s="59"/>
+      <c r="R171" s="60"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A80</v>
       </c>
-      <c r="C172" s="60"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="61"/>
-      <c r="F172" s="61"/>
-      <c r="G172" s="61"/>
-      <c r="H172" s="61"/>
-      <c r="I172" s="61"/>
-      <c r="J172" s="61"/>
-      <c r="K172" s="61"/>
-      <c r="L172" s="61"/>
-      <c r="M172" s="61"/>
-      <c r="N172" s="61"/>
-      <c r="O172" s="61"/>
-      <c r="P172" s="61"/>
-      <c r="Q172" s="61"/>
-      <c r="R172" s="62"/>
+      <c r="C172" s="61"/>
+      <c r="D172" s="62"/>
+      <c r="E172" s="62"/>
+      <c r="F172" s="62"/>
+      <c r="G172" s="62"/>
+      <c r="H172" s="62"/>
+      <c r="I172" s="62"/>
+      <c r="J172" s="62"/>
+      <c r="K172" s="62"/>
+      <c r="L172" s="62"/>
+      <c r="M172" s="62"/>
+      <c r="N172" s="62"/>
+      <c r="O172" s="62"/>
+      <c r="P172" s="62"/>
+      <c r="Q172" s="62"/>
+      <c r="R172" s="63"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000A90</v>
       </c>
-      <c r="C173" s="54" t="s">
+      <c r="C173" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="D173" s="55"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="55"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="55"/>
-      <c r="I173" s="55"/>
-      <c r="J173" s="55"/>
-      <c r="K173" s="55"/>
-      <c r="L173" s="55"/>
-      <c r="M173" s="55"/>
-      <c r="N173" s="55"/>
-      <c r="O173" s="55"/>
-      <c r="P173" s="55"/>
-      <c r="Q173" s="55"/>
-      <c r="R173" s="56"/>
+      <c r="D173" s="56"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="56"/>
+      <c r="G173" s="56"/>
+      <c r="H173" s="56"/>
+      <c r="I173" s="56"/>
+      <c r="J173" s="56"/>
+      <c r="K173" s="56"/>
+      <c r="L173" s="56"/>
+      <c r="M173" s="56"/>
+      <c r="N173" s="56"/>
+      <c r="O173" s="56"/>
+      <c r="P173" s="56"/>
+      <c r="Q173" s="56"/>
+      <c r="R173" s="57"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AA0</v>
       </c>
-      <c r="C174" s="57"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="58"/>
-      <c r="H174" s="58"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="58"/>
-      <c r="L174" s="58"/>
-      <c r="M174" s="58"/>
-      <c r="N174" s="58"/>
-      <c r="O174" s="58"/>
-      <c r="P174" s="58"/>
-      <c r="Q174" s="58"/>
-      <c r="R174" s="59"/>
+      <c r="C174" s="58"/>
+      <c r="D174" s="59"/>
+      <c r="E174" s="59"/>
+      <c r="F174" s="59"/>
+      <c r="G174" s="59"/>
+      <c r="H174" s="59"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="59"/>
+      <c r="K174" s="59"/>
+      <c r="L174" s="59"/>
+      <c r="M174" s="59"/>
+      <c r="N174" s="59"/>
+      <c r="O174" s="59"/>
+      <c r="P174" s="59"/>
+      <c r="Q174" s="59"/>
+      <c r="R174" s="60"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AB0</v>
       </c>
-      <c r="C175" s="60"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="61"/>
-      <c r="J175" s="61"/>
-      <c r="K175" s="61"/>
-      <c r="L175" s="61"/>
-      <c r="M175" s="61"/>
-      <c r="N175" s="61"/>
-      <c r="O175" s="61"/>
-      <c r="P175" s="61"/>
-      <c r="Q175" s="61"/>
-      <c r="R175" s="62"/>
+      <c r="C175" s="61"/>
+      <c r="D175" s="62"/>
+      <c r="E175" s="62"/>
+      <c r="F175" s="62"/>
+      <c r="G175" s="62"/>
+      <c r="H175" s="62"/>
+      <c r="I175" s="62"/>
+      <c r="J175" s="62"/>
+      <c r="K175" s="62"/>
+      <c r="L175" s="62"/>
+      <c r="M175" s="62"/>
+      <c r="N175" s="62"/>
+      <c r="O175" s="62"/>
+      <c r="P175" s="62"/>
+      <c r="Q175" s="62"/>
+      <c r="R175" s="63"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AC0</v>
       </c>
-      <c r="C176" s="54" t="s">
+      <c r="C176" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="55"/>
-      <c r="L176" s="55"/>
-      <c r="M176" s="55"/>
-      <c r="N176" s="55"/>
-      <c r="O176" s="55"/>
-      <c r="P176" s="55"/>
-      <c r="Q176" s="55"/>
-      <c r="R176" s="56"/>
+      <c r="D176" s="56"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="56"/>
+      <c r="G176" s="56"/>
+      <c r="H176" s="56"/>
+      <c r="I176" s="56"/>
+      <c r="J176" s="56"/>
+      <c r="K176" s="56"/>
+      <c r="L176" s="56"/>
+      <c r="M176" s="56"/>
+      <c r="N176" s="56"/>
+      <c r="O176" s="56"/>
+      <c r="P176" s="56"/>
+      <c r="Q176" s="56"/>
+      <c r="R176" s="57"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AD0</v>
       </c>
-      <c r="C177" s="57"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="58"/>
-      <c r="L177" s="58"/>
-      <c r="M177" s="58"/>
-      <c r="N177" s="58"/>
-      <c r="O177" s="58"/>
-      <c r="P177" s="58"/>
-      <c r="Q177" s="58"/>
-      <c r="R177" s="59"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="59"/>
+      <c r="E177" s="59"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="59"/>
+      <c r="H177" s="59"/>
+      <c r="I177" s="59"/>
+      <c r="J177" s="59"/>
+      <c r="K177" s="59"/>
+      <c r="L177" s="59"/>
+      <c r="M177" s="59"/>
+      <c r="N177" s="59"/>
+      <c r="O177" s="59"/>
+      <c r="P177" s="59"/>
+      <c r="Q177" s="59"/>
+      <c r="R177" s="60"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AE0</v>
       </c>
-      <c r="C178" s="60"/>
-      <c r="D178" s="61"/>
-      <c r="E178" s="61"/>
-      <c r="F178" s="61"/>
-      <c r="G178" s="61"/>
-      <c r="H178" s="61"/>
-      <c r="I178" s="61"/>
-      <c r="J178" s="61"/>
-      <c r="K178" s="61"/>
-      <c r="L178" s="61"/>
-      <c r="M178" s="61"/>
-      <c r="N178" s="61"/>
-      <c r="O178" s="61"/>
-      <c r="P178" s="61"/>
-      <c r="Q178" s="61"/>
-      <c r="R178" s="62"/>
+      <c r="C178" s="61"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="62"/>
+      <c r="F178" s="62"/>
+      <c r="G178" s="62"/>
+      <c r="H178" s="62"/>
+      <c r="I178" s="62"/>
+      <c r="J178" s="62"/>
+      <c r="K178" s="62"/>
+      <c r="L178" s="62"/>
+      <c r="M178" s="62"/>
+      <c r="N178" s="62"/>
+      <c r="O178" s="62"/>
+      <c r="P178" s="62"/>
+      <c r="Q178" s="62"/>
+      <c r="R178" s="63"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000AF0</v>
       </c>
-      <c r="C179" s="54" t="s">
+      <c r="C179" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="55"/>
-      <c r="J179" s="55"/>
-      <c r="K179" s="55"/>
-      <c r="L179" s="55"/>
-      <c r="M179" s="55"/>
-      <c r="N179" s="55"/>
-      <c r="O179" s="55"/>
-      <c r="P179" s="55"/>
-      <c r="Q179" s="55"/>
-      <c r="R179" s="56"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="56"/>
+      <c r="G179" s="56"/>
+      <c r="H179" s="56"/>
+      <c r="I179" s="56"/>
+      <c r="J179" s="56"/>
+      <c r="K179" s="56"/>
+      <c r="L179" s="56"/>
+      <c r="M179" s="56"/>
+      <c r="N179" s="56"/>
+      <c r="O179" s="56"/>
+      <c r="P179" s="56"/>
+      <c r="Q179" s="56"/>
+      <c r="R179" s="57"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B00</v>
       </c>
-      <c r="C180" s="57"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="58"/>
-      <c r="H180" s="58"/>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="58"/>
-      <c r="L180" s="58"/>
-      <c r="M180" s="58"/>
-      <c r="N180" s="58"/>
-      <c r="O180" s="58"/>
-      <c r="P180" s="58"/>
-      <c r="Q180" s="58"/>
-      <c r="R180" s="59"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="59"/>
+      <c r="E180" s="59"/>
+      <c r="F180" s="59"/>
+      <c r="G180" s="59"/>
+      <c r="H180" s="59"/>
+      <c r="I180" s="59"/>
+      <c r="J180" s="59"/>
+      <c r="K180" s="59"/>
+      <c r="L180" s="59"/>
+      <c r="M180" s="59"/>
+      <c r="N180" s="59"/>
+      <c r="O180" s="59"/>
+      <c r="P180" s="59"/>
+      <c r="Q180" s="59"/>
+      <c r="R180" s="60"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B10</v>
       </c>
-      <c r="C181" s="60"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
-      <c r="I181" s="61"/>
-      <c r="J181" s="61"/>
-      <c r="K181" s="61"/>
-      <c r="L181" s="61"/>
-      <c r="M181" s="61"/>
-      <c r="N181" s="61"/>
-      <c r="O181" s="61"/>
-      <c r="P181" s="61"/>
-      <c r="Q181" s="61"/>
-      <c r="R181" s="62"/>
+      <c r="C181" s="61"/>
+      <c r="D181" s="62"/>
+      <c r="E181" s="62"/>
+      <c r="F181" s="62"/>
+      <c r="G181" s="62"/>
+      <c r="H181" s="62"/>
+      <c r="I181" s="62"/>
+      <c r="J181" s="62"/>
+      <c r="K181" s="62"/>
+      <c r="L181" s="62"/>
+      <c r="M181" s="62"/>
+      <c r="N181" s="62"/>
+      <c r="O181" s="62"/>
+      <c r="P181" s="62"/>
+      <c r="Q181" s="62"/>
+      <c r="R181" s="63"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B20</v>
       </c>
-      <c r="C182" s="54" t="s">
+      <c r="C182" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="55"/>
-      <c r="J182" s="55"/>
-      <c r="K182" s="55"/>
-      <c r="L182" s="55"/>
-      <c r="M182" s="55"/>
-      <c r="N182" s="55"/>
-      <c r="O182" s="55"/>
-      <c r="P182" s="55"/>
-      <c r="Q182" s="55"/>
-      <c r="R182" s="56"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="56"/>
+      <c r="F182" s="56"/>
+      <c r="G182" s="56"/>
+      <c r="H182" s="56"/>
+      <c r="I182" s="56"/>
+      <c r="J182" s="56"/>
+      <c r="K182" s="56"/>
+      <c r="L182" s="56"/>
+      <c r="M182" s="56"/>
+      <c r="N182" s="56"/>
+      <c r="O182" s="56"/>
+      <c r="P182" s="56"/>
+      <c r="Q182" s="56"/>
+      <c r="R182" s="57"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B30</v>
       </c>
-      <c r="C183" s="57"/>
-      <c r="D183" s="58"/>
-      <c r="E183" s="58"/>
-      <c r="F183" s="58"/>
-      <c r="G183" s="58"/>
-      <c r="H183" s="58"/>
-      <c r="I183" s="58"/>
-      <c r="J183" s="58"/>
-      <c r="K183" s="58"/>
-      <c r="L183" s="58"/>
-      <c r="M183" s="58"/>
-      <c r="N183" s="58"/>
-      <c r="O183" s="58"/>
-      <c r="P183" s="58"/>
-      <c r="Q183" s="58"/>
-      <c r="R183" s="59"/>
+      <c r="C183" s="58"/>
+      <c r="D183" s="59"/>
+      <c r="E183" s="59"/>
+      <c r="F183" s="59"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="59"/>
+      <c r="L183" s="59"/>
+      <c r="M183" s="59"/>
+      <c r="N183" s="59"/>
+      <c r="O183" s="59"/>
+      <c r="P183" s="59"/>
+      <c r="Q183" s="59"/>
+      <c r="R183" s="60"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B40</v>
       </c>
-      <c r="C184" s="60"/>
-      <c r="D184" s="61"/>
-      <c r="E184" s="61"/>
-      <c r="F184" s="61"/>
-      <c r="G184" s="61"/>
-      <c r="H184" s="61"/>
-      <c r="I184" s="61"/>
-      <c r="J184" s="61"/>
-      <c r="K184" s="61"/>
-      <c r="L184" s="61"/>
-      <c r="M184" s="61"/>
-      <c r="N184" s="61"/>
-      <c r="O184" s="61"/>
-      <c r="P184" s="61"/>
-      <c r="Q184" s="61"/>
-      <c r="R184" s="62"/>
+      <c r="C184" s="61"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="62"/>
+      <c r="G184" s="62"/>
+      <c r="H184" s="62"/>
+      <c r="I184" s="62"/>
+      <c r="J184" s="62"/>
+      <c r="K184" s="62"/>
+      <c r="L184" s="62"/>
+      <c r="M184" s="62"/>
+      <c r="N184" s="62"/>
+      <c r="O184" s="62"/>
+      <c r="P184" s="62"/>
+      <c r="Q184" s="62"/>
+      <c r="R184" s="63"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="str">
         <f t="shared" si="2"/>
         <v>00000B50</v>
       </c>
-      <c r="C185" s="63" t="s">
+      <c r="C185" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="D185" s="64"/>
-      <c r="E185" s="64"/>
-      <c r="F185" s="64"/>
-      <c r="G185" s="64"/>
-      <c r="H185" s="64"/>
-      <c r="I185" s="64"/>
-      <c r="J185" s="64"/>
-      <c r="K185" s="64"/>
-      <c r="L185" s="64"/>
-      <c r="M185" s="64"/>
-      <c r="N185" s="64"/>
-      <c r="O185" s="64"/>
-      <c r="P185" s="64"/>
-      <c r="Q185" s="64"/>
-      <c r="R185" s="65"/>
+      <c r="D185" s="65"/>
+      <c r="E185" s="65"/>
+      <c r="F185" s="65"/>
+      <c r="G185" s="65"/>
+      <c r="H185" s="65"/>
+      <c r="I185" s="65"/>
+      <c r="J185" s="65"/>
+      <c r="K185" s="65"/>
+      <c r="L185" s="65"/>
+      <c r="M185" s="65"/>
+      <c r="N185" s="65"/>
+      <c r="O185" s="65"/>
+      <c r="P185" s="65"/>
+      <c r="Q185" s="65"/>
+      <c r="R185" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -8876,7 +8974,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8962,240 +9060,240 @@
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="116" t="s">
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="119"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="str">
         <f>DEC2HEX(A4+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="96" t="s">
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="104" t="s">
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="104" t="s">
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A5)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="104" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="104" t="s">
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="104" t="s">
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="107"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="str">
         <f t="shared" ref="A7:A11" si="0">DEC2HEX(HEX2DEC(A6)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="104" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="104" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="104" t="s">
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="104" t="s">
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="104" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="104" t="s">
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="107"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0050</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="104" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="104" t="s">
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="104" t="s">
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="107"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0060</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="122" t="s">
+      <c r="D10" s="124"/>
+      <c r="E10" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124" t="s">
+      <c r="F10" s="124"/>
+      <c r="G10" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="24" t="s">
         <v>102</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="96" t="s">
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0070</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="104" t="s">
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="104" t="s">
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="104" t="s">
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="107"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -9477,12 +9575,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O10:R10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="K11:N11"/>
@@ -9491,17 +9583,23 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O7:R7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O6:R6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:R6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
@@ -9522,7 +9620,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9601,7 +9699,7 @@
         <v>0000</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>116</v>
@@ -9612,24 +9710,24 @@
       <c r="F4" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="104" t="s">
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="104" t="s">
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="130"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -10060,7 +10158,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10580,7 +10678,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -10663,12 +10761,12 @@
         <v>76</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="132"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
@@ -10721,12 +10819,12 @@
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
@@ -10760,58 +10858,58 @@
       <c r="D10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="104" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="87" t="s">
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="87" t="s">
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f>DEC2HEX(A10+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="122" t="s">
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="122" t="s">
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="122" t="s">
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="str">
@@ -10823,50 +10921,50 @@
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="132" t="s">
+      <c r="G12" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="96" t="s">
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="96" t="s">
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="101"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f t="shared" ref="A13" si="0">DEC2HEX(HEX2DEC(A12)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="96" t="s">
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="101"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
@@ -11251,7 +11349,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11272,10 +11370,10 @@
       <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="138"/>
+      <c r="G2" s="139"/>
       <c r="H2" s="7" t="s">
         <v>197</v>
       </c>
@@ -11359,12 +11457,12 @@
       <c r="J4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="137"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -11796,8 +11894,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:J28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11887,22 +11985,20 @@
       <c r="G4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>203</v>
-      </c>
+      <c r="H4" s="36"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="139" t="s">
+      <c r="K4" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="139" t="s">
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="123"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="124"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -11923,11 +12019,11 @@
       <c r="J6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="153" t="s">
+      <c r="K6" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="154"/>
-      <c r="M6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="156"/>
       <c r="N6" s="18" t="s">
         <v>40</v>
       </c>
@@ -11966,108 +12062,108 @@
       <c r="F8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="159" t="s">
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="159" t="s">
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="130"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="str">
         <f>DEC2HEX(A8+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="149" t="s">
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="149" t="s">
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="149" t="s">
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="128"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A9)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="143" t="s">
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="146" t="s">
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="146" t="s">
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="149"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="str">
         <f t="shared" ref="A11:A17" si="0">DEC2HEX(HEX2DEC(A10)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="146" t="s">
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="146" t="s">
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="149"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -12078,60 +12174,60 @@
         <f t="shared" si="0"/>
         <v>0040</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="150" t="s">
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="150" t="s">
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="150" t="s">
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>0050</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="156" t="s">
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="156" t="s">
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="156" t="s">
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="159"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="str">
@@ -12332,80 +12428,83 @@
       <c r="F21" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="104" t="s">
+      <c r="H21" s="107"/>
+      <c r="I21" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="106"/>
-      <c r="K21" s="96" t="s">
+      <c r="J21" s="107"/>
+      <c r="K21" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="96" t="s">
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f>DEC2HEX(A21+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="93" t="s">
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="87" t="s">
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="87" t="s">
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f>DEC2HEX(HEX2DEC(A22)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="87" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="87" t="s">
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="26" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -12425,66 +12524,58 @@
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="str">
         <f>DEC2HEX(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
       <c r="F26" s="165"/>
-      <c r="G26" s="163" t="s">
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="163" t="s">
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="166"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="str">
         <f>DEC2HEX(A26+16, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="168" t="s">
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="167" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="168" t="s">
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="167" t="s">
         <v>237</v>
       </c>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="170"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="169"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
@@ -12495,150 +12586,150 @@
         <f>DEC2HEX(HEX2DEC(A27)+16, 4)</f>
         <v>0020</v>
       </c>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="161" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="160" t="s">
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="161" t="s">
         <v>242</v>
       </c>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="160" t="s">
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="160" t="s">
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="163"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f t="shared" ref="A29:A32" si="1">DEC2HEX(HEX2DEC(A28)+16, 4)</f>
         <v>0030</v>
       </c>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="160" t="s">
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="161" t="s">
         <v>246</v>
       </c>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="160" t="s">
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="160" t="s">
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="162"/>
+      <c r="R29" s="163"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>0040</v>
       </c>
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="160" t="s">
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="161" t="s">
         <v>250</v>
       </c>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="160" t="s">
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="161" t="s">
         <v>251</v>
       </c>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="160" t="s">
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="163"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>0050</v>
       </c>
-      <c r="C31" s="160" t="s">
+      <c r="C31" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="160" t="s">
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="161" t="s">
         <v>254</v>
       </c>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="160" t="s">
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="161" t="s">
         <v>255</v>
       </c>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="160" t="s">
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="161" t="s">
         <v>256</v>
       </c>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="163"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f t="shared" si="1"/>
         <v>0060</v>
       </c>
-      <c r="C32" s="160" t="s">
+      <c r="C32" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="160" t="s">
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="161" t="s">
         <v>258</v>
       </c>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="160" t="s">
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="161" t="s">
         <v>259</v>
       </c>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="160" t="s">
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="163"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -12682,15 +12773,15 @@
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="O31:R31"/>
     <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="O28:R28"/>
-    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C26:J26"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="C13:F13"/>
@@ -12825,24 +12916,24 @@
         <v>76</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="116" t="s">
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="116" t="s">
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="117" t="s">
         <v>272</v>
       </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="119"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
